--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -6042,7 +6042,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3377624</v>
+        <v>3377622</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6054,55 +6054,55 @@
         <v>44297.375</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
         <v>46</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>3.9</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>3.6</v>
+      </c>
+      <c r="P63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>3.25</v>
-      </c>
-      <c r="N63">
-        <v>2.1</v>
-      </c>
-      <c r="O63">
-        <v>3.4</v>
-      </c>
-      <c r="P63">
-        <v>3.5</v>
-      </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6111,16 +6111,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3377622</v>
+        <v>3377624</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,55 +6143,55 @@
         <v>44297.375</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>3</v>
-      </c>
-      <c r="I64">
-        <v>4</v>
       </c>
       <c r="J64" t="s">
         <v>46</v>
       </c>
       <c r="K64">
+        <v>2.15</v>
+      </c>
+      <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>3.25</v>
+      </c>
+      <c r="N64">
+        <v>2.1</v>
+      </c>
+      <c r="O64">
+        <v>3.4</v>
+      </c>
+      <c r="P64">
+        <v>3.5</v>
+      </c>
+      <c r="Q64">
+        <v>-0.25</v>
+      </c>
+      <c r="R64">
         <v>1.85</v>
       </c>
-      <c r="L64">
-        <v>3.75</v>
-      </c>
-      <c r="M64">
-        <v>3.9</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>2.05</v>
-      </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6200,16 +6200,16 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -7021,7 +7021,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3377634</v>
+        <v>3377635</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7033,76 +7033,76 @@
         <v>44307.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>2.2</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q74">
         <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7110,7 +7110,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3377635</v>
+        <v>3377634</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7122,76 +7122,76 @@
         <v>44307.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>2.2</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N75">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
         <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z75">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -11382,7 +11382,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>3613055</v>
+        <v>3613054</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11394,76 +11394,76 @@
         <v>44402.375</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>45</v>
       </c>
       <c r="K123">
+        <v>3.1</v>
+      </c>
+      <c r="L123">
+        <v>3.6</v>
+      </c>
+      <c r="M123">
         <v>2.2</v>
       </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>3.2</v>
-      </c>
       <c r="N123">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11471,7 +11471,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>3613054</v>
+        <v>3613055</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11483,76 +11483,76 @@
         <v>44402.375</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N124">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
         <v>1.875</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>1.975</v>
       </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>1.95</v>
-      </c>
-      <c r="V124">
-        <v>1.9</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -15565,7 +15565,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3613102</v>
+        <v>3613106</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15577,76 +15577,76 @@
         <v>44465.375</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L170">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N170">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15654,7 +15654,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3613106</v>
+        <v>3613102</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15666,76 +15666,76 @@
         <v>44465.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K171">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N171">
+        <v>1.6</v>
+      </c>
+      <c r="O171">
+        <v>4.2</v>
+      </c>
+      <c r="P171">
+        <v>5</v>
+      </c>
+      <c r="Q171">
+        <v>-0.75</v>
+      </c>
+      <c r="R171">
+        <v>1.8</v>
+      </c>
+      <c r="S171">
         <v>2.05</v>
       </c>
-      <c r="O171">
-        <v>3.6</v>
-      </c>
-      <c r="P171">
-        <v>3.4</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
-      <c r="R171">
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="S171">
-        <v>2.025</v>
-      </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>1.925</v>
-      </c>
-      <c r="V171">
-        <v>1.925</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X171">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
+        <v>0.4</v>
+      </c>
+      <c r="AA171">
         <v>-0.5</v>
       </c>
-      <c r="AA171">
-        <v>0.5125</v>
-      </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3613141</v>
+        <v>3613140</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,76 +18870,76 @@
         <v>44521.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K207">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="N207">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O207">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P207">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
+        <v>1.875</v>
+      </c>
+      <c r="S207">
         <v>1.975</v>
       </c>
-      <c r="S207">
+      <c r="T207">
+        <v>3</v>
+      </c>
+      <c r="U207">
+        <v>1.975</v>
+      </c>
+      <c r="V207">
         <v>1.875</v>
       </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
-      <c r="U207">
-        <v>2</v>
-      </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
       <c r="W207">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18947,7 +18947,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3613140</v>
+        <v>3613141</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18959,76 +18959,76 @@
         <v>44521.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K208">
+        <v>1.55</v>
+      </c>
+      <c r="L208">
+        <v>4</v>
+      </c>
+      <c r="M208">
+        <v>5.5</v>
+      </c>
+      <c r="N208">
+        <v>1.533</v>
+      </c>
+      <c r="O208">
+        <v>4.2</v>
+      </c>
+      <c r="P208">
+        <v>6.5</v>
+      </c>
+      <c r="Q208">
+        <v>-1</v>
+      </c>
+      <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
+        <v>1.875</v>
+      </c>
+      <c r="T208">
         <v>2.75</v>
       </c>
-      <c r="L208">
-        <v>3.6</v>
-      </c>
-      <c r="M208">
-        <v>2.35</v>
-      </c>
-      <c r="N208">
-        <v>2.9</v>
-      </c>
-      <c r="O208">
-        <v>3.8</v>
-      </c>
-      <c r="P208">
-        <v>2.25</v>
-      </c>
-      <c r="Q208">
-        <v>0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.875</v>
-      </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
-      <c r="T208">
-        <v>3</v>
-      </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X208">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -22596,7 +22596,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>4810261</v>
+        <v>4810262</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22608,76 +22608,76 @@
         <v>44654.375</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K249">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M249">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N249">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O249">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P249">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
+        <v>1.93</v>
+      </c>
+      <c r="S249">
+        <v>1.97</v>
+      </c>
+      <c r="T249">
+        <v>2.75</v>
+      </c>
+      <c r="U249">
         <v>1.975</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.875</v>
       </c>
-      <c r="T249">
-        <v>2.25</v>
-      </c>
-      <c r="U249">
-        <v>2.1</v>
-      </c>
-      <c r="V249">
-        <v>1.775</v>
-      </c>
       <c r="W249">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X249">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA249">
+        <v>-1</v>
+      </c>
+      <c r="AB249">
+        <v>0.4875</v>
+      </c>
+      <c r="AC249">
         <v>-0.5</v>
-      </c>
-      <c r="AA249">
-        <v>0.4375</v>
-      </c>
-      <c r="AB249">
-        <v>-1</v>
-      </c>
-      <c r="AC249">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22685,7 +22685,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>4810262</v>
+        <v>4810261</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22697,76 +22697,76 @@
         <v>44654.375</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K250">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L250">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N250">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O250">
+        <v>3.1</v>
+      </c>
+      <c r="P250">
         <v>3.4</v>
-      </c>
-      <c r="P250">
-        <v>3.3</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.97</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V250">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W250">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB250">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23664,7 +23664,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>4811307</v>
+        <v>4811306</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23676,76 +23676,76 @@
         <v>44665.375</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K261">
-        <v>2.6</v>
+        <v>1.769</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="M261">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N261">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="O261">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P261">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q261">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S261">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T261">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U261">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V261">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA261">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB261">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC261">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23753,7 +23753,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>4811306</v>
+        <v>4811307</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23765,76 +23765,76 @@
         <v>44665.375</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G262" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K262">
-        <v>1.769</v>
+        <v>2.6</v>
       </c>
       <c r="L262">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="M262">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N262">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="O262">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P262">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q262">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R262">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W262">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z262">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB262">
         <v>-0.5</v>
       </c>
-      <c r="AB262">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -27580,7 +27580,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4811775</v>
+        <v>4811403</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27592,58 +27592,58 @@
         <v>44703.5</v>
       </c>
       <c r="F305" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
         <v>44</v>
       </c>
       <c r="K305">
-        <v>1.416</v>
+        <v>2.6</v>
       </c>
       <c r="L305">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M305">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="N305">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O305">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P305">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q305">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S305">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
         <v>3</v>
       </c>
       <c r="U305">
+        <v>1.975</v>
+      </c>
+      <c r="V305">
         <v>1.875</v>
       </c>
-      <c r="V305">
-        <v>1.975</v>
-      </c>
       <c r="W305">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27652,10 +27652,10 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4811403</v>
+        <v>4811402</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27681,34 +27681,34 @@
         <v>44703.5</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G306" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
         <v>44</v>
       </c>
       <c r="K306">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L306">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M306">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N306">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O306">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P306">
         <v>4.2</v>
@@ -27717,22 +27717,22 @@
         <v>-0.75</v>
       </c>
       <c r="R306">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S306">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T306">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U306">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V306">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W306">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27741,16 +27741,16 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA306">
         <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC306">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27758,7 +27758,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4811402</v>
+        <v>4811775</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27770,58 +27770,58 @@
         <v>44703.5</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>44</v>
       </c>
       <c r="K307">
-        <v>1.7</v>
+        <v>1.416</v>
       </c>
       <c r="L307">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M307">
+        <v>8</v>
+      </c>
+      <c r="N307">
+        <v>1.444</v>
+      </c>
+      <c r="O307">
         <v>5</v>
       </c>
-      <c r="N307">
-        <v>1.727</v>
-      </c>
-      <c r="O307">
-        <v>4.5</v>
-      </c>
       <c r="P307">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q307">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R307">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S307">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T307">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U307">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V307">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W307">
-        <v>0.7270000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27830,16 +27830,16 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA307">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28559,7 +28559,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>5143634</v>
+        <v>5143633</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28571,73 +28571,73 @@
         <v>44766.375</v>
       </c>
       <c r="F316" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K316">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L316">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M316">
+        <v>2.7</v>
+      </c>
+      <c r="N316">
+        <v>2.875</v>
+      </c>
+      <c r="O316">
         <v>3.4</v>
       </c>
-      <c r="N316">
-        <v>2.15</v>
-      </c>
-      <c r="O316">
-        <v>3.8</v>
-      </c>
       <c r="P316">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R316">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S316">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
+        <v>2.025</v>
+      </c>
+      <c r="V316">
+        <v>1.825</v>
+      </c>
+      <c r="W316">
         <v>1.875</v>
       </c>
-      <c r="V316">
-        <v>1.975</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
       <c r="X316">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AA316">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28648,7 +28648,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>5143633</v>
+        <v>5143634</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28660,73 +28660,73 @@
         <v>44766.375</v>
       </c>
       <c r="F317" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K317">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L317">
+        <v>3.5</v>
+      </c>
+      <c r="M317">
         <v>3.4</v>
       </c>
-      <c r="M317">
-        <v>2.7</v>
-      </c>
       <c r="N317">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O317">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P317">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q317">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="S317">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W317">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0.79</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB317">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -31763,7 +31763,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5143714</v>
+        <v>5143657</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31775,13 +31775,13 @@
         <v>44808.375</v>
       </c>
       <c r="F352" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G352" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -31790,40 +31790,40 @@
         <v>46</v>
       </c>
       <c r="K352">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L352">
         <v>3.5</v>
       </c>
       <c r="M352">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N352">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O352">
         <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S352">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U352">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -31832,19 +31832,19 @@
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.9750000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC352">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31852,7 +31852,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>5143657</v>
+        <v>5143714</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31864,13 +31864,13 @@
         <v>44808.375</v>
       </c>
       <c r="F353" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G353" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353">
         <v>2</v>
@@ -31879,40 +31879,40 @@
         <v>46</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L353">
         <v>3.5</v>
       </c>
       <c r="M353">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N353">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O353">
         <v>3.5</v>
       </c>
       <c r="P353">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q353">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R353">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T353">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U353">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V353">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31921,19 +31921,19 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>1.04</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -40307,7 +40307,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40319,76 +40319,76 @@
         <v>45026.375</v>
       </c>
       <c r="F448" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G448" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J448" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K448">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L448">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M448">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N448">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O448">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P448">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q448">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R448">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S448">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T448">
         <v>2.75</v>
       </c>
       <c r="U448">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V448">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W448">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z448">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA448">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB448">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC448">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40396,7 +40396,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40408,76 +40408,76 @@
         <v>45026.375</v>
       </c>
       <c r="F449" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G449" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J449" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K449">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L449">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M449">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N449">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O449">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P449">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q449">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R449">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S449">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T449">
         <v>2.75</v>
       </c>
       <c r="U449">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V449">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W449">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA449">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB449">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC449">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -44846,7 +44846,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44858,55 +44858,55 @@
         <v>45081.5</v>
       </c>
       <c r="F499" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G499" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H499">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J499" t="s">
         <v>45</v>
       </c>
       <c r="K499">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L499">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M499">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N499">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O499">
         <v>4</v>
       </c>
       <c r="P499">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q499">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R499">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S499">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T499">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U499">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V499">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W499">
         <v>-1</v>
@@ -44918,16 +44918,16 @@
         <v>-1</v>
       </c>
       <c r="Z499">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA499">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB499">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC499">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -44935,7 +44935,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44947,55 +44947,55 @@
         <v>45081.5</v>
       </c>
       <c r="F500" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G500" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I500">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J500" t="s">
         <v>45</v>
       </c>
       <c r="K500">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L500">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M500">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N500">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O500">
         <v>4</v>
       </c>
       <c r="P500">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q500">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R500">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S500">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T500">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U500">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V500">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W500">
         <v>-1</v>
@@ -45007,16 +45007,16 @@
         <v>-1</v>
       </c>
       <c r="Z500">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA500">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB500">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC500">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:29">
@@ -48406,7 +48406,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48418,76 +48418,76 @@
         <v>45172.375</v>
       </c>
       <c r="F539" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G539" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H539">
         <v>1</v>
       </c>
       <c r="I539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J539" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K539">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L539">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M539">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N539">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O539">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P539">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q539">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R539">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S539">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T539">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U539">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V539">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W539">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X539">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y539">
         <v>-1</v>
       </c>
       <c r="Z539">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA539">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB539">
         <v>-1</v>
       </c>
       <c r="AC539">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="540" spans="1:29">
@@ -48495,7 +48495,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48507,76 +48507,76 @@
         <v>45172.375</v>
       </c>
       <c r="F540" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G540" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H540">
         <v>1</v>
       </c>
       <c r="I540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J540" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K540">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L540">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M540">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N540">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O540">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P540">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q540">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R540">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S540">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T540">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U540">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V540">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W540">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X540">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y540">
         <v>-1</v>
       </c>
       <c r="Z540">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA540">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB540">
         <v>-1</v>
       </c>
       <c r="AC540">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="541" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2594756</v>
+        <v>2594729</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,73 +2850,73 @@
         <v>44255.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2594729</v>
+        <v>2594756</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,73 +2939,73 @@
         <v>44255.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
+        <v>2.5</v>
+      </c>
+      <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>2.8</v>
+      </c>
+      <c r="N28">
+        <v>2.8</v>
+      </c>
+      <c r="O28">
+        <v>3.3</v>
+      </c>
+      <c r="P28">
         <v>2.45</v>
       </c>
-      <c r="L28">
-        <v>3.4</v>
-      </c>
-      <c r="M28">
-        <v>2.75</v>
-      </c>
-      <c r="N28">
-        <v>2.9</v>
-      </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>2.25</v>
-      </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
         <v>1.85</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2594734</v>
+        <v>2594732</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,76 +3295,76 @@
         <v>44258.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N32">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2594732</v>
+        <v>2594734</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,76 +3384,76 @@
         <v>44258.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N33">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
+        <v>1.925</v>
+      </c>
+      <c r="S33">
+        <v>1.925</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
         <v>1.95</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.9</v>
       </c>
-      <c r="T33">
-        <v>2.75</v>
-      </c>
-      <c r="U33">
-        <v>1.85</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3377637</v>
+        <v>3377638</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,10 +7567,10 @@
         <v>44311.375</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7582,44 +7582,44 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>2.35</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
         <v>3.4</v>
       </c>
       <c r="M80">
+        <v>2.05</v>
+      </c>
+      <c r="N80">
+        <v>3.9</v>
+      </c>
+      <c r="O80">
+        <v>3.5</v>
+      </c>
+      <c r="P80">
+        <v>1.95</v>
+      </c>
+      <c r="Q80">
+        <v>0.5</v>
+      </c>
+      <c r="R80">
+        <v>1.875</v>
+      </c>
+      <c r="S80">
+        <v>1.975</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
+        <v>1.9</v>
+      </c>
+      <c r="V80">
+        <v>1.95</v>
+      </c>
+      <c r="W80">
         <v>2.9</v>
       </c>
-      <c r="N80">
-        <v>2.4</v>
-      </c>
-      <c r="O80">
-        <v>2.9</v>
-      </c>
-      <c r="P80">
-        <v>3.3</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>2.05</v>
-      </c>
-      <c r="S80">
-        <v>1.8</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>2.05</v>
-      </c>
-      <c r="V80">
-        <v>1.8</v>
-      </c>
-      <c r="W80">
-        <v>1.4</v>
-      </c>
       <c r="X80">
         <v>-1</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7636,7 +7636,7 @@
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3377638</v>
+        <v>3377637</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,10 +7656,10 @@
         <v>44311.375</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7671,43 +7671,43 @@
         <v>44</v>
       </c>
       <c r="K81">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
+        <v>2.9</v>
+      </c>
+      <c r="N81">
+        <v>2.4</v>
+      </c>
+      <c r="O81">
+        <v>2.9</v>
+      </c>
+      <c r="P81">
+        <v>3.3</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
         <v>2.05</v>
       </c>
-      <c r="N81">
-        <v>3.9</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
-      <c r="P81">
-        <v>1.95</v>
-      </c>
-      <c r="Q81">
-        <v>0.5</v>
-      </c>
-      <c r="R81">
-        <v>1.875</v>
-      </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7716,7 +7716,7 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7725,7 +7725,7 @@
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3377654</v>
+        <v>3377653</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,73 +10237,73 @@
         <v>44340.375</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <v>4</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L110">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>6</v>
+        <v>2.35</v>
       </c>
       <c r="N110">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z110">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3377653</v>
+        <v>3377654</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,73 +10415,73 @@
         <v>44340.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H112">
+        <v>4</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
+      <c r="J112" t="s">
+        <v>44</v>
+      </c>
+      <c r="K112">
+        <v>1.5</v>
+      </c>
+      <c r="L112">
+        <v>4.2</v>
+      </c>
+      <c r="M112">
+        <v>6</v>
+      </c>
+      <c r="N112">
+        <v>1.55</v>
+      </c>
+      <c r="O112">
         <v>4</v>
       </c>
-      <c r="J112" t="s">
-        <v>46</v>
-      </c>
-      <c r="K112">
-        <v>2.7</v>
-      </c>
-      <c r="L112">
-        <v>3.6</v>
-      </c>
-      <c r="M112">
-        <v>2.35</v>
-      </c>
-      <c r="N112">
-        <v>3.3</v>
-      </c>
-      <c r="O112">
-        <v>3.5</v>
-      </c>
       <c r="P112">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB112">
-        <v>1</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3613140</v>
+        <v>3613141</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,76 +18870,76 @@
         <v>44521.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K207">
+        <v>1.55</v>
+      </c>
+      <c r="L207">
+        <v>4</v>
+      </c>
+      <c r="M207">
+        <v>5.5</v>
+      </c>
+      <c r="N207">
+        <v>1.533</v>
+      </c>
+      <c r="O207">
+        <v>4.2</v>
+      </c>
+      <c r="P207">
+        <v>6.5</v>
+      </c>
+      <c r="Q207">
+        <v>-1</v>
+      </c>
+      <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
+        <v>1.875</v>
+      </c>
+      <c r="T207">
         <v>2.75</v>
       </c>
-      <c r="L207">
-        <v>3.6</v>
-      </c>
-      <c r="M207">
-        <v>2.35</v>
-      </c>
-      <c r="N207">
-        <v>2.9</v>
-      </c>
-      <c r="O207">
-        <v>3.8</v>
-      </c>
-      <c r="P207">
-        <v>2.25</v>
-      </c>
-      <c r="Q207">
-        <v>0.25</v>
-      </c>
-      <c r="R207">
-        <v>1.875</v>
-      </c>
-      <c r="S207">
-        <v>1.975</v>
-      </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X207">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC207">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18947,7 +18947,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3613141</v>
+        <v>3613140</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18959,76 +18959,76 @@
         <v>44521.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K208">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="N208">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P208">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
         <v>1.975</v>
       </c>
-      <c r="S208">
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>1.975</v>
+      </c>
+      <c r="V208">
         <v>1.875</v>
       </c>
-      <c r="T208">
-        <v>2.75</v>
-      </c>
-      <c r="U208">
-        <v>2</v>
-      </c>
-      <c r="V208">
-        <v>1.85</v>
-      </c>
       <c r="W208">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -23664,7 +23664,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>4811306</v>
+        <v>4811307</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23676,76 +23676,76 @@
         <v>44665.375</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K261">
-        <v>1.769</v>
+        <v>2.6</v>
       </c>
       <c r="L261">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="M261">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N261">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="O261">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P261">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q261">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R261">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S261">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V261">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W261">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z261">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB261">
         <v>-0.5</v>
       </c>
-      <c r="AB261">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23753,7 +23753,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>4811307</v>
+        <v>4811306</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23765,76 +23765,76 @@
         <v>44665.375</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K262">
-        <v>2.6</v>
+        <v>1.769</v>
       </c>
       <c r="L262">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="M262">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N262">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="O262">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P262">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q262">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R262">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T262">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U262">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA262">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB262">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC262">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -27580,7 +27580,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4811403</v>
+        <v>4811775</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27592,58 +27592,58 @@
         <v>44703.5</v>
       </c>
       <c r="F305" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G305" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>44</v>
       </c>
       <c r="K305">
-        <v>2.6</v>
+        <v>1.416</v>
       </c>
       <c r="L305">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M305">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N305">
+        <v>1.444</v>
+      </c>
+      <c r="O305">
+        <v>5</v>
+      </c>
+      <c r="P305">
+        <v>6.5</v>
+      </c>
+      <c r="Q305">
+        <v>-1.5</v>
+      </c>
+      <c r="R305">
+        <v>2</v>
+      </c>
+      <c r="S305">
         <v>1.8</v>
-      </c>
-      <c r="O305">
-        <v>4</v>
-      </c>
-      <c r="P305">
-        <v>4.2</v>
-      </c>
-      <c r="Q305">
-        <v>-0.75</v>
-      </c>
-      <c r="R305">
-        <v>2.025</v>
-      </c>
-      <c r="S305">
-        <v>1.825</v>
       </c>
       <c r="T305">
         <v>3</v>
       </c>
       <c r="U305">
+        <v>1.875</v>
+      </c>
+      <c r="V305">
         <v>1.975</v>
       </c>
-      <c r="V305">
-        <v>1.875</v>
-      </c>
       <c r="W305">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27652,10 +27652,10 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4811402</v>
+        <v>4811403</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27681,34 +27681,34 @@
         <v>44703.5</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G306" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
         <v>44</v>
       </c>
       <c r="K306">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L306">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M306">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N306">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O306">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P306">
         <v>4.2</v>
@@ -27717,22 +27717,22 @@
         <v>-0.75</v>
       </c>
       <c r="R306">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S306">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T306">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U306">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V306">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W306">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27741,16 +27741,16 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA306">
         <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27758,7 +27758,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4811775</v>
+        <v>4811402</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27770,58 +27770,58 @@
         <v>44703.5</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>44</v>
       </c>
       <c r="K307">
-        <v>1.416</v>
+        <v>1.7</v>
       </c>
       <c r="L307">
+        <v>3.8</v>
+      </c>
+      <c r="M307">
+        <v>5</v>
+      </c>
+      <c r="N307">
+        <v>1.727</v>
+      </c>
+      <c r="O307">
         <v>4.5</v>
       </c>
-      <c r="M307">
-        <v>8</v>
-      </c>
-      <c r="N307">
-        <v>1.444</v>
-      </c>
-      <c r="O307">
-        <v>5</v>
-      </c>
       <c r="P307">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q307">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T307">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U307">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V307">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W307">
-        <v>0.444</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27830,16 +27830,16 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB307">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC307">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -31763,7 +31763,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5143657</v>
+        <v>5143714</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31775,13 +31775,13 @@
         <v>44808.375</v>
       </c>
       <c r="F352" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G352" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -31790,40 +31790,40 @@
         <v>46</v>
       </c>
       <c r="K352">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L352">
         <v>3.5</v>
       </c>
       <c r="M352">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N352">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O352">
         <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q352">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R352">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S352">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T352">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U352">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V352">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -31832,19 +31832,19 @@
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>1.04</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB352">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31852,7 +31852,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>5143714</v>
+        <v>5143657</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31864,13 +31864,13 @@
         <v>44808.375</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G353" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353">
         <v>2</v>
@@ -31879,40 +31879,40 @@
         <v>46</v>
       </c>
       <c r="K353">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L353">
         <v>3.5</v>
       </c>
       <c r="M353">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N353">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O353">
         <v>3.5</v>
       </c>
       <c r="P353">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q353">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R353">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S353">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T353">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U353">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V353">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31921,19 +31921,19 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.9750000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC353">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -40307,7 +40307,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40319,76 +40319,76 @@
         <v>45026.375</v>
       </c>
       <c r="F448" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G448" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J448" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K448">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L448">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M448">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N448">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O448">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P448">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q448">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R448">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S448">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T448">
         <v>2.75</v>
       </c>
       <c r="U448">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V448">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA448">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB448">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC448">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40396,7 +40396,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40408,76 +40408,76 @@
         <v>45026.375</v>
       </c>
       <c r="F449" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G449" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J449" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K449">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L449">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M449">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N449">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O449">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P449">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q449">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R449">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S449">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T449">
         <v>2.75</v>
       </c>
       <c r="U449">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V449">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W449">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z449">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA449">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB449">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC449">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -40841,7 +40841,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>6478386</v>
+        <v>6445249</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40853,58 +40853,58 @@
         <v>45032.375</v>
       </c>
       <c r="F454" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G454" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H454">
         <v>2</v>
       </c>
       <c r="I454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" t="s">
         <v>44</v>
       </c>
       <c r="K454">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L454">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M454">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N454">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O454">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P454">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q454">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R454">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S454">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T454">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U454">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V454">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W454">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X454">
         <v>-1</v>
@@ -40913,16 +40913,16 @@
         <v>-1</v>
       </c>
       <c r="Z454">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA454">
         <v>-1</v>
       </c>
       <c r="AB454">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC454">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40930,7 +40930,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>6445249</v>
+        <v>6478386</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40942,58 +40942,58 @@
         <v>45032.375</v>
       </c>
       <c r="F455" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G455" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H455">
         <v>2</v>
       </c>
       <c r="I455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" t="s">
         <v>44</v>
       </c>
       <c r="K455">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L455">
+        <v>3.4</v>
+      </c>
+      <c r="M455">
         <v>3.5</v>
       </c>
-      <c r="M455">
-        <v>2.45</v>
-      </c>
       <c r="N455">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O455">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P455">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q455">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R455">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S455">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T455">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U455">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V455">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W455">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41002,16 +41002,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA455">
         <v>-1</v>
       </c>
       <c r="AB455">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC455">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -44045,7 +44045,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44057,73 +44057,73 @@
         <v>45075.375</v>
       </c>
       <c r="F490" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G490" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K490">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L490">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M490">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N490">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O490">
         <v>3.75</v>
       </c>
       <c r="P490">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q490">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R490">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S490">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T490">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U490">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V490">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W490">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X490">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y490">
         <v>-1</v>
       </c>
       <c r="Z490">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA490">
         <v>-1</v>
       </c>
       <c r="AB490">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC490">
         <v>-1</v>
@@ -44134,7 +44134,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44146,73 +44146,73 @@
         <v>45075.375</v>
       </c>
       <c r="F491" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G491" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I491">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J491" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K491">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L491">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M491">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N491">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O491">
         <v>3.75</v>
       </c>
       <c r="P491">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q491">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R491">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S491">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T491">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U491">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V491">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W491">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X491">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y491">
         <v>-1</v>
       </c>
       <c r="Z491">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA491">
         <v>-1</v>
       </c>
       <c r="AB491">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC491">
         <v>-1</v>
@@ -44846,7 +44846,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44858,55 +44858,55 @@
         <v>45081.5</v>
       </c>
       <c r="F499" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G499" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I499">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J499" t="s">
         <v>45</v>
       </c>
       <c r="K499">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L499">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M499">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N499">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O499">
         <v>4</v>
       </c>
       <c r="P499">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q499">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R499">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S499">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T499">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U499">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V499">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W499">
         <v>-1</v>
@@ -44918,16 +44918,16 @@
         <v>-1</v>
       </c>
       <c r="Z499">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA499">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB499">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC499">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -44935,7 +44935,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44947,55 +44947,55 @@
         <v>45081.5</v>
       </c>
       <c r="F500" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G500" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H500">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J500" t="s">
         <v>45</v>
       </c>
       <c r="K500">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L500">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M500">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N500">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O500">
         <v>4</v>
       </c>
       <c r="P500">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q500">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R500">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S500">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T500">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U500">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V500">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W500">
         <v>-1</v>
@@ -45007,16 +45007,16 @@
         <v>-1</v>
       </c>
       <c r="Z500">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA500">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB500">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC500">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="501" spans="1:29">
@@ -48406,7 +48406,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48418,76 +48418,76 @@
         <v>45172.375</v>
       </c>
       <c r="F539" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G539" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H539">
         <v>1</v>
       </c>
       <c r="I539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J539" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K539">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L539">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M539">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N539">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O539">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P539">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q539">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R539">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S539">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T539">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U539">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V539">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W539">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X539">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y539">
         <v>-1</v>
       </c>
       <c r="Z539">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA539">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB539">
         <v>-1</v>
       </c>
       <c r="AC539">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="540" spans="1:29">
@@ -48495,7 +48495,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48507,76 +48507,76 @@
         <v>45172.375</v>
       </c>
       <c r="F540" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G540" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H540">
         <v>1</v>
       </c>
       <c r="I540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J540" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K540">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L540">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M540">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N540">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O540">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P540">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q540">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R540">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S540">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T540">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U540">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V540">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W540">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X540">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y540">
         <v>-1</v>
       </c>
       <c r="Z540">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA540">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB540">
         <v>-1</v>
       </c>
       <c r="AC540">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="541" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2594729</v>
+        <v>2594756</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,73 +2850,73 @@
         <v>44255.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
+        <v>2.5</v>
+      </c>
+      <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>2.8</v>
+      </c>
+      <c r="N27">
+        <v>2.8</v>
+      </c>
+      <c r="O27">
+        <v>3.3</v>
+      </c>
+      <c r="P27">
         <v>2.45</v>
       </c>
-      <c r="L27">
-        <v>3.4</v>
-      </c>
-      <c r="M27">
-        <v>2.75</v>
-      </c>
-      <c r="N27">
-        <v>2.9</v>
-      </c>
-      <c r="O27">
-        <v>3.4</v>
-      </c>
-      <c r="P27">
-        <v>2.25</v>
-      </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
         <v>1.85</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X27">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2594756</v>
+        <v>2594729</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,73 +2939,73 @@
         <v>44255.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2594732</v>
+        <v>2594734</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,76 +3295,76 @@
         <v>44258.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
+        <v>1.925</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
         <v>1.95</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.9</v>
       </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
-      <c r="U32">
-        <v>1.85</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2594734</v>
+        <v>2594732</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,76 +3384,76 @@
         <v>44258.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N33">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3377638</v>
+        <v>3377637</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,10 +7567,10 @@
         <v>44311.375</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7582,43 +7582,43 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="L80">
         <v>3.4</v>
       </c>
       <c r="M80">
+        <v>2.9</v>
+      </c>
+      <c r="N80">
+        <v>2.4</v>
+      </c>
+      <c r="O80">
+        <v>2.9</v>
+      </c>
+      <c r="P80">
+        <v>3.3</v>
+      </c>
+      <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
         <v>2.05</v>
       </c>
-      <c r="N80">
-        <v>3.9</v>
-      </c>
-      <c r="O80">
-        <v>3.5</v>
-      </c>
-      <c r="P80">
-        <v>1.95</v>
-      </c>
-      <c r="Q80">
-        <v>0.5</v>
-      </c>
-      <c r="R80">
-        <v>1.875</v>
-      </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7627,7 +7627,7 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7636,7 +7636,7 @@
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3377637</v>
+        <v>3377638</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,10 +7656,10 @@
         <v>44311.375</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7671,44 +7671,44 @@
         <v>44</v>
       </c>
       <c r="K81">
-        <v>2.35</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
+        <v>2.05</v>
+      </c>
+      <c r="N81">
+        <v>3.9</v>
+      </c>
+      <c r="O81">
+        <v>3.5</v>
+      </c>
+      <c r="P81">
+        <v>1.95</v>
+      </c>
+      <c r="Q81">
+        <v>0.5</v>
+      </c>
+      <c r="R81">
+        <v>1.875</v>
+      </c>
+      <c r="S81">
+        <v>1.975</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
+        <v>1.9</v>
+      </c>
+      <c r="V81">
+        <v>1.95</v>
+      </c>
+      <c r="W81">
         <v>2.9</v>
       </c>
-      <c r="N81">
-        <v>2.4</v>
-      </c>
-      <c r="O81">
-        <v>2.9</v>
-      </c>
-      <c r="P81">
-        <v>3.3</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>2.05</v>
-      </c>
-      <c r="S81">
-        <v>1.8</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>2.05</v>
-      </c>
-      <c r="V81">
-        <v>1.8</v>
-      </c>
-      <c r="W81">
-        <v>1.4</v>
-      </c>
       <c r="X81">
         <v>-1</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7725,7 +7725,7 @@
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3377653</v>
+        <v>3377654</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,73 +10237,73 @@
         <v>44340.375</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>44</v>
+      </c>
+      <c r="K110">
+        <v>1.5</v>
+      </c>
+      <c r="L110">
+        <v>4.2</v>
+      </c>
+      <c r="M110">
+        <v>6</v>
+      </c>
+      <c r="N110">
+        <v>1.55</v>
+      </c>
+      <c r="O110">
         <v>4</v>
       </c>
-      <c r="J110" t="s">
-        <v>46</v>
-      </c>
-      <c r="K110">
-        <v>2.7</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2.35</v>
-      </c>
-      <c r="N110">
-        <v>3.3</v>
-      </c>
-      <c r="O110">
-        <v>3.5</v>
-      </c>
       <c r="P110">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB110">
-        <v>1</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3377654</v>
+        <v>3377653</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,73 +10415,73 @@
         <v>44340.375</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>4</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K112">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>2.35</v>
       </c>
       <c r="N112">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3613141</v>
+        <v>3613140</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,76 +18870,76 @@
         <v>44521.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K207">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="N207">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O207">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P207">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
+        <v>1.875</v>
+      </c>
+      <c r="S207">
         <v>1.975</v>
       </c>
-      <c r="S207">
+      <c r="T207">
+        <v>3</v>
+      </c>
+      <c r="U207">
+        <v>1.975</v>
+      </c>
+      <c r="V207">
         <v>1.875</v>
       </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
-      <c r="U207">
-        <v>2</v>
-      </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
       <c r="W207">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18947,7 +18947,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3613140</v>
+        <v>3613141</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18959,76 +18959,76 @@
         <v>44521.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K208">
+        <v>1.55</v>
+      </c>
+      <c r="L208">
+        <v>4</v>
+      </c>
+      <c r="M208">
+        <v>5.5</v>
+      </c>
+      <c r="N208">
+        <v>1.533</v>
+      </c>
+      <c r="O208">
+        <v>4.2</v>
+      </c>
+      <c r="P208">
+        <v>6.5</v>
+      </c>
+      <c r="Q208">
+        <v>-1</v>
+      </c>
+      <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
+        <v>1.875</v>
+      </c>
+      <c r="T208">
         <v>2.75</v>
       </c>
-      <c r="L208">
-        <v>3.6</v>
-      </c>
-      <c r="M208">
-        <v>2.35</v>
-      </c>
-      <c r="N208">
-        <v>2.9</v>
-      </c>
-      <c r="O208">
-        <v>3.8</v>
-      </c>
-      <c r="P208">
-        <v>2.25</v>
-      </c>
-      <c r="Q208">
-        <v>0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.875</v>
-      </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
-      <c r="T208">
-        <v>3</v>
-      </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X208">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -23664,7 +23664,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>4811307</v>
+        <v>4811306</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23676,76 +23676,76 @@
         <v>44665.375</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K261">
-        <v>2.6</v>
+        <v>1.769</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="M261">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N261">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="O261">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P261">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q261">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S261">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T261">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U261">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V261">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA261">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB261">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC261">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23753,7 +23753,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>4811306</v>
+        <v>4811307</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23765,76 +23765,76 @@
         <v>44665.375</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G262" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K262">
-        <v>1.769</v>
+        <v>2.6</v>
       </c>
       <c r="L262">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="M262">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N262">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="O262">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P262">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q262">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R262">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W262">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z262">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB262">
         <v>-0.5</v>
       </c>
-      <c r="AB262">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -27580,7 +27580,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4811775</v>
+        <v>4811403</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27592,58 +27592,58 @@
         <v>44703.5</v>
       </c>
       <c r="F305" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
         <v>44</v>
       </c>
       <c r="K305">
-        <v>1.416</v>
+        <v>2.6</v>
       </c>
       <c r="L305">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M305">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="N305">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O305">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P305">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q305">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S305">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
         <v>3</v>
       </c>
       <c r="U305">
+        <v>1.975</v>
+      </c>
+      <c r="V305">
         <v>1.875</v>
       </c>
-      <c r="V305">
-        <v>1.975</v>
-      </c>
       <c r="W305">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27652,10 +27652,10 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4811403</v>
+        <v>4811402</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27681,34 +27681,34 @@
         <v>44703.5</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G306" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
         <v>44</v>
       </c>
       <c r="K306">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L306">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M306">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N306">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O306">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P306">
         <v>4.2</v>
@@ -27717,22 +27717,22 @@
         <v>-0.75</v>
       </c>
       <c r="R306">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S306">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T306">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U306">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V306">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W306">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27741,16 +27741,16 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA306">
         <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC306">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27758,7 +27758,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4811402</v>
+        <v>4811775</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27770,58 +27770,58 @@
         <v>44703.5</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>44</v>
       </c>
       <c r="K307">
-        <v>1.7</v>
+        <v>1.416</v>
       </c>
       <c r="L307">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M307">
+        <v>8</v>
+      </c>
+      <c r="N307">
+        <v>1.444</v>
+      </c>
+      <c r="O307">
         <v>5</v>
       </c>
-      <c r="N307">
-        <v>1.727</v>
-      </c>
-      <c r="O307">
-        <v>4.5</v>
-      </c>
       <c r="P307">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q307">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R307">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S307">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T307">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U307">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V307">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W307">
-        <v>0.7270000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27830,16 +27830,16 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA307">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -31763,7 +31763,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5143714</v>
+        <v>5143657</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31775,13 +31775,13 @@
         <v>44808.375</v>
       </c>
       <c r="F352" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G352" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -31790,40 +31790,40 @@
         <v>46</v>
       </c>
       <c r="K352">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L352">
         <v>3.5</v>
       </c>
       <c r="M352">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N352">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O352">
         <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S352">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U352">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -31832,19 +31832,19 @@
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.9750000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC352">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31852,7 +31852,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>5143657</v>
+        <v>5143714</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31864,13 +31864,13 @@
         <v>44808.375</v>
       </c>
       <c r="F353" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G353" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353">
         <v>2</v>
@@ -31879,40 +31879,40 @@
         <v>46</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L353">
         <v>3.5</v>
       </c>
       <c r="M353">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N353">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O353">
         <v>3.5</v>
       </c>
       <c r="P353">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q353">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R353">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T353">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U353">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V353">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31921,19 +31921,19 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>1.04</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -40307,7 +40307,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40319,76 +40319,76 @@
         <v>45026.375</v>
       </c>
       <c r="F448" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G448" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J448" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K448">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L448">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M448">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N448">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O448">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P448">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q448">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R448">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S448">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T448">
         <v>2.75</v>
       </c>
       <c r="U448">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V448">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W448">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z448">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA448">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB448">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC448">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40396,7 +40396,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40408,76 +40408,76 @@
         <v>45026.375</v>
       </c>
       <c r="F449" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G449" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J449" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K449">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L449">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M449">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N449">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O449">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P449">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q449">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R449">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S449">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T449">
         <v>2.75</v>
       </c>
       <c r="U449">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V449">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W449">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA449">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB449">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC449">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -40841,7 +40841,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>6445249</v>
+        <v>6478386</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40853,58 +40853,58 @@
         <v>45032.375</v>
       </c>
       <c r="F454" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G454" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H454">
         <v>2</v>
       </c>
       <c r="I454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" t="s">
         <v>44</v>
       </c>
       <c r="K454">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L454">
+        <v>3.4</v>
+      </c>
+      <c r="M454">
         <v>3.5</v>
       </c>
-      <c r="M454">
-        <v>2.45</v>
-      </c>
       <c r="N454">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O454">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P454">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q454">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R454">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S454">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T454">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U454">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V454">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W454">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X454">
         <v>-1</v>
@@ -40913,16 +40913,16 @@
         <v>-1</v>
       </c>
       <c r="Z454">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA454">
         <v>-1</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC454">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40930,7 +40930,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>6478386</v>
+        <v>6445249</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40942,58 +40942,58 @@
         <v>45032.375</v>
       </c>
       <c r="F455" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G455" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H455">
         <v>2</v>
       </c>
       <c r="I455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" t="s">
         <v>44</v>
       </c>
       <c r="K455">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M455">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N455">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O455">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P455">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q455">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R455">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S455">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T455">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U455">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V455">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W455">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41002,16 +41002,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA455">
         <v>-1</v>
       </c>
       <c r="AB455">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC455">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -44045,7 +44045,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44057,73 +44057,73 @@
         <v>45075.375</v>
       </c>
       <c r="F490" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G490" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I490">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J490" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K490">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L490">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M490">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N490">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O490">
         <v>3.75</v>
       </c>
       <c r="P490">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q490">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R490">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S490">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T490">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U490">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V490">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W490">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X490">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y490">
         <v>-1</v>
       </c>
       <c r="Z490">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA490">
         <v>-1</v>
       </c>
       <c r="AB490">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC490">
         <v>-1</v>
@@ -44134,7 +44134,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44146,73 +44146,73 @@
         <v>45075.375</v>
       </c>
       <c r="F491" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G491" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H491">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J491" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K491">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L491">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M491">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N491">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O491">
         <v>3.75</v>
       </c>
       <c r="P491">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q491">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R491">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S491">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T491">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U491">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V491">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W491">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X491">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y491">
         <v>-1</v>
       </c>
       <c r="Z491">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA491">
         <v>-1</v>
       </c>
       <c r="AB491">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC491">
         <v>-1</v>
@@ -44846,7 +44846,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44858,55 +44858,55 @@
         <v>45081.5</v>
       </c>
       <c r="F499" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G499" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H499">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J499" t="s">
         <v>45</v>
       </c>
       <c r="K499">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L499">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M499">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N499">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O499">
         <v>4</v>
       </c>
       <c r="P499">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q499">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R499">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S499">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T499">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U499">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V499">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W499">
         <v>-1</v>
@@ -44918,16 +44918,16 @@
         <v>-1</v>
       </c>
       <c r="Z499">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA499">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB499">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC499">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -44935,7 +44935,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44947,55 +44947,55 @@
         <v>45081.5</v>
       </c>
       <c r="F500" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G500" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I500">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J500" t="s">
         <v>45</v>
       </c>
       <c r="K500">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L500">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M500">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N500">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O500">
         <v>4</v>
       </c>
       <c r="P500">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q500">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R500">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S500">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T500">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U500">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V500">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W500">
         <v>-1</v>
@@ -45007,16 +45007,16 @@
         <v>-1</v>
       </c>
       <c r="Z500">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA500">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB500">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC500">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:29">
@@ -48406,7 +48406,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48418,76 +48418,76 @@
         <v>45172.375</v>
       </c>
       <c r="F539" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G539" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H539">
         <v>1</v>
       </c>
       <c r="I539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J539" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K539">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L539">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M539">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N539">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O539">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P539">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q539">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R539">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S539">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T539">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U539">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V539">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W539">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X539">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y539">
         <v>-1</v>
       </c>
       <c r="Z539">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA539">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB539">
         <v>-1</v>
       </c>
       <c r="AC539">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="540" spans="1:29">
@@ -48495,7 +48495,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48507,76 +48507,76 @@
         <v>45172.375</v>
       </c>
       <c r="F540" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G540" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H540">
         <v>1</v>
       </c>
       <c r="I540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J540" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K540">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L540">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M540">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N540">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O540">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P540">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q540">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R540">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S540">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T540">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U540">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V540">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W540">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X540">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y540">
         <v>-1</v>
       </c>
       <c r="Z540">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA540">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB540">
         <v>-1</v>
       </c>
       <c r="AC540">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="541" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -15565,7 +15565,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3613106</v>
+        <v>3613102</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15577,76 +15577,76 @@
         <v>44465.375</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N170">
+        <v>1.6</v>
+      </c>
+      <c r="O170">
+        <v>4.2</v>
+      </c>
+      <c r="P170">
+        <v>5</v>
+      </c>
+      <c r="Q170">
+        <v>-0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.8</v>
+      </c>
+      <c r="S170">
         <v>2.05</v>
       </c>
-      <c r="O170">
-        <v>3.6</v>
-      </c>
-      <c r="P170">
-        <v>3.4</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
-      <c r="R170">
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
         <v>1.825</v>
       </c>
-      <c r="S170">
-        <v>2.025</v>
-      </c>
-      <c r="T170">
-        <v>3</v>
-      </c>
-      <c r="U170">
-        <v>1.925</v>
-      </c>
-      <c r="V170">
-        <v>1.925</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X170">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
+        <v>0.4</v>
+      </c>
+      <c r="AA170">
         <v>-0.5</v>
       </c>
-      <c r="AA170">
-        <v>0.5125</v>
-      </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15654,7 +15654,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3613102</v>
+        <v>3613106</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15666,76 +15666,76 @@
         <v>44465.375</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L171">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N171">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -26245,7 +26245,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>4811321</v>
+        <v>4811773</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26257,46 +26257,46 @@
         <v>44692.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G290" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
         <v>45</v>
       </c>
       <c r="K290">
+        <v>2.45</v>
+      </c>
+      <c r="L290">
+        <v>3.4</v>
+      </c>
+      <c r="M290">
         <v>2.8</v>
       </c>
-      <c r="L290">
-        <v>3.5</v>
-      </c>
-      <c r="M290">
-        <v>2.35</v>
-      </c>
       <c r="N290">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O290">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P290">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q290">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S290">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T290">
         <v>2.75</v>
@@ -26311,22 +26311,22 @@
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA290">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC290">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26334,7 +26334,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>4811773</v>
+        <v>4811321</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26346,46 +26346,46 @@
         <v>44692.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G291" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J291" t="s">
         <v>45</v>
       </c>
       <c r="K291">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L291">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M291">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="N291">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O291">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P291">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R291">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S291">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T291">
         <v>2.75</v>
@@ -26400,22 +26400,22 @@
         <v>-1</v>
       </c>
       <c r="X291">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
+        <v>0.4375</v>
+      </c>
+      <c r="AA291">
         <v>-0.5</v>
       </c>
-      <c r="AA291">
-        <v>0.4</v>
-      </c>
       <c r="AB291">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC291">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26512,7 +26512,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>4811323</v>
+        <v>4811322</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26524,76 +26524,76 @@
         <v>44693.54166666666</v>
       </c>
       <c r="F293" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H293">
         <v>1</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K293">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M293">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N293">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P293">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R293">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="S293">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V293">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X293">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AA293">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
         <v>-1</v>
       </c>
       <c r="AC293">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26601,7 +26601,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>4811322</v>
+        <v>4811323</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26613,76 +26613,76 @@
         <v>44693.54166666666</v>
       </c>
       <c r="F294" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G294" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H294">
         <v>1</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K294">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M294">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N294">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O294">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P294">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="S294">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V294">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W294">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.79</v>
+        <v>-0.5</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -28559,7 +28559,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>5143633</v>
+        <v>5143634</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28571,73 +28571,73 @@
         <v>44766.375</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G316" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K316">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L316">
+        <v>3.5</v>
+      </c>
+      <c r="M316">
         <v>3.4</v>
       </c>
-      <c r="M316">
-        <v>2.7</v>
-      </c>
       <c r="N316">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O316">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P316">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q316">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="S316">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="T316">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U316">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W316">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.79</v>
+        <v>-0.5</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB316">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28648,7 +28648,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>5143634</v>
+        <v>5143633</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28660,73 +28660,73 @@
         <v>44766.375</v>
       </c>
       <c r="F317" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G317" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K317">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L317">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M317">
+        <v>2.7</v>
+      </c>
+      <c r="N317">
+        <v>2.875</v>
+      </c>
+      <c r="O317">
         <v>3.4</v>
       </c>
-      <c r="N317">
-        <v>2.15</v>
-      </c>
-      <c r="O317">
-        <v>3.8</v>
-      </c>
       <c r="P317">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R317">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S317">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="T317">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
+        <v>2.025</v>
+      </c>
+      <c r="V317">
+        <v>1.825</v>
+      </c>
+      <c r="W317">
         <v>1.875</v>
       </c>
-      <c r="V317">
-        <v>1.975</v>
-      </c>
-      <c r="W317">
-        <v>-1</v>
-      </c>
       <c r="X317">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AA317">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -36035,7 +36035,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>5143691</v>
+        <v>5143689</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36047,76 +36047,76 @@
         <v>44871.41666666666</v>
       </c>
       <c r="F400" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G400" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H400">
         <v>1</v>
       </c>
       <c r="I400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J400" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K400">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="L400">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M400">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N400">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O400">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P400">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q400">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R400">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S400">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T400">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U400">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V400">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W400">
         <v>-1</v>
       </c>
       <c r="X400">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y400">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z400">
+        <v>-1</v>
+      </c>
+      <c r="AA400">
+        <v>0.825</v>
+      </c>
+      <c r="AB400">
+        <v>0.5</v>
+      </c>
+      <c r="AC400">
         <v>-0.5</v>
-      </c>
-      <c r="AA400">
-        <v>0.4375</v>
-      </c>
-      <c r="AB400">
-        <v>-0.5</v>
-      </c>
-      <c r="AC400">
-        <v>0.475</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36124,7 +36124,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>5143689</v>
+        <v>5143691</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36136,76 +36136,76 @@
         <v>44871.41666666666</v>
       </c>
       <c r="F401" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G401" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H401">
         <v>1</v>
       </c>
       <c r="I401">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K401">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="L401">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M401">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N401">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O401">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P401">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q401">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R401">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S401">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U401">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V401">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W401">
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y401">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA401">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB401">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC401">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -41375,7 +41375,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41387,76 +41387,76 @@
         <v>45039.375</v>
       </c>
       <c r="F460" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G460" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J460" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K460">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L460">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M460">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N460">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O460">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P460">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q460">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R460">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S460">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T460">
         <v>2.5</v>
       </c>
       <c r="U460">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V460">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W460">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X460">
         <v>-1</v>
       </c>
       <c r="Y460">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z460">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA460">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB460">
         <v>-1</v>
       </c>
       <c r="AC460">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41464,7 +41464,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41476,76 +41476,76 @@
         <v>45039.375</v>
       </c>
       <c r="F461" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G461" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H461">
+        <v>1</v>
+      </c>
+      <c r="I461">
         <v>0</v>
       </c>
-      <c r="I461">
-        <v>2</v>
-      </c>
       <c r="J461" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K461">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L461">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M461">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N461">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O461">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P461">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q461">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R461">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S461">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T461">
         <v>2.5</v>
       </c>
       <c r="U461">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V461">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W461">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z461">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA461">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB461">
         <v>-1</v>
       </c>
       <c r="AC461">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41909,7 +41909,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41921,16 +41921,16 @@
         <v>45046.375</v>
       </c>
       <c r="F466" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G466" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H466">
+        <v>3</v>
+      </c>
+      <c r="I466">
         <v>1</v>
-      </c>
-      <c r="I466">
-        <v>0</v>
       </c>
       <c r="J466" t="s">
         <v>44</v>
@@ -41939,31 +41939,31 @@
         <v>1.9</v>
       </c>
       <c r="L466">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M466">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N466">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O466">
+        <v>3.6</v>
+      </c>
+      <c r="P466">
         <v>4</v>
       </c>
-      <c r="P466">
-        <v>4.5</v>
-      </c>
       <c r="Q466">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R466">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S466">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T466">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U466">
         <v>2</v>
@@ -41972,7 +41972,7 @@
         <v>1.85</v>
       </c>
       <c r="W466">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X466">
         <v>-1</v>
@@ -41981,16 +41981,16 @@
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA466">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB466">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC466">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -41998,7 +41998,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42010,16 +42010,16 @@
         <v>45046.375</v>
       </c>
       <c r="F467" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G467" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H467">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J467" t="s">
         <v>44</v>
@@ -42028,31 +42028,31 @@
         <v>1.9</v>
       </c>
       <c r="L467">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M467">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N467">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O467">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P467">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q467">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R467">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S467">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T467">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U467">
         <v>2</v>
@@ -42061,7 +42061,7 @@
         <v>1.85</v>
       </c>
       <c r="W467">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X467">
         <v>-1</v>
@@ -42070,16 +42070,16 @@
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA467">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB467">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC467">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="468" spans="1:29">
@@ -42443,7 +42443,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42455,76 +42455,76 @@
         <v>45053.375</v>
       </c>
       <c r="F472" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G472" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472">
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K472">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L472">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M472">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N472">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O472">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P472">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q472">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R472">
+        <v>2.025</v>
+      </c>
+      <c r="S472">
         <v>1.825</v>
       </c>
-      <c r="S472">
-        <v>2.025</v>
-      </c>
       <c r="T472">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U472">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V472">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W472">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z472">
+        <v>-1</v>
+      </c>
+      <c r="AA472">
         <v>0.825</v>
       </c>
-      <c r="AA472">
-        <v>-1</v>
-      </c>
       <c r="AB472">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC472">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42532,7 +42532,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42544,76 +42544,76 @@
         <v>45053.375</v>
       </c>
       <c r="F473" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G473" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473">
         <v>1</v>
       </c>
       <c r="J473" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K473">
+        <v>3.1</v>
+      </c>
+      <c r="L473">
+        <v>3.5</v>
+      </c>
+      <c r="M473">
+        <v>2.2</v>
+      </c>
+      <c r="N473">
+        <v>4</v>
+      </c>
+      <c r="O473">
+        <v>3.5</v>
+      </c>
+      <c r="P473">
+        <v>2</v>
+      </c>
+      <c r="Q473">
+        <v>0.5</v>
+      </c>
+      <c r="R473">
+        <v>1.825</v>
+      </c>
+      <c r="S473">
+        <v>2.025</v>
+      </c>
+      <c r="T473">
+        <v>2.25</v>
+      </c>
+      <c r="U473">
         <v>1.9</v>
       </c>
-      <c r="L473">
-        <v>3.6</v>
-      </c>
-      <c r="M473">
-        <v>3.6</v>
-      </c>
-      <c r="N473">
-        <v>2</v>
-      </c>
-      <c r="O473">
-        <v>3.8</v>
-      </c>
-      <c r="P473">
-        <v>3.4</v>
-      </c>
-      <c r="Q473">
-        <v>-0.5</v>
-      </c>
-      <c r="R473">
-        <v>2.025</v>
-      </c>
-      <c r="S473">
-        <v>1.825</v>
-      </c>
-      <c r="T473">
+      <c r="V473">
+        <v>1.95</v>
+      </c>
+      <c r="W473">
         <v>3</v>
       </c>
-      <c r="U473">
-        <v>1.875</v>
-      </c>
-      <c r="V473">
-        <v>1.975</v>
-      </c>
-      <c r="W473">
-        <v>-1</v>
-      </c>
       <c r="X473">
         <v>-1</v>
       </c>
       <c r="Y473">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z473">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA473">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB473">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC473">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -50008,7 +50008,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50020,67 +50020,67 @@
         <v>45200.375</v>
       </c>
       <c r="F557" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G557" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I557">
         <v>0</v>
       </c>
       <c r="J557" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K557">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L557">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M557">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N557">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O557">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P557">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q557">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R557">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S557">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T557">
         <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V557">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W557">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X557">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y557">
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA557">
         <v>-1</v>
@@ -50089,7 +50089,7 @@
         <v>-1</v>
       </c>
       <c r="AC557">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="558" spans="1:29">
@@ -50097,7 +50097,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50109,67 +50109,67 @@
         <v>45200.375</v>
       </c>
       <c r="F558" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G558" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558">
         <v>0</v>
       </c>
       <c r="J558" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K558">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L558">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M558">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N558">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O558">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P558">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q558">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R558">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S558">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T558">
         <v>2.5</v>
       </c>
       <c r="U558">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V558">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W558">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X558">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y558">
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA558">
         <v>-1</v>
@@ -50178,7 +50178,7 @@
         <v>-1</v>
       </c>
       <c r="AC558">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:29">
@@ -50542,7 +50542,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50554,49 +50554,49 @@
         <v>45207.375</v>
       </c>
       <c r="F563" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G563" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H563">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563">
         <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K563">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L563">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M563">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N563">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O563">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P563">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q563">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R563">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S563">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T563">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U563">
         <v>2.025</v>
@@ -50605,25 +50605,25 @@
         <v>1.825</v>
       </c>
       <c r="W563">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X563">
         <v>-1</v>
       </c>
       <c r="Y563">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z563">
+        <v>-1</v>
+      </c>
+      <c r="AA563">
+        <v>1</v>
+      </c>
+      <c r="AB563">
+        <v>-1</v>
+      </c>
+      <c r="AC563">
         <v>0.825</v>
-      </c>
-      <c r="AA563">
-        <v>-1</v>
-      </c>
-      <c r="AB563">
-        <v>1.025</v>
-      </c>
-      <c r="AC563">
-        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50631,7 +50631,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50643,49 +50643,49 @@
         <v>45207.375</v>
       </c>
       <c r="F564" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G564" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I564">
         <v>1</v>
       </c>
       <c r="J564" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K564">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L564">
+        <v>3.6</v>
+      </c>
+      <c r="M564">
         <v>4.2</v>
       </c>
-      <c r="M564">
-        <v>6</v>
-      </c>
       <c r="N564">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O564">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P564">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q564">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R564">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S564">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T564">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U564">
         <v>2.025</v>
@@ -50694,25 +50694,25 @@
         <v>1.825</v>
       </c>
       <c r="W564">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X564">
         <v>-1</v>
       </c>
       <c r="Y564">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z564">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA564">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB564">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC564">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -28559,7 +28559,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>5143634</v>
+        <v>5143633</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28571,73 +28571,73 @@
         <v>44766.375</v>
       </c>
       <c r="F316" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K316">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L316">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M316">
+        <v>2.7</v>
+      </c>
+      <c r="N316">
+        <v>2.875</v>
+      </c>
+      <c r="O316">
         <v>3.4</v>
       </c>
-      <c r="N316">
-        <v>2.15</v>
-      </c>
-      <c r="O316">
-        <v>3.8</v>
-      </c>
       <c r="P316">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R316">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S316">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
+        <v>2.025</v>
+      </c>
+      <c r="V316">
+        <v>1.825</v>
+      </c>
+      <c r="W316">
         <v>1.875</v>
       </c>
-      <c r="V316">
-        <v>1.975</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
       <c r="X316">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AA316">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28648,7 +28648,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>5143633</v>
+        <v>5143634</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28660,73 +28660,73 @@
         <v>44766.375</v>
       </c>
       <c r="F317" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K317">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L317">
+        <v>3.5</v>
+      </c>
+      <c r="M317">
         <v>3.4</v>
       </c>
-      <c r="M317">
-        <v>2.7</v>
-      </c>
       <c r="N317">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O317">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P317">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q317">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="S317">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W317">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0.79</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB317">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -37637,7 +37637,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>5143701</v>
+        <v>5143716</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37649,76 +37649,76 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F418" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G418" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H418">
+        <v>1</v>
+      </c>
+      <c r="I418">
         <v>0</v>
       </c>
-      <c r="I418">
-        <v>3</v>
-      </c>
       <c r="J418" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K418">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L418">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M418">
+        <v>3.75</v>
+      </c>
+      <c r="N418">
         <v>1.909</v>
       </c>
-      <c r="N418">
-        <v>3.4</v>
-      </c>
       <c r="O418">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P418">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q418">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R418">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S418">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T418">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U418">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V418">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X418">
         <v>-1</v>
       </c>
       <c r="Y418">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA418">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC418">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37726,7 +37726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>5143716</v>
+        <v>5143701</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37738,76 +37738,76 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F419" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G419" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J419" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K419">
+        <v>3.5</v>
+      </c>
+      <c r="L419">
+        <v>3.6</v>
+      </c>
+      <c r="M419">
+        <v>1.909</v>
+      </c>
+      <c r="N419">
+        <v>3.4</v>
+      </c>
+      <c r="O419">
+        <v>3.5</v>
+      </c>
+      <c r="P419">
+        <v>2.1</v>
+      </c>
+      <c r="Q419">
+        <v>0.25</v>
+      </c>
+      <c r="R419">
+        <v>2.025</v>
+      </c>
+      <c r="S419">
+        <v>1.825</v>
+      </c>
+      <c r="T419">
+        <v>2.25</v>
+      </c>
+      <c r="U419">
         <v>1.85</v>
       </c>
-      <c r="L419">
-        <v>3.75</v>
-      </c>
-      <c r="M419">
-        <v>3.75</v>
-      </c>
-      <c r="N419">
-        <v>1.909</v>
-      </c>
-      <c r="O419">
-        <v>3.75</v>
-      </c>
-      <c r="P419">
-        <v>3.8</v>
-      </c>
-      <c r="Q419">
-        <v>-0.5</v>
-      </c>
-      <c r="R419">
-        <v>1.875</v>
-      </c>
-      <c r="S419">
-        <v>1.975</v>
-      </c>
-      <c r="T419">
-        <v>2.5</v>
-      </c>
-      <c r="U419">
-        <v>1.875</v>
-      </c>
       <c r="V419">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W419">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X419">
         <v>-1</v>
       </c>
       <c r="Y419">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z419">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA419">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB419">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC419">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -39417,7 +39417,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>5143709</v>
+        <v>5143710</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39429,76 +39429,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G438" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
         <v>1</v>
       </c>
-      <c r="I438">
+      <c r="J438" t="s">
+        <v>46</v>
+      </c>
+      <c r="K438">
+        <v>2.55</v>
+      </c>
+      <c r="L438">
+        <v>3.4</v>
+      </c>
+      <c r="M438">
+        <v>2.6</v>
+      </c>
+      <c r="N438">
+        <v>2.375</v>
+      </c>
+      <c r="O438">
+        <v>3.5</v>
+      </c>
+      <c r="P438">
+        <v>2.8</v>
+      </c>
+      <c r="Q438">
         <v>0</v>
       </c>
-      <c r="J438" t="s">
-        <v>44</v>
-      </c>
-      <c r="K438">
-        <v>1.95</v>
-      </c>
-      <c r="L438">
-        <v>3.5</v>
-      </c>
-      <c r="M438">
-        <v>3.8</v>
-      </c>
-      <c r="N438">
-        <v>1.833</v>
-      </c>
-      <c r="O438">
-        <v>3.75</v>
-      </c>
-      <c r="P438">
-        <v>4</v>
-      </c>
-      <c r="Q438">
-        <v>-0.75</v>
-      </c>
       <c r="R438">
+        <v>1.8</v>
+      </c>
+      <c r="S438">
         <v>2.05</v>
-      </c>
-      <c r="S438">
-        <v>1.8</v>
       </c>
       <c r="T438">
         <v>2.5</v>
       </c>
       <c r="U438">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V438">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W438">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z438">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA438">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB438">
         <v>-1</v>
       </c>
       <c r="AC438">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39506,7 +39506,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>5143710</v>
+        <v>5143712</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39518,40 +39518,40 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F439" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G439" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I439">
         <v>1</v>
       </c>
       <c r="J439" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K439">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L439">
         <v>3.4</v>
       </c>
       <c r="M439">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N439">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O439">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P439">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q439">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R439">
         <v>1.8</v>
@@ -39560,34 +39560,34 @@
         <v>2.05</v>
       </c>
       <c r="T439">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U439">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V439">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W439">
         <v>-1</v>
       </c>
       <c r="X439">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y439">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z439">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA439">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB439">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC439">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39595,7 +39595,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>5143712</v>
+        <v>5143709</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39607,76 +39607,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G440" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H440">
         <v>1</v>
       </c>
       <c r="I440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J440" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K440">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L440">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M440">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N440">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O440">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P440">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q440">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R440">
+        <v>2.05</v>
+      </c>
+      <c r="S440">
         <v>1.8</v>
       </c>
-      <c r="S440">
-        <v>2.05</v>
-      </c>
       <c r="T440">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U440">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V440">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W440">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X440">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y440">
         <v>-1</v>
       </c>
       <c r="Z440">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA440">
         <v>-0.5</v>
       </c>
-      <c r="AA440">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AB440">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC440">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -41375,7 +41375,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41387,76 +41387,76 @@
         <v>45039.375</v>
       </c>
       <c r="F460" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G460" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H460">
+        <v>1</v>
+      </c>
+      <c r="I460">
         <v>0</v>
       </c>
-      <c r="I460">
-        <v>2</v>
-      </c>
       <c r="J460" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K460">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L460">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M460">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N460">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O460">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P460">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q460">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R460">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S460">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T460">
         <v>2.5</v>
       </c>
       <c r="U460">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V460">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W460">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X460">
         <v>-1</v>
       </c>
       <c r="Y460">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z460">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA460">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB460">
         <v>-1</v>
       </c>
       <c r="AC460">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41464,7 +41464,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41476,76 +41476,76 @@
         <v>45039.375</v>
       </c>
       <c r="F461" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G461" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J461" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K461">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L461">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M461">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N461">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O461">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P461">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q461">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R461">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S461">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T461">
         <v>2.5</v>
       </c>
       <c r="U461">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V461">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W461">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z461">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA461">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB461">
         <v>-1</v>
       </c>
       <c r="AC461">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41909,7 +41909,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41921,16 +41921,16 @@
         <v>45046.375</v>
       </c>
       <c r="F466" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G466" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H466">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" t="s">
         <v>44</v>
@@ -41939,31 +41939,31 @@
         <v>1.9</v>
       </c>
       <c r="L466">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M466">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N466">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O466">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P466">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q466">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R466">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S466">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T466">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U466">
         <v>2</v>
@@ -41972,7 +41972,7 @@
         <v>1.85</v>
       </c>
       <c r="W466">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X466">
         <v>-1</v>
@@ -41981,16 +41981,16 @@
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA466">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB466">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC466">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -41998,7 +41998,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42010,16 +42010,16 @@
         <v>45046.375</v>
       </c>
       <c r="F467" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G467" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H467">
+        <v>3</v>
+      </c>
+      <c r="I467">
         <v>1</v>
-      </c>
-      <c r="I467">
-        <v>0</v>
       </c>
       <c r="J467" t="s">
         <v>44</v>
@@ -42028,31 +42028,31 @@
         <v>1.9</v>
       </c>
       <c r="L467">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M467">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N467">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O467">
+        <v>3.6</v>
+      </c>
+      <c r="P467">
         <v>4</v>
       </c>
-      <c r="P467">
-        <v>4.5</v>
-      </c>
       <c r="Q467">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R467">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S467">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T467">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U467">
         <v>2</v>
@@ -42061,7 +42061,7 @@
         <v>1.85</v>
       </c>
       <c r="W467">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X467">
         <v>-1</v>
@@ -42070,16 +42070,16 @@
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA467">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB467">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC467">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468" spans="1:29">
@@ -50008,7 +50008,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50020,67 +50020,67 @@
         <v>45200.375</v>
       </c>
       <c r="F557" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G557" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557">
         <v>0</v>
       </c>
       <c r="J557" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K557">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L557">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M557">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N557">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O557">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P557">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q557">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R557">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S557">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T557">
         <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V557">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W557">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X557">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y557">
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA557">
         <v>-1</v>
@@ -50089,7 +50089,7 @@
         <v>-1</v>
       </c>
       <c r="AC557">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:29">
@@ -50097,7 +50097,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50109,67 +50109,67 @@
         <v>45200.375</v>
       </c>
       <c r="F558" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G558" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I558">
         <v>0</v>
       </c>
       <c r="J558" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K558">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L558">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M558">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N558">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O558">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P558">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q558">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R558">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S558">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T558">
         <v>2.5</v>
       </c>
       <c r="U558">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V558">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W558">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X558">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y558">
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA558">
         <v>-1</v>
@@ -50178,7 +50178,7 @@
         <v>-1</v>
       </c>
       <c r="AC558">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="559" spans="1:29">
@@ -50542,7 +50542,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50554,49 +50554,49 @@
         <v>45207.375</v>
       </c>
       <c r="F563" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G563" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I563">
         <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K563">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L563">
+        <v>3.6</v>
+      </c>
+      <c r="M563">
         <v>4.2</v>
       </c>
-      <c r="M563">
-        <v>6</v>
-      </c>
       <c r="N563">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O563">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P563">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q563">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R563">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S563">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T563">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U563">
         <v>2.025</v>
@@ -50605,25 +50605,25 @@
         <v>1.825</v>
       </c>
       <c r="W563">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X563">
         <v>-1</v>
       </c>
       <c r="Y563">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z563">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA563">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB563">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC563">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50631,7 +50631,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50643,49 +50643,49 @@
         <v>45207.375</v>
       </c>
       <c r="F564" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G564" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H564">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564">
         <v>1</v>
       </c>
       <c r="J564" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K564">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L564">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M564">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N564">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O564">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P564">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q564">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R564">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S564">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T564">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U564">
         <v>2.025</v>
@@ -50694,25 +50694,25 @@
         <v>1.825</v>
       </c>
       <c r="W564">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X564">
         <v>-1</v>
       </c>
       <c r="Y564">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z564">
+        <v>-1</v>
+      </c>
+      <c r="AA564">
+        <v>1</v>
+      </c>
+      <c r="AB564">
+        <v>-1</v>
+      </c>
+      <c r="AC564">
         <v>0.825</v>
-      </c>
-      <c r="AA564">
-        <v>-1</v>
-      </c>
-      <c r="AB564">
-        <v>1.025</v>
-      </c>
-      <c r="AC564">
-        <v>-1</v>
       </c>
     </row>
     <row r="565" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4811403</v>
+        <v>4811775</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27681,58 +27681,58 @@
         <v>44703.5</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
         <v>44</v>
       </c>
       <c r="K306">
-        <v>2.6</v>
+        <v>1.416</v>
       </c>
       <c r="L306">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M306">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N306">
+        <v>1.444</v>
+      </c>
+      <c r="O306">
+        <v>5</v>
+      </c>
+      <c r="P306">
+        <v>6.5</v>
+      </c>
+      <c r="Q306">
+        <v>-1.5</v>
+      </c>
+      <c r="R306">
+        <v>2</v>
+      </c>
+      <c r="S306">
         <v>1.8</v>
-      </c>
-      <c r="O306">
-        <v>4</v>
-      </c>
-      <c r="P306">
-        <v>4.2</v>
-      </c>
-      <c r="Q306">
-        <v>-0.75</v>
-      </c>
-      <c r="R306">
-        <v>2.025</v>
-      </c>
-      <c r="S306">
-        <v>1.825</v>
       </c>
       <c r="T306">
         <v>3</v>
       </c>
       <c r="U306">
+        <v>1.875</v>
+      </c>
+      <c r="V306">
         <v>1.975</v>
       </c>
-      <c r="V306">
-        <v>1.875</v>
-      </c>
       <c r="W306">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27741,10 +27741,10 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4811775</v>
+        <v>4811403</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27770,58 +27770,58 @@
         <v>44703.5</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>44</v>
       </c>
       <c r="K307">
-        <v>1.416</v>
+        <v>2.6</v>
       </c>
       <c r="L307">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M307">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="N307">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O307">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P307">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q307">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T307">
         <v>3</v>
       </c>
       <c r="U307">
+        <v>1.975</v>
+      </c>
+      <c r="V307">
         <v>1.875</v>
       </c>
-      <c r="V307">
-        <v>1.975</v>
-      </c>
       <c r="W307">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27830,10 +27830,10 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB307">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>5143629</v>
+        <v>5143630</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28037,73 +28037,73 @@
         <v>44759.375</v>
       </c>
       <c r="F310" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H310">
         <v>2</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K310">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="L310">
         <v>3.5</v>
       </c>
       <c r="M310">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N310">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O310">
         <v>3.6</v>
       </c>
       <c r="P310">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R310">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S310">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W310">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.95</v>
+        <v>0.53</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB310">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28114,7 +28114,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>5143630</v>
+        <v>5143629</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28126,73 +28126,73 @@
         <v>44759.375</v>
       </c>
       <c r="F311" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G311" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H311">
         <v>2</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K311">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="L311">
         <v>3.5</v>
       </c>
       <c r="M311">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N311">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="O311">
         <v>3.6</v>
       </c>
       <c r="P311">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q311">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S311">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U311">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V311">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X311">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
       <c r="AA311">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC311">
         <v>-1</v>
@@ -28559,7 +28559,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>5143633</v>
+        <v>5143634</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28571,73 +28571,73 @@
         <v>44766.375</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G316" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K316">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L316">
+        <v>3.5</v>
+      </c>
+      <c r="M316">
         <v>3.4</v>
       </c>
-      <c r="M316">
-        <v>2.7</v>
-      </c>
       <c r="N316">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O316">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P316">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q316">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="S316">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="T316">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U316">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W316">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.79</v>
+        <v>-0.5</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB316">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28648,7 +28648,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>5143634</v>
+        <v>5143633</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28660,73 +28660,73 @@
         <v>44766.375</v>
       </c>
       <c r="F317" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G317" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K317">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L317">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M317">
+        <v>2.7</v>
+      </c>
+      <c r="N317">
+        <v>2.875</v>
+      </c>
+      <c r="O317">
         <v>3.4</v>
       </c>
-      <c r="N317">
-        <v>2.15</v>
-      </c>
-      <c r="O317">
-        <v>3.8</v>
-      </c>
       <c r="P317">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R317">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S317">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="T317">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
+        <v>2.025</v>
+      </c>
+      <c r="V317">
+        <v>1.825</v>
+      </c>
+      <c r="W317">
         <v>1.875</v>
       </c>
-      <c r="V317">
-        <v>1.975</v>
-      </c>
-      <c r="W317">
-        <v>-1</v>
-      </c>
       <c r="X317">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AA317">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -37637,7 +37637,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>5143716</v>
+        <v>5143701</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37649,76 +37649,76 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F418" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G418" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J418" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K418">
+        <v>3.5</v>
+      </c>
+      <c r="L418">
+        <v>3.6</v>
+      </c>
+      <c r="M418">
+        <v>1.909</v>
+      </c>
+      <c r="N418">
+        <v>3.4</v>
+      </c>
+      <c r="O418">
+        <v>3.5</v>
+      </c>
+      <c r="P418">
+        <v>2.1</v>
+      </c>
+      <c r="Q418">
+        <v>0.25</v>
+      </c>
+      <c r="R418">
+        <v>2.025</v>
+      </c>
+      <c r="S418">
+        <v>1.825</v>
+      </c>
+      <c r="T418">
+        <v>2.25</v>
+      </c>
+      <c r="U418">
         <v>1.85</v>
       </c>
-      <c r="L418">
-        <v>3.75</v>
-      </c>
-      <c r="M418">
-        <v>3.75</v>
-      </c>
-      <c r="N418">
-        <v>1.909</v>
-      </c>
-      <c r="O418">
-        <v>3.75</v>
-      </c>
-      <c r="P418">
-        <v>3.8</v>
-      </c>
-      <c r="Q418">
-        <v>-0.5</v>
-      </c>
-      <c r="R418">
-        <v>1.875</v>
-      </c>
-      <c r="S418">
-        <v>1.975</v>
-      </c>
-      <c r="T418">
-        <v>2.5</v>
-      </c>
-      <c r="U418">
-        <v>1.875</v>
-      </c>
       <c r="V418">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W418">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X418">
         <v>-1</v>
       </c>
       <c r="Y418">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z418">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA418">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB418">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC418">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37726,7 +37726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>5143701</v>
+        <v>5143716</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37738,76 +37738,76 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G419" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H419">
+        <v>1</v>
+      </c>
+      <c r="I419">
         <v>0</v>
       </c>
-      <c r="I419">
-        <v>3</v>
-      </c>
       <c r="J419" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K419">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L419">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M419">
+        <v>3.75</v>
+      </c>
+      <c r="N419">
         <v>1.909</v>
       </c>
-      <c r="N419">
-        <v>3.4</v>
-      </c>
       <c r="O419">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P419">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q419">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R419">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S419">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T419">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U419">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V419">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W419">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X419">
         <v>-1</v>
       </c>
       <c r="Y419">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z419">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA419">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB419">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC419">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -39417,7 +39417,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>5143710</v>
+        <v>5143709</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39429,76 +39429,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G438" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H438">
+        <v>1</v>
+      </c>
+      <c r="I438">
         <v>0</v>
       </c>
-      <c r="I438">
-        <v>1</v>
-      </c>
       <c r="J438" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K438">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L438">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M438">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N438">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O438">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P438">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q438">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R438">
+        <v>2.05</v>
+      </c>
+      <c r="S438">
         <v>1.8</v>
-      </c>
-      <c r="S438">
-        <v>2.05</v>
       </c>
       <c r="T438">
         <v>2.5</v>
       </c>
       <c r="U438">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V438">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W438">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z438">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA438">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB438">
         <v>-1</v>
       </c>
       <c r="AC438">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39506,7 +39506,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>5143712</v>
+        <v>5143710</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39518,40 +39518,40 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F439" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G439" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439">
         <v>1</v>
       </c>
       <c r="J439" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K439">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L439">
         <v>3.4</v>
       </c>
       <c r="M439">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N439">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O439">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P439">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q439">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R439">
         <v>1.8</v>
@@ -39560,34 +39560,34 @@
         <v>2.05</v>
       </c>
       <c r="T439">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U439">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V439">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W439">
         <v>-1</v>
       </c>
       <c r="X439">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y439">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z439">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA439">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB439">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC439">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39595,7 +39595,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>5143709</v>
+        <v>5143712</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39607,76 +39607,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G440" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H440">
         <v>1</v>
       </c>
       <c r="I440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J440" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K440">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L440">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M440">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N440">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O440">
+        <v>3.4</v>
+      </c>
+      <c r="P440">
         <v>3.75</v>
       </c>
-      <c r="P440">
-        <v>4</v>
-      </c>
       <c r="Q440">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R440">
+        <v>1.8</v>
+      </c>
+      <c r="S440">
         <v>2.05</v>
       </c>
-      <c r="S440">
-        <v>1.8</v>
-      </c>
       <c r="T440">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U440">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V440">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W440">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X440">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y440">
         <v>-1</v>
       </c>
       <c r="Z440">
+        <v>-0.5</v>
+      </c>
+      <c r="AA440">
         <v>0.5249999999999999</v>
       </c>
-      <c r="AA440">
+      <c r="AB440">
         <v>-0.5</v>
       </c>
-      <c r="AB440">
-        <v>-1</v>
-      </c>
       <c r="AC440">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -40307,7 +40307,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40319,76 +40319,76 @@
         <v>45026.375</v>
       </c>
       <c r="F448" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G448" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J448" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K448">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L448">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M448">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N448">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O448">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P448">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q448">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R448">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S448">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T448">
         <v>2.75</v>
       </c>
       <c r="U448">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V448">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA448">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB448">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC448">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40396,7 +40396,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40408,76 +40408,76 @@
         <v>45026.375</v>
       </c>
       <c r="F449" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G449" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J449" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K449">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L449">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M449">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N449">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O449">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P449">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q449">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R449">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S449">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T449">
         <v>2.75</v>
       </c>
       <c r="U449">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V449">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W449">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z449">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA449">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB449">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC449">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -41375,7 +41375,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41387,76 +41387,76 @@
         <v>45039.375</v>
       </c>
       <c r="F460" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G460" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J460" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K460">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L460">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M460">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N460">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O460">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P460">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q460">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R460">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S460">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T460">
         <v>2.5</v>
       </c>
       <c r="U460">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V460">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W460">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X460">
         <v>-1</v>
       </c>
       <c r="Y460">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z460">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA460">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB460">
         <v>-1</v>
       </c>
       <c r="AC460">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41464,7 +41464,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41476,76 +41476,76 @@
         <v>45039.375</v>
       </c>
       <c r="F461" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G461" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H461">
+        <v>1</v>
+      </c>
+      <c r="I461">
         <v>0</v>
       </c>
-      <c r="I461">
-        <v>2</v>
-      </c>
       <c r="J461" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K461">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L461">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M461">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N461">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O461">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P461">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q461">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R461">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S461">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T461">
         <v>2.5</v>
       </c>
       <c r="U461">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V461">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W461">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z461">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA461">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB461">
         <v>-1</v>
       </c>
       <c r="AC461">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -50008,7 +50008,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50020,67 +50020,67 @@
         <v>45200.375</v>
       </c>
       <c r="F557" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G557" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I557">
         <v>0</v>
       </c>
       <c r="J557" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K557">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L557">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M557">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N557">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O557">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P557">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q557">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R557">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S557">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T557">
         <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V557">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W557">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X557">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y557">
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA557">
         <v>-1</v>
@@ -50089,7 +50089,7 @@
         <v>-1</v>
       </c>
       <c r="AC557">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="558" spans="1:29">
@@ -50097,7 +50097,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50109,67 +50109,67 @@
         <v>45200.375</v>
       </c>
       <c r="F558" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G558" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558">
         <v>0</v>
       </c>
       <c r="J558" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K558">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L558">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M558">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N558">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O558">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P558">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q558">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R558">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S558">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T558">
         <v>2.5</v>
       </c>
       <c r="U558">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V558">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W558">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X558">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y558">
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA558">
         <v>-1</v>
@@ -50178,7 +50178,7 @@
         <v>-1</v>
       </c>
       <c r="AC558">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:29">
@@ -50542,7 +50542,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50554,49 +50554,49 @@
         <v>45207.375</v>
       </c>
       <c r="F563" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G563" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H563">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563">
         <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K563">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L563">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M563">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N563">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O563">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P563">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q563">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R563">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S563">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T563">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U563">
         <v>2.025</v>
@@ -50605,25 +50605,25 @@
         <v>1.825</v>
       </c>
       <c r="W563">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X563">
         <v>-1</v>
       </c>
       <c r="Y563">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z563">
+        <v>-1</v>
+      </c>
+      <c r="AA563">
+        <v>1</v>
+      </c>
+      <c r="AB563">
+        <v>-1</v>
+      </c>
+      <c r="AC563">
         <v>0.825</v>
-      </c>
-      <c r="AA563">
-        <v>-1</v>
-      </c>
-      <c r="AB563">
-        <v>1.025</v>
-      </c>
-      <c r="AC563">
-        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50631,7 +50631,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50643,49 +50643,49 @@
         <v>45207.375</v>
       </c>
       <c r="F564" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G564" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I564">
         <v>1</v>
       </c>
       <c r="J564" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K564">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L564">
+        <v>3.6</v>
+      </c>
+      <c r="M564">
         <v>4.2</v>
       </c>
-      <c r="M564">
-        <v>6</v>
-      </c>
       <c r="N564">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O564">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P564">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q564">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R564">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S564">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T564">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U564">
         <v>2.025</v>
@@ -50694,25 +50694,25 @@
         <v>1.825</v>
       </c>
       <c r="W564">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X564">
         <v>-1</v>
       </c>
       <c r="Y564">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z564">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA564">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB564">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC564">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -28025,7 +28025,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>5143630</v>
+        <v>5143629</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28037,73 +28037,73 @@
         <v>44759.375</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G310" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H310">
         <v>2</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K310">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="L310">
         <v>3.5</v>
       </c>
       <c r="M310">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N310">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="O310">
         <v>3.6</v>
       </c>
       <c r="P310">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S310">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U310">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V310">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X310">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
       <c r="AA310">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28114,7 +28114,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>5143629</v>
+        <v>5143630</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28126,73 +28126,73 @@
         <v>44759.375</v>
       </c>
       <c r="F311" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G311" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H311">
         <v>2</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K311">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="L311">
         <v>3.5</v>
       </c>
       <c r="M311">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N311">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O311">
         <v>3.6</v>
       </c>
       <c r="P311">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R311">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S311">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T311">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V311">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W311">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.95</v>
+        <v>0.53</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB311">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC311">
         <v>-1</v>
@@ -36035,7 +36035,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>5143689</v>
+        <v>5143691</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36047,76 +36047,76 @@
         <v>44871.41666666666</v>
       </c>
       <c r="F400" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G400" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H400">
         <v>1</v>
       </c>
       <c r="I400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J400" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K400">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="L400">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M400">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N400">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O400">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P400">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q400">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R400">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S400">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T400">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U400">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V400">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W400">
         <v>-1</v>
       </c>
       <c r="X400">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y400">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z400">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA400">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB400">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC400">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36124,7 +36124,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>5143691</v>
+        <v>5143689</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36136,76 +36136,76 @@
         <v>44871.41666666666</v>
       </c>
       <c r="F401" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G401" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H401">
         <v>1</v>
       </c>
       <c r="I401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J401" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K401">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="L401">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M401">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N401">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O401">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P401">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q401">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R401">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S401">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T401">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U401">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V401">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W401">
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z401">
+        <v>-1</v>
+      </c>
+      <c r="AA401">
+        <v>0.825</v>
+      </c>
+      <c r="AB401">
+        <v>0.5</v>
+      </c>
+      <c r="AC401">
         <v>-0.5</v>
-      </c>
-      <c r="AA401">
-        <v>0.4375</v>
-      </c>
-      <c r="AB401">
-        <v>-0.5</v>
-      </c>
-      <c r="AC401">
-        <v>0.475</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -40307,7 +40307,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40319,76 +40319,76 @@
         <v>45026.375</v>
       </c>
       <c r="F448" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G448" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J448" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K448">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L448">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M448">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N448">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O448">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P448">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q448">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R448">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S448">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T448">
         <v>2.75</v>
       </c>
       <c r="U448">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V448">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W448">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z448">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA448">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB448">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC448">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40396,7 +40396,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40408,76 +40408,76 @@
         <v>45026.375</v>
       </c>
       <c r="F449" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G449" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J449" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K449">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L449">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M449">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N449">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O449">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P449">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q449">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R449">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S449">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T449">
         <v>2.75</v>
       </c>
       <c r="U449">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V449">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W449">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA449">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB449">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC449">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="450" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -42443,7 +42443,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42455,76 +42455,76 @@
         <v>45053.375</v>
       </c>
       <c r="F472" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G472" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472">
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K472">
+        <v>3.1</v>
+      </c>
+      <c r="L472">
+        <v>3.5</v>
+      </c>
+      <c r="M472">
+        <v>2.2</v>
+      </c>
+      <c r="N472">
+        <v>4</v>
+      </c>
+      <c r="O472">
+        <v>3.5</v>
+      </c>
+      <c r="P472">
+        <v>2</v>
+      </c>
+      <c r="Q472">
+        <v>0.5</v>
+      </c>
+      <c r="R472">
+        <v>1.825</v>
+      </c>
+      <c r="S472">
+        <v>2.025</v>
+      </c>
+      <c r="T472">
+        <v>2.25</v>
+      </c>
+      <c r="U472">
         <v>1.9</v>
       </c>
-      <c r="L472">
-        <v>3.6</v>
-      </c>
-      <c r="M472">
-        <v>3.6</v>
-      </c>
-      <c r="N472">
-        <v>2</v>
-      </c>
-      <c r="O472">
-        <v>3.8</v>
-      </c>
-      <c r="P472">
-        <v>3.4</v>
-      </c>
-      <c r="Q472">
-        <v>-0.5</v>
-      </c>
-      <c r="R472">
-        <v>2.025</v>
-      </c>
-      <c r="S472">
-        <v>1.825</v>
-      </c>
-      <c r="T472">
+      <c r="V472">
+        <v>1.95</v>
+      </c>
+      <c r="W472">
         <v>3</v>
       </c>
-      <c r="U472">
-        <v>1.875</v>
-      </c>
-      <c r="V472">
-        <v>1.975</v>
-      </c>
-      <c r="W472">
-        <v>-1</v>
-      </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z472">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA472">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB472">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC472">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42532,7 +42532,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42544,76 +42544,76 @@
         <v>45053.375</v>
       </c>
       <c r="F473" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G473" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473">
         <v>1</v>
       </c>
       <c r="J473" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K473">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L473">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M473">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N473">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O473">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P473">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q473">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R473">
+        <v>2.025</v>
+      </c>
+      <c r="S473">
         <v>1.825</v>
       </c>
-      <c r="S473">
-        <v>2.025</v>
-      </c>
       <c r="T473">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U473">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V473">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W473">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X473">
         <v>-1</v>
       </c>
       <c r="Y473">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z473">
+        <v>-1</v>
+      </c>
+      <c r="AA473">
         <v>0.825</v>
       </c>
-      <c r="AA473">
-        <v>-1</v>
-      </c>
       <c r="AB473">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC473">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -50008,7 +50008,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50020,67 +50020,67 @@
         <v>45200.375</v>
       </c>
       <c r="F557" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G557" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557">
         <v>0</v>
       </c>
       <c r="J557" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K557">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L557">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M557">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N557">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O557">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P557">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q557">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R557">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S557">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T557">
         <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V557">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W557">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X557">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y557">
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA557">
         <v>-1</v>
@@ -50089,7 +50089,7 @@
         <v>-1</v>
       </c>
       <c r="AC557">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:29">
@@ -50097,7 +50097,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50109,67 +50109,67 @@
         <v>45200.375</v>
       </c>
       <c r="F558" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G558" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I558">
         <v>0</v>
       </c>
       <c r="J558" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K558">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L558">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M558">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N558">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O558">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P558">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q558">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R558">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S558">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T558">
         <v>2.5</v>
       </c>
       <c r="U558">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V558">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W558">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X558">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y558">
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA558">
         <v>-1</v>
@@ -50178,7 +50178,7 @@
         <v>-1</v>
       </c>
       <c r="AC558">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="559" spans="1:29">
@@ -50542,7 +50542,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50554,49 +50554,49 @@
         <v>45207.375</v>
       </c>
       <c r="F563" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G563" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I563">
         <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K563">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L563">
+        <v>3.6</v>
+      </c>
+      <c r="M563">
         <v>4.2</v>
       </c>
-      <c r="M563">
-        <v>6</v>
-      </c>
       <c r="N563">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O563">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P563">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q563">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R563">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S563">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T563">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U563">
         <v>2.025</v>
@@ -50605,25 +50605,25 @@
         <v>1.825</v>
       </c>
       <c r="W563">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X563">
         <v>-1</v>
       </c>
       <c r="Y563">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z563">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA563">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB563">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC563">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50631,7 +50631,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50643,49 +50643,49 @@
         <v>45207.375</v>
       </c>
       <c r="F564" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G564" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H564">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564">
         <v>1</v>
       </c>
       <c r="J564" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K564">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L564">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M564">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N564">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O564">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P564">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q564">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R564">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S564">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T564">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U564">
         <v>2.025</v>
@@ -50694,25 +50694,25 @@
         <v>1.825</v>
       </c>
       <c r="W564">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X564">
         <v>-1</v>
       </c>
       <c r="Y564">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z564">
+        <v>-1</v>
+      </c>
+      <c r="AA564">
+        <v>1</v>
+      </c>
+      <c r="AB564">
+        <v>-1</v>
+      </c>
+      <c r="AC564">
         <v>0.825</v>
-      </c>
-      <c r="AA564">
-        <v>-1</v>
-      </c>
-      <c r="AB564">
-        <v>1.025</v>
-      </c>
-      <c r="AC564">
-        <v>-1</v>
       </c>
     </row>
     <row r="565" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -21973,7 +21973,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>3613178</v>
+        <v>3613177</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21985,76 +21985,76 @@
         <v>44640.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G242" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K242">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L242">
+        <v>3.5</v>
+      </c>
+      <c r="M242">
+        <v>2.15</v>
+      </c>
+      <c r="N242">
+        <v>3.1</v>
+      </c>
+      <c r="O242">
         <v>3.4</v>
       </c>
-      <c r="M242">
-        <v>2.375</v>
-      </c>
-      <c r="N242">
-        <v>2.625</v>
-      </c>
-      <c r="O242">
-        <v>3.5</v>
-      </c>
       <c r="P242">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="S242">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T242">
         <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V242">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y242">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AA242">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB242">
         <v>-1</v>
       </c>
       <c r="AC242">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22062,7 +22062,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>3613177</v>
+        <v>3613176</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22074,19 +22074,19 @@
         <v>44640.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G243" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K243">
         <v>3.2</v>
@@ -22098,52 +22098,52 @@
         <v>2.15</v>
       </c>
       <c r="N243">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O243">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P243">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q243">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R243">
-        <v>1.89</v>
+        <v>1.925</v>
       </c>
       <c r="S243">
-        <v>2.01</v>
+        <v>1.925</v>
       </c>
       <c r="T243">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X243">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.445</v>
+        <v>0.925</v>
       </c>
       <c r="AA243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22151,7 +22151,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>3613176</v>
+        <v>3613175</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22163,13 +22163,13 @@
         <v>44640.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -22178,43 +22178,43 @@
         <v>44</v>
       </c>
       <c r="K244">
+        <v>2.2</v>
+      </c>
+      <c r="L244">
+        <v>3.4</v>
+      </c>
+      <c r="M244">
         <v>3.2</v>
       </c>
-      <c r="L244">
-        <v>3.5</v>
-      </c>
-      <c r="M244">
-        <v>2.15</v>
-      </c>
       <c r="N244">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O244">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P244">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q244">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
+        <v>1.85</v>
+      </c>
+      <c r="T244">
+        <v>2.25</v>
+      </c>
+      <c r="U244">
         <v>1.925</v>
       </c>
-      <c r="S244">
+      <c r="V244">
         <v>1.925</v>
       </c>
-      <c r="T244">
-        <v>2.75</v>
-      </c>
-      <c r="U244">
-        <v>2.025</v>
-      </c>
-      <c r="V244">
-        <v>1.825</v>
-      </c>
       <c r="W244">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22223,16 +22223,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
+        <v>1</v>
+      </c>
+      <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
         <v>0.925</v>
       </c>
-      <c r="AA244">
-        <v>-1</v>
-      </c>
-      <c r="AB244">
-        <v>-1</v>
-      </c>
       <c r="AC244">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22240,7 +22240,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>3613175</v>
+        <v>3613178</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22252,37 +22252,37 @@
         <v>44640.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K245">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L245">
         <v>3.4</v>
       </c>
       <c r="M245">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N245">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O245">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P245">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -22294,34 +22294,34 @@
         <v>1.85</v>
       </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W245">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z245">
+        <v>-1</v>
+      </c>
+      <c r="AA245">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
         <v>1</v>
-      </c>
-      <c r="AA245">
-        <v>-1</v>
-      </c>
-      <c r="AB245">
-        <v>0.925</v>
-      </c>
-      <c r="AC245">
-        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -25266,7 +25266,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>4811316</v>
+        <v>4811317</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25278,76 +25278,76 @@
         <v>44682.375</v>
       </c>
       <c r="F279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G279" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K279">
         <v>1.85</v>
       </c>
       <c r="L279">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M279">
         <v>4</v>
       </c>
       <c r="N279">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O279">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P279">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q279">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S279">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V279">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W279">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC279">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25355,7 +25355,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>4811317</v>
+        <v>4811316</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25367,76 +25367,76 @@
         <v>44682.375</v>
       </c>
       <c r="F280" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
         <v>0</v>
       </c>
-      <c r="I280">
-        <v>3</v>
-      </c>
       <c r="J280" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K280">
         <v>1.85</v>
       </c>
       <c r="L280">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M280">
         <v>4</v>
       </c>
       <c r="N280">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O280">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P280">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q280">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S280">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T280">
         <v>2.5</v>
       </c>
       <c r="U280">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V280">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA280">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -26512,7 +26512,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>4811322</v>
+        <v>4811323</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26524,76 +26524,76 @@
         <v>44693.54166666666</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H293">
         <v>1</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K293">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M293">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N293">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O293">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P293">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="S293">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="T293">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U293">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V293">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W293">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.79</v>
+        <v>-0.5</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB293">
         <v>-1</v>
       </c>
       <c r="AC293">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26601,7 +26601,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>4811323</v>
+        <v>4811322</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26613,76 +26613,76 @@
         <v>44693.54166666666</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G294" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H294">
         <v>1</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K294">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L294">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N294">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O294">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P294">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="S294">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U294">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V294">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X294">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AA294">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4811775</v>
+        <v>4811403</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27681,58 +27681,58 @@
         <v>44703.5</v>
       </c>
       <c r="F306" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G306" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
         <v>44</v>
       </c>
       <c r="K306">
-        <v>1.416</v>
+        <v>2.6</v>
       </c>
       <c r="L306">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M306">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="N306">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O306">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P306">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q306">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R306">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S306">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T306">
         <v>3</v>
       </c>
       <c r="U306">
+        <v>1.975</v>
+      </c>
+      <c r="V306">
         <v>1.875</v>
       </c>
-      <c r="V306">
-        <v>1.975</v>
-      </c>
       <c r="W306">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27741,10 +27741,10 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB306">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4811403</v>
+        <v>4811775</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27770,58 +27770,58 @@
         <v>44703.5</v>
       </c>
       <c r="F307" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>44</v>
       </c>
       <c r="K307">
-        <v>2.6</v>
+        <v>1.416</v>
       </c>
       <c r="L307">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M307">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N307">
+        <v>1.444</v>
+      </c>
+      <c r="O307">
+        <v>5</v>
+      </c>
+      <c r="P307">
+        <v>6.5</v>
+      </c>
+      <c r="Q307">
+        <v>-1.5</v>
+      </c>
+      <c r="R307">
+        <v>2</v>
+      </c>
+      <c r="S307">
         <v>1.8</v>
-      </c>
-      <c r="O307">
-        <v>4</v>
-      </c>
-      <c r="P307">
-        <v>4.2</v>
-      </c>
-      <c r="Q307">
-        <v>-0.75</v>
-      </c>
-      <c r="R307">
-        <v>2.025</v>
-      </c>
-      <c r="S307">
-        <v>1.825</v>
       </c>
       <c r="T307">
         <v>3</v>
       </c>
       <c r="U307">
+        <v>1.875</v>
+      </c>
+      <c r="V307">
         <v>1.975</v>
       </c>
-      <c r="V307">
-        <v>1.875</v>
-      </c>
       <c r="W307">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27830,10 +27830,10 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA307">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
         <v>0</v>
@@ -28559,7 +28559,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>5143634</v>
+        <v>5143633</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28571,73 +28571,73 @@
         <v>44766.375</v>
       </c>
       <c r="F316" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K316">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L316">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M316">
+        <v>2.7</v>
+      </c>
+      <c r="N316">
+        <v>2.875</v>
+      </c>
+      <c r="O316">
         <v>3.4</v>
       </c>
-      <c r="N316">
-        <v>2.15</v>
-      </c>
-      <c r="O316">
-        <v>3.8</v>
-      </c>
       <c r="P316">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R316">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S316">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
+        <v>2.025</v>
+      </c>
+      <c r="V316">
+        <v>1.825</v>
+      </c>
+      <c r="W316">
         <v>1.875</v>
       </c>
-      <c r="V316">
-        <v>1.975</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
       <c r="X316">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AA316">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28648,7 +28648,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>5143633</v>
+        <v>5143634</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28660,73 +28660,73 @@
         <v>44766.375</v>
       </c>
       <c r="F317" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K317">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L317">
+        <v>3.5</v>
+      </c>
+      <c r="M317">
         <v>3.4</v>
       </c>
-      <c r="M317">
-        <v>2.7</v>
-      </c>
       <c r="N317">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O317">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P317">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q317">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="S317">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W317">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0.79</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB317">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -36035,7 +36035,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>5143691</v>
+        <v>5143689</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36047,76 +36047,76 @@
         <v>44871.41666666666</v>
       </c>
       <c r="F400" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G400" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H400">
         <v>1</v>
       </c>
       <c r="I400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J400" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K400">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="L400">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M400">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N400">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O400">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P400">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q400">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R400">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S400">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T400">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U400">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V400">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W400">
         <v>-1</v>
       </c>
       <c r="X400">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y400">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z400">
+        <v>-1</v>
+      </c>
+      <c r="AA400">
+        <v>0.825</v>
+      </c>
+      <c r="AB400">
+        <v>0.5</v>
+      </c>
+      <c r="AC400">
         <v>-0.5</v>
-      </c>
-      <c r="AA400">
-        <v>0.4375</v>
-      </c>
-      <c r="AB400">
-        <v>-0.5</v>
-      </c>
-      <c r="AC400">
-        <v>0.475</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36124,7 +36124,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>5143689</v>
+        <v>5143691</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36136,76 +36136,76 @@
         <v>44871.41666666666</v>
       </c>
       <c r="F401" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G401" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H401">
         <v>1</v>
       </c>
       <c r="I401">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K401">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="L401">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M401">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N401">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O401">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P401">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q401">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R401">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S401">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U401">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V401">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W401">
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y401">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA401">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB401">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC401">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -37637,7 +37637,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>5143701</v>
+        <v>5143716</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37649,76 +37649,76 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F418" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G418" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H418">
+        <v>1</v>
+      </c>
+      <c r="I418">
         <v>0</v>
       </c>
-      <c r="I418">
-        <v>3</v>
-      </c>
       <c r="J418" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K418">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L418">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M418">
+        <v>3.75</v>
+      </c>
+      <c r="N418">
         <v>1.909</v>
       </c>
-      <c r="N418">
-        <v>3.4</v>
-      </c>
       <c r="O418">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P418">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q418">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R418">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S418">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T418">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U418">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V418">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X418">
         <v>-1</v>
       </c>
       <c r="Y418">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA418">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC418">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37726,7 +37726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>5143716</v>
+        <v>5143701</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37738,76 +37738,76 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F419" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G419" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J419" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K419">
+        <v>3.5</v>
+      </c>
+      <c r="L419">
+        <v>3.6</v>
+      </c>
+      <c r="M419">
+        <v>1.909</v>
+      </c>
+      <c r="N419">
+        <v>3.4</v>
+      </c>
+      <c r="O419">
+        <v>3.5</v>
+      </c>
+      <c r="P419">
+        <v>2.1</v>
+      </c>
+      <c r="Q419">
+        <v>0.25</v>
+      </c>
+      <c r="R419">
+        <v>2.025</v>
+      </c>
+      <c r="S419">
+        <v>1.825</v>
+      </c>
+      <c r="T419">
+        <v>2.25</v>
+      </c>
+      <c r="U419">
         <v>1.85</v>
       </c>
-      <c r="L419">
-        <v>3.75</v>
-      </c>
-      <c r="M419">
-        <v>3.75</v>
-      </c>
-      <c r="N419">
-        <v>1.909</v>
-      </c>
-      <c r="O419">
-        <v>3.75</v>
-      </c>
-      <c r="P419">
-        <v>3.8</v>
-      </c>
-      <c r="Q419">
-        <v>-0.5</v>
-      </c>
-      <c r="R419">
-        <v>1.875</v>
-      </c>
-      <c r="S419">
-        <v>1.975</v>
-      </c>
-      <c r="T419">
-        <v>2.5</v>
-      </c>
-      <c r="U419">
-        <v>1.875</v>
-      </c>
       <c r="V419">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W419">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X419">
         <v>-1</v>
       </c>
       <c r="Y419">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z419">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA419">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB419">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC419">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -39417,7 +39417,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>5143709</v>
+        <v>5143710</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39429,76 +39429,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G438" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
         <v>1</v>
       </c>
-      <c r="I438">
+      <c r="J438" t="s">
+        <v>46</v>
+      </c>
+      <c r="K438">
+        <v>2.55</v>
+      </c>
+      <c r="L438">
+        <v>3.4</v>
+      </c>
+      <c r="M438">
+        <v>2.6</v>
+      </c>
+      <c r="N438">
+        <v>2.375</v>
+      </c>
+      <c r="O438">
+        <v>3.5</v>
+      </c>
+      <c r="P438">
+        <v>2.8</v>
+      </c>
+      <c r="Q438">
         <v>0</v>
       </c>
-      <c r="J438" t="s">
-        <v>44</v>
-      </c>
-      <c r="K438">
-        <v>1.95</v>
-      </c>
-      <c r="L438">
-        <v>3.5</v>
-      </c>
-      <c r="M438">
-        <v>3.8</v>
-      </c>
-      <c r="N438">
-        <v>1.833</v>
-      </c>
-      <c r="O438">
-        <v>3.75</v>
-      </c>
-      <c r="P438">
-        <v>4</v>
-      </c>
-      <c r="Q438">
-        <v>-0.75</v>
-      </c>
       <c r="R438">
+        <v>1.8</v>
+      </c>
+      <c r="S438">
         <v>2.05</v>
-      </c>
-      <c r="S438">
-        <v>1.8</v>
       </c>
       <c r="T438">
         <v>2.5</v>
       </c>
       <c r="U438">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V438">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W438">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z438">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA438">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB438">
         <v>-1</v>
       </c>
       <c r="AC438">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39506,7 +39506,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>5143710</v>
+        <v>5143712</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39518,40 +39518,40 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F439" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G439" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I439">
         <v>1</v>
       </c>
       <c r="J439" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K439">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L439">
         <v>3.4</v>
       </c>
       <c r="M439">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N439">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O439">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P439">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q439">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R439">
         <v>1.8</v>
@@ -39560,34 +39560,34 @@
         <v>2.05</v>
       </c>
       <c r="T439">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U439">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V439">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W439">
         <v>-1</v>
       </c>
       <c r="X439">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y439">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z439">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA439">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB439">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC439">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39595,7 +39595,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>5143712</v>
+        <v>5143709</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39607,76 +39607,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G440" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H440">
         <v>1</v>
       </c>
       <c r="I440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J440" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K440">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L440">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M440">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N440">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O440">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P440">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q440">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R440">
+        <v>2.05</v>
+      </c>
+      <c r="S440">
         <v>1.8</v>
       </c>
-      <c r="S440">
-        <v>2.05</v>
-      </c>
       <c r="T440">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U440">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V440">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W440">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X440">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y440">
         <v>-1</v>
       </c>
       <c r="Z440">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA440">
         <v>-0.5</v>
       </c>
-      <c r="AA440">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AB440">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC440">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -41375,7 +41375,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41387,76 +41387,76 @@
         <v>45039.375</v>
       </c>
       <c r="F460" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G460" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H460">
+        <v>1</v>
+      </c>
+      <c r="I460">
         <v>0</v>
       </c>
-      <c r="I460">
-        <v>2</v>
-      </c>
       <c r="J460" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K460">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L460">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M460">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N460">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O460">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P460">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q460">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R460">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S460">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T460">
         <v>2.5</v>
       </c>
       <c r="U460">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V460">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W460">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X460">
         <v>-1</v>
       </c>
       <c r="Y460">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z460">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA460">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB460">
         <v>-1</v>
       </c>
       <c r="AC460">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41464,7 +41464,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41476,76 +41476,76 @@
         <v>45039.375</v>
       </c>
       <c r="F461" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G461" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J461" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K461">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L461">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M461">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N461">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O461">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P461">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q461">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R461">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S461">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T461">
         <v>2.5</v>
       </c>
       <c r="U461">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V461">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W461">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z461">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA461">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB461">
         <v>-1</v>
       </c>
       <c r="AC461">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -42443,7 +42443,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42455,76 +42455,76 @@
         <v>45053.375</v>
       </c>
       <c r="F472" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G472" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472">
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K472">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L472">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M472">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N472">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O472">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P472">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q472">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R472">
+        <v>2.025</v>
+      </c>
+      <c r="S472">
         <v>1.825</v>
       </c>
-      <c r="S472">
-        <v>2.025</v>
-      </c>
       <c r="T472">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U472">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V472">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W472">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z472">
+        <v>-1</v>
+      </c>
+      <c r="AA472">
         <v>0.825</v>
       </c>
-      <c r="AA472">
-        <v>-1</v>
-      </c>
       <c r="AB472">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC472">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42532,7 +42532,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42544,76 +42544,76 @@
         <v>45053.375</v>
       </c>
       <c r="F473" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G473" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473">
         <v>1</v>
       </c>
       <c r="J473" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K473">
+        <v>3.1</v>
+      </c>
+      <c r="L473">
+        <v>3.5</v>
+      </c>
+      <c r="M473">
+        <v>2.2</v>
+      </c>
+      <c r="N473">
+        <v>4</v>
+      </c>
+      <c r="O473">
+        <v>3.5</v>
+      </c>
+      <c r="P473">
+        <v>2</v>
+      </c>
+      <c r="Q473">
+        <v>0.5</v>
+      </c>
+      <c r="R473">
+        <v>1.825</v>
+      </c>
+      <c r="S473">
+        <v>2.025</v>
+      </c>
+      <c r="T473">
+        <v>2.25</v>
+      </c>
+      <c r="U473">
         <v>1.9</v>
       </c>
-      <c r="L473">
-        <v>3.6</v>
-      </c>
-      <c r="M473">
-        <v>3.6</v>
-      </c>
-      <c r="N473">
-        <v>2</v>
-      </c>
-      <c r="O473">
-        <v>3.8</v>
-      </c>
-      <c r="P473">
-        <v>3.4</v>
-      </c>
-      <c r="Q473">
-        <v>-0.5</v>
-      </c>
-      <c r="R473">
-        <v>2.025</v>
-      </c>
-      <c r="S473">
-        <v>1.825</v>
-      </c>
-      <c r="T473">
+      <c r="V473">
+        <v>1.95</v>
+      </c>
+      <c r="W473">
         <v>3</v>
       </c>
-      <c r="U473">
-        <v>1.875</v>
-      </c>
-      <c r="V473">
-        <v>1.975</v>
-      </c>
-      <c r="W473">
-        <v>-1</v>
-      </c>
       <c r="X473">
         <v>-1</v>
       </c>
       <c r="Y473">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z473">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA473">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB473">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC473">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4811403</v>
+        <v>4811775</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27681,58 +27681,58 @@
         <v>44703.5</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
         <v>44</v>
       </c>
       <c r="K306">
-        <v>2.6</v>
+        <v>1.416</v>
       </c>
       <c r="L306">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M306">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N306">
+        <v>1.444</v>
+      </c>
+      <c r="O306">
+        <v>5</v>
+      </c>
+      <c r="P306">
+        <v>6.5</v>
+      </c>
+      <c r="Q306">
+        <v>-1.5</v>
+      </c>
+      <c r="R306">
+        <v>2</v>
+      </c>
+      <c r="S306">
         <v>1.8</v>
-      </c>
-      <c r="O306">
-        <v>4</v>
-      </c>
-      <c r="P306">
-        <v>4.2</v>
-      </c>
-      <c r="Q306">
-        <v>-0.75</v>
-      </c>
-      <c r="R306">
-        <v>2.025</v>
-      </c>
-      <c r="S306">
-        <v>1.825</v>
       </c>
       <c r="T306">
         <v>3</v>
       </c>
       <c r="U306">
+        <v>1.875</v>
+      </c>
+      <c r="V306">
         <v>1.975</v>
       </c>
-      <c r="V306">
-        <v>1.875</v>
-      </c>
       <c r="W306">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27741,10 +27741,10 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4811775</v>
+        <v>4811403</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27770,58 +27770,58 @@
         <v>44703.5</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>44</v>
       </c>
       <c r="K307">
-        <v>1.416</v>
+        <v>2.6</v>
       </c>
       <c r="L307">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M307">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="N307">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O307">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P307">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q307">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T307">
         <v>3</v>
       </c>
       <c r="U307">
+        <v>1.975</v>
+      </c>
+      <c r="V307">
         <v>1.875</v>
       </c>
-      <c r="V307">
-        <v>1.975</v>
-      </c>
       <c r="W307">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27830,10 +27830,10 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB307">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>5143629</v>
+        <v>5143630</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28037,73 +28037,73 @@
         <v>44759.375</v>
       </c>
       <c r="F310" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H310">
         <v>2</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K310">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="L310">
         <v>3.5</v>
       </c>
       <c r="M310">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N310">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O310">
         <v>3.6</v>
       </c>
       <c r="P310">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R310">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S310">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W310">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.95</v>
+        <v>0.53</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB310">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28114,7 +28114,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>5143630</v>
+        <v>5143629</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28126,73 +28126,73 @@
         <v>44759.375</v>
       </c>
       <c r="F311" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G311" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H311">
         <v>2</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K311">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="L311">
         <v>3.5</v>
       </c>
       <c r="M311">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N311">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="O311">
         <v>3.6</v>
       </c>
       <c r="P311">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q311">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S311">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U311">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V311">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X311">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
       <c r="AA311">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC311">
         <v>-1</v>
@@ -28559,7 +28559,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>5143633</v>
+        <v>5143634</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28571,73 +28571,73 @@
         <v>44766.375</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G316" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K316">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L316">
+        <v>3.5</v>
+      </c>
+      <c r="M316">
         <v>3.4</v>
       </c>
-      <c r="M316">
-        <v>2.7</v>
-      </c>
       <c r="N316">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O316">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P316">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q316">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="S316">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="T316">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U316">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W316">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.79</v>
+        <v>-0.5</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB316">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28648,7 +28648,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>5143634</v>
+        <v>5143633</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28660,73 +28660,73 @@
         <v>44766.375</v>
       </c>
       <c r="F317" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G317" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K317">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L317">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M317">
+        <v>2.7</v>
+      </c>
+      <c r="N317">
+        <v>2.875</v>
+      </c>
+      <c r="O317">
         <v>3.4</v>
       </c>
-      <c r="N317">
-        <v>2.15</v>
-      </c>
-      <c r="O317">
-        <v>3.8</v>
-      </c>
       <c r="P317">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R317">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S317">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="T317">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
+        <v>2.025</v>
+      </c>
+      <c r="V317">
+        <v>1.825</v>
+      </c>
+      <c r="W317">
         <v>1.875</v>
       </c>
-      <c r="V317">
-        <v>1.975</v>
-      </c>
-      <c r="W317">
-        <v>-1</v>
-      </c>
       <c r="X317">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AA317">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC317">
         <v>-1</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2594729</v>
+        <v>2594756</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,73 +2850,73 @@
         <v>44255.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
+        <v>2.5</v>
+      </c>
+      <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>2.8</v>
+      </c>
+      <c r="N27">
+        <v>2.8</v>
+      </c>
+      <c r="O27">
+        <v>3.3</v>
+      </c>
+      <c r="P27">
         <v>2.45</v>
       </c>
-      <c r="L27">
-        <v>3.4</v>
-      </c>
-      <c r="M27">
-        <v>2.75</v>
-      </c>
-      <c r="N27">
-        <v>2.9</v>
-      </c>
-      <c r="O27">
-        <v>3.4</v>
-      </c>
-      <c r="P27">
-        <v>2.25</v>
-      </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
         <v>1.85</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X27">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2594756</v>
+        <v>2594729</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,73 +2939,73 @@
         <v>44255.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2594734</v>
+        <v>2594732</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,76 +3295,76 @@
         <v>44258.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N32">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2594732</v>
+        <v>2594734</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,76 +3384,76 @@
         <v>44258.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N33">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
+        <v>1.925</v>
+      </c>
+      <c r="S33">
+        <v>1.925</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
         <v>1.95</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.9</v>
       </c>
-      <c r="T33">
-        <v>2.75</v>
-      </c>
-      <c r="U33">
-        <v>1.85</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2594745</v>
+        <v>2594749</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,46 +4897,46 @@
         <v>44276.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N50">
         <v>2.3</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q50">
         <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.25</v>
@@ -4951,16 +4951,16 @@
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
         <v>-0.5</v>
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2593898</v>
+        <v>2594746</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,58 +5075,58 @@
         <v>44276.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>3.4</v>
+        <v>1.625</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N52">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
+        <v>2.025</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
         <v>1.875</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>1.975</v>
       </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>2.025</v>
-      </c>
-      <c r="V52">
-        <v>1.825</v>
-      </c>
       <c r="W52">
-        <v>2.8</v>
+        <v>0.571</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5135,13 +5135,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
+        <v>0.825</v>
+      </c>
+      <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>0.875</v>
-      </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
-      <c r="AB52">
-        <v>1.025</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5241,7 +5241,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2594746</v>
+        <v>2594745</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5253,76 +5253,76 @@
         <v>44276.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
-        <v>1.625</v>
+        <v>2.2</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB54">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5330,7 +5330,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2594749</v>
+        <v>2593898</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5342,76 +5342,76 @@
         <v>44276.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L55">
         <v>3.5</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R55">
+        <v>1.875</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
         <v>2.025</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
-      <c r="U55">
-        <v>1.85</v>
-      </c>
-      <c r="V55">
-        <v>2</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6042,7 +6042,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3377622</v>
+        <v>3377624</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6054,55 +6054,55 @@
         <v>44297.375</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>3</v>
-      </c>
-      <c r="I63">
-        <v>4</v>
       </c>
       <c r="J63" t="s">
         <v>46</v>
       </c>
       <c r="K63">
+        <v>2.15</v>
+      </c>
+      <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
+        <v>3.25</v>
+      </c>
+      <c r="N63">
+        <v>2.1</v>
+      </c>
+      <c r="O63">
+        <v>3.4</v>
+      </c>
+      <c r="P63">
+        <v>3.5</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
         <v>1.85</v>
       </c>
-      <c r="L63">
-        <v>3.75</v>
-      </c>
-      <c r="M63">
-        <v>3.9</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
-      <c r="P63">
-        <v>3.4</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>2.05</v>
-      </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6111,16 +6111,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3377624</v>
+        <v>3377622</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,55 +6143,55 @@
         <v>44297.375</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
         <v>46</v>
       </c>
       <c r="K64">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L64">
+        <v>3.75</v>
+      </c>
+      <c r="M64">
+        <v>3.9</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>3.6</v>
+      </c>
+      <c r="P64">
         <v>3.4</v>
       </c>
-      <c r="M64">
-        <v>3.25</v>
-      </c>
-      <c r="N64">
-        <v>2.1</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>3.5</v>
-      </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6200,16 +6200,16 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>3377649</v>
+        <v>3377670</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,10 +9703,10 @@
         <v>44335.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9718,61 +9718,61 @@
         <v>44</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>3.25</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1.85</v>
+      </c>
+      <c r="W104">
+        <v>1.2</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
-      <c r="W104">
-        <v>0.75</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0.825</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>0.825</v>
-      </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9780,7 +9780,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3377670</v>
+        <v>3377649</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9792,10 +9792,10 @@
         <v>44335.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9807,43 +9807,43 @@
         <v>44</v>
       </c>
       <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>3.4</v>
+      </c>
+      <c r="M105">
+        <v>3.5</v>
+      </c>
+      <c r="N105">
+        <v>1.75</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>4.2</v>
+      </c>
+      <c r="Q105">
+        <v>-0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.825</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
         <v>2.5</v>
       </c>
-      <c r="L105">
-        <v>3.5</v>
-      </c>
-      <c r="M105">
-        <v>2.5</v>
-      </c>
-      <c r="N105">
-        <v>2.2</v>
-      </c>
-      <c r="O105">
-        <v>3.8</v>
-      </c>
-      <c r="P105">
-        <v>2.8</v>
-      </c>
-      <c r="Q105">
-        <v>-0.25</v>
-      </c>
-      <c r="R105">
-        <v>2</v>
-      </c>
-      <c r="S105">
-        <v>1.85</v>
-      </c>
-      <c r="T105">
-        <v>3.25</v>
-      </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9852,16 +9852,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3377651</v>
+        <v>3377650</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,10 +9970,10 @@
         <v>44336.54166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,40 +9985,40 @@
         <v>46</v>
       </c>
       <c r="K107">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="O107">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P107">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10027,19 +10027,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.55</v>
+        <v>0.909</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3377650</v>
+        <v>3377651</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,10 +10059,10 @@
         <v>44336.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10074,40 +10074,40 @@
         <v>46</v>
       </c>
       <c r="K108">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P108">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
         <v>1.95</v>
       </c>
-      <c r="S108">
-        <v>1.95</v>
-      </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10116,19 +10116,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.909</v>
+        <v>1.55</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3377675</v>
+        <v>3377674</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,58 +10593,58 @@
         <v>44340.5</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
       </c>
       <c r="K114">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
         <v>3.9</v>
       </c>
       <c r="M114">
-        <v>1.666</v>
+        <v>4.4</v>
       </c>
       <c r="N114">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O114">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P114">
-        <v>1.571</v>
+        <v>11</v>
       </c>
       <c r="Q114">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R114">
+        <v>1.975</v>
+      </c>
+      <c r="S114">
+        <v>1.875</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
         <v>1.825</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>2.025</v>
       </c>
-      <c r="T114">
-        <v>3.25</v>
-      </c>
-      <c r="U114">
-        <v>2</v>
-      </c>
-      <c r="V114">
-        <v>1.85</v>
-      </c>
       <c r="W114">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10653,16 +10653,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
         <v>0.825</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>-0.5</v>
-      </c>
       <c r="AC114">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>3377674</v>
+        <v>3377675</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,58 +10682,58 @@
         <v>44340.5</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="K115">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="L115">
         <v>3.9</v>
       </c>
       <c r="M115">
-        <v>4.4</v>
+        <v>1.666</v>
       </c>
       <c r="N115">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O115">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>11</v>
+        <v>1.571</v>
       </c>
       <c r="Q115">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10742,16 +10742,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -15565,7 +15565,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3613102</v>
+        <v>3613106</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15577,76 +15577,76 @@
         <v>44465.375</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L170">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N170">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15654,7 +15654,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3613106</v>
+        <v>3613102</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15666,76 +15666,76 @@
         <v>44465.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K171">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N171">
+        <v>1.6</v>
+      </c>
+      <c r="O171">
+        <v>4.2</v>
+      </c>
+      <c r="P171">
+        <v>5</v>
+      </c>
+      <c r="Q171">
+        <v>-0.75</v>
+      </c>
+      <c r="R171">
+        <v>1.8</v>
+      </c>
+      <c r="S171">
         <v>2.05</v>
       </c>
-      <c r="O171">
-        <v>3.6</v>
-      </c>
-      <c r="P171">
-        <v>3.4</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
-      <c r="R171">
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="S171">
-        <v>2.025</v>
-      </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>1.925</v>
-      </c>
-      <c r="V171">
-        <v>1.925</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X171">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
+        <v>0.4</v>
+      </c>
+      <c r="AA171">
         <v>-0.5</v>
       </c>
-      <c r="AA171">
-        <v>0.5125</v>
-      </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16188,7 +16188,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3613112</v>
+        <v>3613109</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16200,49 +16200,49 @@
         <v>44472.375</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>4</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>44</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>1.714</v>
       </c>
       <c r="L177">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M177">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O177">
         <v>4</v>
       </c>
       <c r="P177">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q177">
         <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
         <v>1.875</v>
@@ -16251,7 +16251,7 @@
         <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16260,7 +16260,7 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -16277,7 +16277,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3613109</v>
+        <v>3613112</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16289,49 +16289,49 @@
         <v>44472.375</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>4</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>44</v>
       </c>
       <c r="K178">
-        <v>1.714</v>
+        <v>2.25</v>
       </c>
       <c r="L178">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M178">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O178">
         <v>4</v>
       </c>
       <c r="P178">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q178">
         <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
         <v>1.875</v>
@@ -16340,7 +16340,7 @@
         <v>1.975</v>
       </c>
       <c r="W178">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16349,7 +16349,7 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA178">
         <v>-1</v>
@@ -17256,7 +17256,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3613119</v>
+        <v>3613124</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17268,76 +17268,76 @@
         <v>44493.375</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K189">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.9</v>
+      </c>
+      <c r="N189">
+        <v>2.1</v>
+      </c>
+      <c r="O189">
         <v>3.6</v>
       </c>
-      <c r="M189">
-        <v>2.05</v>
-      </c>
-      <c r="N189">
+      <c r="P189">
         <v>3.25</v>
       </c>
-      <c r="O189">
-        <v>3.5</v>
-      </c>
-      <c r="P189">
-        <v>2.1</v>
-      </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17345,7 +17345,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3613124</v>
+        <v>3613119</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17357,76 +17357,76 @@
         <v>44493.375</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K190">
+        <v>3.2</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2.05</v>
+      </c>
+      <c r="N190">
+        <v>3.25</v>
+      </c>
+      <c r="O190">
+        <v>3.5</v>
+      </c>
+      <c r="P190">
+        <v>2.1</v>
+      </c>
+      <c r="Q190">
+        <v>0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.875</v>
+      </c>
+      <c r="S190">
+        <v>1.975</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.975</v>
+      </c>
+      <c r="V190">
+        <v>1.875</v>
+      </c>
+      <c r="W190">
         <v>2.25</v>
       </c>
-      <c r="L190">
-        <v>3.5</v>
-      </c>
-      <c r="M190">
-        <v>2.9</v>
-      </c>
-      <c r="N190">
-        <v>2.1</v>
-      </c>
-      <c r="O190">
-        <v>3.6</v>
-      </c>
-      <c r="P190">
-        <v>3.25</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
-        <v>1.9</v>
-      </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
-      <c r="T190">
-        <v>3</v>
-      </c>
-      <c r="U190">
-        <v>1.95</v>
-      </c>
-      <c r="V190">
-        <v>1.9</v>
-      </c>
-      <c r="W190">
-        <v>-1</v>
-      </c>
       <c r="X190">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3613140</v>
+        <v>3613141</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,76 +18870,76 @@
         <v>44521.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K207">
+        <v>1.55</v>
+      </c>
+      <c r="L207">
+        <v>4</v>
+      </c>
+      <c r="M207">
+        <v>5.5</v>
+      </c>
+      <c r="N207">
+        <v>1.533</v>
+      </c>
+      <c r="O207">
+        <v>4.2</v>
+      </c>
+      <c r="P207">
+        <v>6.5</v>
+      </c>
+      <c r="Q207">
+        <v>-1</v>
+      </c>
+      <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
+        <v>1.875</v>
+      </c>
+      <c r="T207">
         <v>2.75</v>
       </c>
-      <c r="L207">
-        <v>3.6</v>
-      </c>
-      <c r="M207">
-        <v>2.35</v>
-      </c>
-      <c r="N207">
-        <v>2.9</v>
-      </c>
-      <c r="O207">
-        <v>3.8</v>
-      </c>
-      <c r="P207">
-        <v>2.25</v>
-      </c>
-      <c r="Q207">
-        <v>0.25</v>
-      </c>
-      <c r="R207">
-        <v>1.875</v>
-      </c>
-      <c r="S207">
-        <v>1.975</v>
-      </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X207">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC207">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18947,7 +18947,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3613141</v>
+        <v>3613140</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18959,76 +18959,76 @@
         <v>44521.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K208">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="N208">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P208">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
         <v>1.975</v>
       </c>
-      <c r="S208">
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>1.975</v>
+      </c>
+      <c r="V208">
         <v>1.875</v>
       </c>
-      <c r="T208">
-        <v>2.75</v>
-      </c>
-      <c r="U208">
-        <v>2</v>
-      </c>
-      <c r="V208">
-        <v>1.85</v>
-      </c>
       <c r="W208">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19392,7 +19392,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>3613146</v>
+        <v>3613148</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19404,49 +19404,49 @@
         <v>44528.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K213">
+        <v>1.65</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>5</v>
+      </c>
+      <c r="N213">
         <v>1.7</v>
       </c>
-      <c r="L213">
-        <v>4.1</v>
-      </c>
-      <c r="M213">
-        <v>4.333</v>
-      </c>
-      <c r="N213">
-        <v>1.95</v>
-      </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
         <v>1.9</v>
@@ -19455,19 +19455,19 @@
         <v>1.95</v>
       </c>
       <c r="W213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB213">
         <v>-1</v>
@@ -19481,7 +19481,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3613148</v>
+        <v>3613146</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19493,49 +19493,49 @@
         <v>44528.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K214">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M214">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N214">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U214">
         <v>1.9</v>
@@ -19544,19 +19544,19 @@
         <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X214">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA214">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19926,7 +19926,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>3613149</v>
+        <v>3613154</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19938,49 +19938,49 @@
         <v>44612.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H219">
+        <v>3</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
       <c r="J219" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K219">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L219">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M219">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N219">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O219">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P219">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R219">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U219">
         <v>2</v>
@@ -19989,25 +19989,25 @@
         <v>1.85</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20015,7 +20015,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3613154</v>
+        <v>3613149</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20027,49 +20027,49 @@
         <v>44612.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K220">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N220">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O220">
+        <v>3.6</v>
+      </c>
+      <c r="P220">
         <v>5.5</v>
       </c>
-      <c r="P220">
-        <v>7</v>
-      </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S220">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
         <v>2</v>
@@ -20078,25 +20078,25 @@
         <v>1.85</v>
       </c>
       <c r="W220">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20460,7 +20460,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>3613158</v>
+        <v>3613156</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20472,37 +20472,37 @@
         <v>44619.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K225">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L225">
         <v>3.5</v>
       </c>
       <c r="M225">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N225">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O225">
         <v>3.5</v>
       </c>
       <c r="P225">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q225">
         <v>0</v>
@@ -20514,34 +20514,34 @@
         <v>1.96</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>0.96</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20549,7 +20549,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>3613156</v>
+        <v>3613158</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20561,37 +20561,37 @@
         <v>44619.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K226">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="L226">
         <v>3.5</v>
       </c>
       <c r="M226">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N226">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O226">
         <v>3.5</v>
       </c>
       <c r="P226">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -20603,34 +20603,34 @@
         <v>1.96</v>
       </c>
       <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>1.925</v>
+      </c>
+      <c r="V226">
+        <v>1.925</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
         <v>2.5</v>
       </c>
-      <c r="U226">
-        <v>1.85</v>
-      </c>
-      <c r="V226">
-        <v>2</v>
-      </c>
-      <c r="W226">
-        <v>-1</v>
-      </c>
-      <c r="X226">
-        <v>-1</v>
-      </c>
       <c r="Y226">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA226">
-        <v>0.96</v>
+        <v>-0</v>
       </c>
       <c r="AB226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21973,7 +21973,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>3613177</v>
+        <v>3613174</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21985,76 +21985,76 @@
         <v>44640.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K242">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M242">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N242">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P242">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R242">
-        <v>1.89</v>
+        <v>1.825</v>
       </c>
       <c r="S242">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U242">
+        <v>1.9</v>
+      </c>
+      <c r="V242">
         <v>1.95</v>
       </c>
-      <c r="V242">
-        <v>1.9</v>
-      </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X242">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.445</v>
+        <v>-0.5</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB242">
         <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22062,7 +22062,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>3613176</v>
+        <v>3613175</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22074,13 +22074,13 @@
         <v>44640.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -22089,43 +22089,43 @@
         <v>44</v>
       </c>
       <c r="K243">
+        <v>2.2</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
         <v>3.2</v>
       </c>
-      <c r="L243">
-        <v>3.5</v>
-      </c>
-      <c r="M243">
-        <v>2.15</v>
-      </c>
       <c r="N243">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O243">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P243">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q243">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>1.85</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
         <v>1.925</v>
       </c>
-      <c r="S243">
+      <c r="V243">
         <v>1.925</v>
       </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>2.025</v>
-      </c>
-      <c r="V243">
-        <v>1.825</v>
-      </c>
       <c r="W243">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22134,16 +22134,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
+        <v>1</v>
+      </c>
+      <c r="AA243">
+        <v>-1</v>
+      </c>
+      <c r="AB243">
         <v>0.925</v>
       </c>
-      <c r="AA243">
-        <v>-1</v>
-      </c>
-      <c r="AB243">
-        <v>-1</v>
-      </c>
       <c r="AC243">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22151,7 +22151,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>3613175</v>
+        <v>3613176</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22163,13 +22163,13 @@
         <v>44640.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G244" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -22178,43 +22178,43 @@
         <v>44</v>
       </c>
       <c r="K244">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M244">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="N244">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O244">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P244">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R244">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S244">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W244">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22223,16 +22223,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22240,7 +22240,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>3613178</v>
+        <v>3613177</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22252,76 +22252,76 @@
         <v>44640.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K245">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L245">
+        <v>3.5</v>
+      </c>
+      <c r="M245">
+        <v>2.15</v>
+      </c>
+      <c r="N245">
+        <v>3.1</v>
+      </c>
+      <c r="O245">
         <v>3.4</v>
       </c>
-      <c r="M245">
-        <v>2.375</v>
-      </c>
-      <c r="N245">
-        <v>2.625</v>
-      </c>
-      <c r="O245">
-        <v>3.5</v>
-      </c>
       <c r="P245">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R245">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="S245">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y245">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AA245">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22329,7 +22329,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>3613174</v>
+        <v>3613173</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22341,76 +22341,76 @@
         <v>44640.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246" t="s">
+        <v>45</v>
+      </c>
+      <c r="K246">
+        <v>2.2</v>
+      </c>
+      <c r="L246">
+        <v>3.4</v>
+      </c>
+      <c r="M246">
+        <v>3.2</v>
+      </c>
+      <c r="N246">
+        <v>2.625</v>
+      </c>
+      <c r="O246">
+        <v>3.1</v>
+      </c>
+      <c r="P246">
+        <v>2.75</v>
+      </c>
+      <c r="Q246">
         <v>0</v>
       </c>
-      <c r="J246" t="s">
-        <v>44</v>
-      </c>
-      <c r="K246">
-        <v>1.533</v>
-      </c>
-      <c r="L246">
-        <v>4.2</v>
-      </c>
-      <c r="M246">
-        <v>5.5</v>
-      </c>
-      <c r="N246">
-        <v>1.4</v>
-      </c>
-      <c r="O246">
-        <v>4.75</v>
-      </c>
-      <c r="P246">
-        <v>7.5</v>
-      </c>
-      <c r="Q246">
-        <v>-1.25</v>
-      </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
       </c>
       <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>-0</v>
+      </c>
+      <c r="AB246">
         <v>-0.5</v>
       </c>
-      <c r="AA246">
-        <v>0.5125</v>
-      </c>
-      <c r="AB246">
-        <v>-1</v>
-      </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22418,7 +22418,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>3613173</v>
+        <v>3613178</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22430,76 +22430,76 @@
         <v>44640.4375</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K247">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L247">
         <v>3.4</v>
       </c>
       <c r="M247">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N247">
         <v>2.625</v>
       </c>
       <c r="O247">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P247">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q247">
         <v>0</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V247">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22596,7 +22596,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>4810261</v>
+        <v>4810262</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22608,76 +22608,76 @@
         <v>44654.375</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K249">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M249">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N249">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O249">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P249">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
+        <v>1.93</v>
+      </c>
+      <c r="S249">
+        <v>1.97</v>
+      </c>
+      <c r="T249">
+        <v>2.75</v>
+      </c>
+      <c r="U249">
         <v>1.975</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.875</v>
       </c>
-      <c r="T249">
-        <v>2.25</v>
-      </c>
-      <c r="U249">
-        <v>2.1</v>
-      </c>
-      <c r="V249">
-        <v>1.775</v>
-      </c>
       <c r="W249">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X249">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA249">
+        <v>-1</v>
+      </c>
+      <c r="AB249">
+        <v>0.4875</v>
+      </c>
+      <c r="AC249">
         <v>-0.5</v>
-      </c>
-      <c r="AA249">
-        <v>0.4375</v>
-      </c>
-      <c r="AB249">
-        <v>-1</v>
-      </c>
-      <c r="AC249">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22685,7 +22685,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>4810262</v>
+        <v>4810261</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22697,76 +22697,76 @@
         <v>44654.375</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K250">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L250">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N250">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O250">
+        <v>3.1</v>
+      </c>
+      <c r="P250">
         <v>3.4</v>
-      </c>
-      <c r="P250">
-        <v>3.3</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.97</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V250">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W250">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB250">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -24198,7 +24198,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>4811311</v>
+        <v>4811310</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24210,76 +24210,76 @@
         <v>44669.375</v>
       </c>
       <c r="F267" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K267">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="L267">
         <v>3.5</v>
       </c>
       <c r="M267">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N267">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O267">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P267">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q267">
         <v>0</v>
       </c>
       <c r="R267">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S267">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T267">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X267">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA267">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC267">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24287,7 +24287,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>4811310</v>
+        <v>4811311</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24299,76 +24299,76 @@
         <v>44669.375</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K268">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="L268">
         <v>3.5</v>
       </c>
       <c r="M268">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N268">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O268">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P268">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q268">
         <v>0</v>
       </c>
       <c r="R268">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S268">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T268">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V268">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB268">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24732,7 +24732,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>4811313</v>
+        <v>4811393</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24744,76 +24744,76 @@
         <v>44675.375</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G273" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K273">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L273">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M273">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N273">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O273">
         <v>3.4</v>
       </c>
       <c r="P273">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q273">
         <v>0</v>
       </c>
       <c r="R273">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S273">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T273">
         <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V273">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W273">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z273">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC273">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24821,7 +24821,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>4811393</v>
+        <v>4811313</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24833,76 +24833,76 @@
         <v>44675.375</v>
       </c>
       <c r="F274" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G274" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K274">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L274">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M274">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N274">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O274">
         <v>3.4</v>
       </c>
       <c r="P274">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q274">
         <v>0</v>
       </c>
       <c r="R274">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S274">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T274">
         <v>2.75</v>
       </c>
       <c r="U274">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V274">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA274">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -26245,7 +26245,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>4811773</v>
+        <v>4811321</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26257,46 +26257,46 @@
         <v>44692.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
         <v>45</v>
       </c>
       <c r="K290">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L290">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M290">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="N290">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O290">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P290">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R290">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S290">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T290">
         <v>2.75</v>
@@ -26311,22 +26311,22 @@
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
+        <v>0.4375</v>
+      </c>
+      <c r="AA290">
         <v>-0.5</v>
       </c>
-      <c r="AA290">
-        <v>0.4</v>
-      </c>
       <c r="AB290">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26334,7 +26334,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>4811321</v>
+        <v>4811773</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26346,46 +26346,46 @@
         <v>44692.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G291" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J291" t="s">
         <v>45</v>
       </c>
       <c r="K291">
+        <v>2.45</v>
+      </c>
+      <c r="L291">
+        <v>3.4</v>
+      </c>
+      <c r="M291">
         <v>2.8</v>
       </c>
-      <c r="L291">
-        <v>3.5</v>
-      </c>
-      <c r="M291">
-        <v>2.35</v>
-      </c>
       <c r="N291">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O291">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P291">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q291">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S291">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T291">
         <v>2.75</v>
@@ -26400,22 +26400,22 @@
         <v>-1</v>
       </c>
       <c r="X291">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA291">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC291">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26779,7 +26779,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>4811324</v>
+        <v>4811325</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26791,46 +26791,46 @@
         <v>44696.375</v>
       </c>
       <c r="F296" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G296" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296">
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K296">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L296">
         <v>4</v>
       </c>
       <c r="M296">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N296">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="O296">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P296">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q296">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R296">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="S296">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="T296">
         <v>2.75</v>
@@ -26842,25 +26842,25 @@
         <v>2.025</v>
       </c>
       <c r="W296">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB296">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26868,7 +26868,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>4811325</v>
+        <v>4811324</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26880,46 +26880,46 @@
         <v>44696.375</v>
       </c>
       <c r="F297" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297">
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K297">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L297">
         <v>4</v>
       </c>
       <c r="M297">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N297">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="O297">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P297">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R297">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="S297">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="T297">
         <v>2.75</v>
@@ -26931,25 +26931,25 @@
         <v>2.025</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X297">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA297">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC297">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27313,7 +27313,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>4811327</v>
+        <v>4811329</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27325,76 +27325,76 @@
         <v>44702.5</v>
       </c>
       <c r="F302" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G302" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
         <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K302">
+        <v>3.25</v>
+      </c>
+      <c r="L302">
+        <v>3.6</v>
+      </c>
+      <c r="M302">
+        <v>2.15</v>
+      </c>
+      <c r="N302">
+        <v>3.6</v>
+      </c>
+      <c r="O302">
+        <v>3.6</v>
+      </c>
+      <c r="P302">
+        <v>2</v>
+      </c>
+      <c r="Q302">
+        <v>0.5</v>
+      </c>
+      <c r="R302">
+        <v>1.825</v>
+      </c>
+      <c r="S302">
+        <v>2.025</v>
+      </c>
+      <c r="T302">
         <v>2.5</v>
       </c>
-      <c r="L302">
-        <v>3.75</v>
-      </c>
-      <c r="M302">
-        <v>2.5</v>
-      </c>
-      <c r="N302">
-        <v>2.8</v>
-      </c>
-      <c r="O302">
-        <v>3.8</v>
-      </c>
-      <c r="P302">
-        <v>2.375</v>
-      </c>
-      <c r="Q302">
-        <v>0</v>
-      </c>
-      <c r="R302">
-        <v>2.17</v>
-      </c>
-      <c r="S302">
-        <v>1.75</v>
-      </c>
-      <c r="T302">
-        <v>3</v>
-      </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB302">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27491,7 +27491,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>4811329</v>
+        <v>4811327</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27503,76 +27503,76 @@
         <v>44702.5</v>
       </c>
       <c r="F304" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G304" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H304">
+        <v>2</v>
+      </c>
+      <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304" t="s">
+        <v>45</v>
+      </c>
+      <c r="K304">
+        <v>2.5</v>
+      </c>
+      <c r="L304">
+        <v>3.75</v>
+      </c>
+      <c r="M304">
+        <v>2.5</v>
+      </c>
+      <c r="N304">
+        <v>2.8</v>
+      </c>
+      <c r="O304">
+        <v>3.8</v>
+      </c>
+      <c r="P304">
+        <v>2.375</v>
+      </c>
+      <c r="Q304">
         <v>0</v>
       </c>
-      <c r="I304">
-        <v>2</v>
-      </c>
-      <c r="J304" t="s">
-        <v>46</v>
-      </c>
-      <c r="K304">
-        <v>3.25</v>
-      </c>
-      <c r="L304">
-        <v>3.6</v>
-      </c>
-      <c r="M304">
-        <v>2.15</v>
-      </c>
-      <c r="N304">
-        <v>3.6</v>
-      </c>
-      <c r="O304">
-        <v>3.6</v>
-      </c>
-      <c r="P304">
-        <v>2</v>
-      </c>
-      <c r="Q304">
-        <v>0.5</v>
-      </c>
       <c r="R304">
-        <v>1.825</v>
+        <v>2.17</v>
       </c>
       <c r="S304">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U304">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y304">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA304">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4811775</v>
+        <v>4811403</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27681,58 +27681,58 @@
         <v>44703.5</v>
       </c>
       <c r="F306" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G306" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
         <v>44</v>
       </c>
       <c r="K306">
-        <v>1.416</v>
+        <v>2.6</v>
       </c>
       <c r="L306">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M306">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="N306">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O306">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P306">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q306">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R306">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S306">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T306">
         <v>3</v>
       </c>
       <c r="U306">
+        <v>1.975</v>
+      </c>
+      <c r="V306">
         <v>1.875</v>
       </c>
-      <c r="V306">
-        <v>1.975</v>
-      </c>
       <c r="W306">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27741,10 +27741,10 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB306">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4811403</v>
+        <v>4811775</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27770,58 +27770,58 @@
         <v>44703.5</v>
       </c>
       <c r="F307" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>44</v>
       </c>
       <c r="K307">
-        <v>2.6</v>
+        <v>1.416</v>
       </c>
       <c r="L307">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M307">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N307">
+        <v>1.444</v>
+      </c>
+      <c r="O307">
+        <v>5</v>
+      </c>
+      <c r="P307">
+        <v>6.5</v>
+      </c>
+      <c r="Q307">
+        <v>-1.5</v>
+      </c>
+      <c r="R307">
+        <v>2</v>
+      </c>
+      <c r="S307">
         <v>1.8</v>
-      </c>
-      <c r="O307">
-        <v>4</v>
-      </c>
-      <c r="P307">
-        <v>4.2</v>
-      </c>
-      <c r="Q307">
-        <v>-0.75</v>
-      </c>
-      <c r="R307">
-        <v>2.025</v>
-      </c>
-      <c r="S307">
-        <v>1.825</v>
       </c>
       <c r="T307">
         <v>3</v>
       </c>
       <c r="U307">
+        <v>1.875</v>
+      </c>
+      <c r="V307">
         <v>1.975</v>
       </c>
-      <c r="V307">
-        <v>1.875</v>
-      </c>
       <c r="W307">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27830,10 +27830,10 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA307">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>5143630</v>
+        <v>5143629</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28037,73 +28037,73 @@
         <v>44759.375</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G310" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H310">
         <v>2</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K310">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="L310">
         <v>3.5</v>
       </c>
       <c r="M310">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N310">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="O310">
         <v>3.6</v>
       </c>
       <c r="P310">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S310">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U310">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V310">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X310">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
       <c r="AA310">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28114,7 +28114,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>5143629</v>
+        <v>5143630</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28126,73 +28126,73 @@
         <v>44759.375</v>
       </c>
       <c r="F311" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G311" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H311">
         <v>2</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K311">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="L311">
         <v>3.5</v>
       </c>
       <c r="M311">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N311">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O311">
         <v>3.6</v>
       </c>
       <c r="P311">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R311">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S311">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T311">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V311">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W311">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.95</v>
+        <v>0.53</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB311">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC311">
         <v>-1</v>
@@ -29093,7 +29093,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>5143637</v>
+        <v>5143636</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29105,10 +29105,10 @@
         <v>44773.375</v>
       </c>
       <c r="F322" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G322" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -29120,46 +29120,46 @@
         <v>45</v>
       </c>
       <c r="K322">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="L322">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M322">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N322">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O322">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P322">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q322">
         <v>-0.25</v>
       </c>
       <c r="R322">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S322">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T322">
+        <v>2.75</v>
+      </c>
+      <c r="U322">
+        <v>1.975</v>
+      </c>
+      <c r="V322">
+        <v>1.875</v>
+      </c>
+      <c r="W322">
+        <v>-1</v>
+      </c>
+      <c r="X322">
         <v>2.5</v>
-      </c>
-      <c r="U322">
-        <v>1.875</v>
-      </c>
-      <c r="V322">
-        <v>1.975</v>
-      </c>
-      <c r="W322">
-        <v>-1</v>
-      </c>
-      <c r="X322">
-        <v>2.4</v>
       </c>
       <c r="Y322">
         <v>-1</v>
@@ -29168,13 +29168,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA322">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29182,7 +29182,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>5143636</v>
+        <v>5143637</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29194,10 +29194,10 @@
         <v>44773.375</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G323" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -29209,46 +29209,46 @@
         <v>45</v>
       </c>
       <c r="K323">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="L323">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M323">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N323">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O323">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P323">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q323">
         <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S323">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T323">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U323">
+        <v>1.875</v>
+      </c>
+      <c r="V323">
         <v>1.975</v>
       </c>
-      <c r="V323">
-        <v>1.875</v>
-      </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y323">
         <v>-1</v>
@@ -29257,13 +29257,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA323">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -31763,7 +31763,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5143714</v>
+        <v>5143657</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31775,13 +31775,13 @@
         <v>44808.375</v>
       </c>
       <c r="F352" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G352" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -31790,40 +31790,40 @@
         <v>46</v>
       </c>
       <c r="K352">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L352">
         <v>3.5</v>
       </c>
       <c r="M352">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N352">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O352">
         <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S352">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U352">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -31832,19 +31832,19 @@
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.9750000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC352">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31852,7 +31852,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>5143657</v>
+        <v>5143714</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31864,13 +31864,13 @@
         <v>44808.375</v>
       </c>
       <c r="F353" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G353" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353">
         <v>2</v>
@@ -31879,40 +31879,40 @@
         <v>46</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L353">
         <v>3.5</v>
       </c>
       <c r="M353">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N353">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O353">
         <v>3.5</v>
       </c>
       <c r="P353">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q353">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R353">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T353">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U353">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V353">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31921,19 +31921,19 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>1.04</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32297,7 +32297,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>5143660</v>
+        <v>5143659</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32309,10 +32309,10 @@
         <v>44815.375</v>
       </c>
       <c r="F358" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G358" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H358">
         <v>1</v>
@@ -32324,61 +32324,61 @@
         <v>45</v>
       </c>
       <c r="K358">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="L358">
         <v>3.6</v>
       </c>
       <c r="M358">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N358">
+        <v>1.909</v>
+      </c>
+      <c r="O358">
+        <v>3.75</v>
+      </c>
+      <c r="P358">
+        <v>3.6</v>
+      </c>
+      <c r="Q358">
+        <v>-0.5</v>
+      </c>
+      <c r="R358">
+        <v>1.9</v>
+      </c>
+      <c r="S358">
+        <v>1.95</v>
+      </c>
+      <c r="T358">
         <v>2.75</v>
       </c>
-      <c r="O358">
-        <v>3.6</v>
-      </c>
-      <c r="P358">
-        <v>2.45</v>
-      </c>
-      <c r="Q358">
-        <v>0</v>
-      </c>
-      <c r="R358">
-        <v>2.05</v>
-      </c>
-      <c r="S358">
-        <v>1.85</v>
-      </c>
-      <c r="T358">
-        <v>3</v>
-      </c>
       <c r="U358">
+        <v>1.825</v>
+      </c>
+      <c r="V358">
         <v>2.025</v>
       </c>
-      <c r="V358">
-        <v>1.825</v>
-      </c>
       <c r="W358">
         <v>-1</v>
       </c>
       <c r="X358">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y358">
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB358">
         <v>-1</v>
       </c>
       <c r="AC358">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32386,7 +32386,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>5143659</v>
+        <v>5143660</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32398,10 +32398,10 @@
         <v>44815.375</v>
       </c>
       <c r="F359" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G359" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H359">
         <v>1</v>
@@ -32413,61 +32413,61 @@
         <v>45</v>
       </c>
       <c r="K359">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="L359">
         <v>3.6</v>
       </c>
       <c r="M359">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N359">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O359">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P359">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q359">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R359">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S359">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T359">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U359">
+        <v>2.025</v>
+      </c>
+      <c r="V359">
         <v>1.825</v>
       </c>
-      <c r="V359">
-        <v>2.025</v>
-      </c>
       <c r="W359">
         <v>-1</v>
       </c>
       <c r="X359">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y359">
         <v>-1</v>
       </c>
       <c r="Z359">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA359">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB359">
         <v>-1</v>
       </c>
       <c r="AC359">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32920,7 +32920,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>5143664</v>
+        <v>5143663</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32932,76 +32932,76 @@
         <v>44822.375</v>
       </c>
       <c r="F365" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G365" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H365">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365">
         <v>2</v>
       </c>
       <c r="J365" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K365">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L365">
         <v>3.4</v>
       </c>
       <c r="M365">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N365">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O365">
         <v>3.5</v>
       </c>
       <c r="P365">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q365">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R365">
+        <v>1.975</v>
+      </c>
+      <c r="S365">
         <v>1.875</v>
-      </c>
-      <c r="S365">
-        <v>1.975</v>
       </c>
       <c r="T365">
         <v>2.75</v>
       </c>
       <c r="U365">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V365">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W365">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X365">
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z365">
+        <v>-1</v>
+      </c>
+      <c r="AA365">
         <v>0.875</v>
       </c>
-      <c r="AA365">
-        <v>-1</v>
-      </c>
       <c r="AB365">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC365">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33009,7 +33009,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>5143663</v>
+        <v>5143664</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33021,76 +33021,76 @@
         <v>44822.375</v>
       </c>
       <c r="F366" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G366" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I366">
         <v>2</v>
       </c>
       <c r="J366" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K366">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L366">
         <v>3.4</v>
       </c>
       <c r="M366">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N366">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O366">
         <v>3.5</v>
       </c>
       <c r="P366">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q366">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R366">
+        <v>1.875</v>
+      </c>
+      <c r="S366">
         <v>1.975</v>
-      </c>
-      <c r="S366">
-        <v>1.875</v>
       </c>
       <c r="T366">
         <v>2.75</v>
       </c>
       <c r="U366">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V366">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W366">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA366">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC366">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -36035,7 +36035,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>5143689</v>
+        <v>5143691</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36047,76 +36047,76 @@
         <v>44871.41666666666</v>
       </c>
       <c r="F400" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G400" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H400">
         <v>1</v>
       </c>
       <c r="I400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J400" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K400">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="L400">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M400">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N400">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O400">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P400">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q400">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R400">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S400">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T400">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U400">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V400">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W400">
         <v>-1</v>
       </c>
       <c r="X400">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y400">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z400">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA400">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB400">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC400">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36124,7 +36124,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>5143691</v>
+        <v>5143689</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36136,76 +36136,76 @@
         <v>44871.41666666666</v>
       </c>
       <c r="F401" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G401" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H401">
         <v>1</v>
       </c>
       <c r="I401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J401" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K401">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="L401">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M401">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N401">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O401">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P401">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q401">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R401">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S401">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T401">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U401">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V401">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W401">
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z401">
+        <v>-1</v>
+      </c>
+      <c r="AA401">
+        <v>0.825</v>
+      </c>
+      <c r="AB401">
+        <v>0.5</v>
+      </c>
+      <c r="AC401">
         <v>-0.5</v>
-      </c>
-      <c r="AA401">
-        <v>0.4375</v>
-      </c>
-      <c r="AB401">
-        <v>-0.5</v>
-      </c>
-      <c r="AC401">
-        <v>0.475</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36569,7 +36569,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>5143618</v>
+        <v>5143692</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36581,34 +36581,34 @@
         <v>44878.41666666666</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G406" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I406">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J406" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K406">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L406">
         <v>3.4</v>
       </c>
       <c r="M406">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N406">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O406">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P406">
         <v>2.25</v>
@@ -36617,40 +36617,40 @@
         <v>0.25</v>
       </c>
       <c r="R406">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S406">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T406">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U406">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V406">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y406">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA406">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB406">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC406">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36658,7 +36658,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>5143692</v>
+        <v>5143618</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36670,34 +36670,34 @@
         <v>44878.41666666666</v>
       </c>
       <c r="F407" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G407" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H407">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K407">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L407">
         <v>3.4</v>
       </c>
       <c r="M407">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N407">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O407">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P407">
         <v>2.25</v>
@@ -36706,40 +36706,40 @@
         <v>0.25</v>
       </c>
       <c r="R407">
+        <v>1.875</v>
+      </c>
+      <c r="S407">
+        <v>1.975</v>
+      </c>
+      <c r="T407">
+        <v>2.25</v>
+      </c>
+      <c r="U407">
         <v>1.925</v>
       </c>
-      <c r="S407">
+      <c r="V407">
         <v>1.925</v>
       </c>
-      <c r="T407">
-        <v>2.5</v>
-      </c>
-      <c r="U407">
-        <v>1.9</v>
-      </c>
-      <c r="V407">
-        <v>1.95</v>
-      </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z407">
+        <v>-1</v>
+      </c>
+      <c r="AA407">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB407">
+        <v>-0.5</v>
+      </c>
+      <c r="AC407">
         <v>0.4625</v>
-      </c>
-      <c r="AA407">
-        <v>-0.5</v>
-      </c>
-      <c r="AB407">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC407">
-        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -39150,7 +39150,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>5143627</v>
+        <v>5143712</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39162,76 +39162,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F435" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G435" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435">
         <v>1</v>
       </c>
       <c r="J435" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K435">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L435">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M435">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N435">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O435">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P435">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q435">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R435">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S435">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T435">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U435">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V435">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W435">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X435">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y435">
         <v>-1</v>
       </c>
       <c r="Z435">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA435">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB435">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC435">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="436" spans="1:29">
@@ -39328,7 +39328,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>5143628</v>
+        <v>5143710</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39340,76 +39340,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F437" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G437" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437">
         <v>1</v>
       </c>
       <c r="J437" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K437">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L437">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M437">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N437">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O437">
         <v>3.5</v>
       </c>
       <c r="P437">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q437">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R437">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S437">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T437">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U437">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V437">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W437">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X437">
         <v>-1</v>
       </c>
       <c r="Y437">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z437">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA437">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB437">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC437">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39417,7 +39417,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>5143710</v>
+        <v>5143709</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39429,76 +39429,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G438" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H438">
+        <v>1</v>
+      </c>
+      <c r="I438">
         <v>0</v>
       </c>
-      <c r="I438">
-        <v>1</v>
-      </c>
       <c r="J438" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K438">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L438">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M438">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N438">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O438">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P438">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q438">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R438">
+        <v>2.05</v>
+      </c>
+      <c r="S438">
         <v>1.8</v>
-      </c>
-      <c r="S438">
-        <v>2.05</v>
       </c>
       <c r="T438">
         <v>2.5</v>
       </c>
       <c r="U438">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V438">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W438">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z438">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA438">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB438">
         <v>-1</v>
       </c>
       <c r="AC438">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39506,7 +39506,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>5143712</v>
+        <v>5143628</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39518,76 +39518,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F439" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G439" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439">
         <v>1</v>
       </c>
       <c r="J439" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K439">
         <v>2.2</v>
       </c>
       <c r="L439">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M439">
+        <v>3.1</v>
+      </c>
+      <c r="N439">
+        <v>2.15</v>
+      </c>
+      <c r="O439">
+        <v>3.5</v>
+      </c>
+      <c r="P439">
         <v>3.2</v>
-      </c>
-      <c r="N439">
-        <v>2.1</v>
-      </c>
-      <c r="O439">
-        <v>3.4</v>
-      </c>
-      <c r="P439">
-        <v>3.75</v>
       </c>
       <c r="Q439">
         <v>-0.25</v>
       </c>
       <c r="R439">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S439">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T439">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U439">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V439">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W439">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X439">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y439">
         <v>-1</v>
       </c>
       <c r="Z439">
+        <v>0.875</v>
+      </c>
+      <c r="AA439">
+        <v>-1</v>
+      </c>
+      <c r="AB439">
+        <v>0.4875</v>
+      </c>
+      <c r="AC439">
         <v>-0.5</v>
-      </c>
-      <c r="AA439">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB439">
-        <v>-0.5</v>
-      </c>
-      <c r="AC439">
-        <v>0.5</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39595,7 +39595,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>5143709</v>
+        <v>5143627</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39607,58 +39607,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G440" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H440">
+        <v>2</v>
+      </c>
+      <c r="I440">
         <v>1</v>
-      </c>
-      <c r="I440">
-        <v>0</v>
       </c>
       <c r="J440" t="s">
         <v>44</v>
       </c>
       <c r="K440">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L440">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M440">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N440">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O440">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P440">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q440">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R440">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S440">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T440">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U440">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V440">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W440">
-        <v>0.833</v>
+        <v>0.333</v>
       </c>
       <c r="X440">
         <v>-1</v>
@@ -39667,16 +39667,16 @@
         <v>-1</v>
       </c>
       <c r="Z440">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA440">
+        <v>0.825</v>
+      </c>
+      <c r="AB440">
+        <v>0.4875</v>
+      </c>
+      <c r="AC440">
         <v>-0.5</v>
-      </c>
-      <c r="AB440">
-        <v>-1</v>
-      </c>
-      <c r="AC440">
-        <v>0.95</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -39773,7 +39773,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>6433595</v>
+        <v>6433596</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39785,76 +39785,76 @@
         <v>45018.375</v>
       </c>
       <c r="F442" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G442" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J442" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K442">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L442">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M442">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N442">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O442">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P442">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q442">
         <v>0</v>
       </c>
       <c r="R442">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S442">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T442">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U442">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V442">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W442">
         <v>-1</v>
       </c>
       <c r="X442">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y442">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z442">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA442">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB442">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC442">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -39862,7 +39862,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6433596</v>
+        <v>6433595</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39874,76 +39874,76 @@
         <v>45018.375</v>
       </c>
       <c r="F443" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G443" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K443">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L443">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M443">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N443">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O443">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P443">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q443">
         <v>0</v>
       </c>
       <c r="R443">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S443">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T443">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U443">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V443">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W443">
         <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y443">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA443">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB443">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40841,7 +40841,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>6445249</v>
+        <v>6478386</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40853,58 +40853,58 @@
         <v>45032.375</v>
       </c>
       <c r="F454" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G454" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H454">
         <v>2</v>
       </c>
       <c r="I454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" t="s">
         <v>44</v>
       </c>
       <c r="K454">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L454">
+        <v>3.4</v>
+      </c>
+      <c r="M454">
         <v>3.5</v>
       </c>
-      <c r="M454">
-        <v>2.45</v>
-      </c>
       <c r="N454">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O454">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P454">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q454">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R454">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S454">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T454">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U454">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V454">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W454">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X454">
         <v>-1</v>
@@ -40913,16 +40913,16 @@
         <v>-1</v>
       </c>
       <c r="Z454">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA454">
         <v>-1</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC454">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40930,7 +40930,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>6478386</v>
+        <v>6445249</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40942,58 +40942,58 @@
         <v>45032.375</v>
       </c>
       <c r="F455" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G455" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H455">
         <v>2</v>
       </c>
       <c r="I455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" t="s">
         <v>44</v>
       </c>
       <c r="K455">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M455">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N455">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O455">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P455">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q455">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R455">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S455">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T455">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U455">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V455">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W455">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41002,16 +41002,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA455">
         <v>-1</v>
       </c>
       <c r="AB455">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC455">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41375,7 +41375,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41387,76 +41387,76 @@
         <v>45039.375</v>
       </c>
       <c r="F460" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G460" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J460" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K460">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L460">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M460">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N460">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O460">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P460">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q460">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R460">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S460">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T460">
         <v>2.5</v>
       </c>
       <c r="U460">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V460">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W460">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X460">
         <v>-1</v>
       </c>
       <c r="Y460">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z460">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA460">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB460">
         <v>-1</v>
       </c>
       <c r="AC460">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41464,7 +41464,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41476,76 +41476,76 @@
         <v>45039.375</v>
       </c>
       <c r="F461" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G461" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H461">
+        <v>1</v>
+      </c>
+      <c r="I461">
         <v>0</v>
       </c>
-      <c r="I461">
-        <v>2</v>
-      </c>
       <c r="J461" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K461">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L461">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M461">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N461">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O461">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P461">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q461">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R461">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S461">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T461">
         <v>2.5</v>
       </c>
       <c r="U461">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V461">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W461">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z461">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA461">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB461">
         <v>-1</v>
       </c>
       <c r="AC461">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -42443,7 +42443,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42455,76 +42455,76 @@
         <v>45053.375</v>
       </c>
       <c r="F472" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G472" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472">
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K472">
+        <v>3.1</v>
+      </c>
+      <c r="L472">
+        <v>3.5</v>
+      </c>
+      <c r="M472">
+        <v>2.2</v>
+      </c>
+      <c r="N472">
+        <v>4</v>
+      </c>
+      <c r="O472">
+        <v>3.5</v>
+      </c>
+      <c r="P472">
+        <v>2</v>
+      </c>
+      <c r="Q472">
+        <v>0.5</v>
+      </c>
+      <c r="R472">
+        <v>1.825</v>
+      </c>
+      <c r="S472">
+        <v>2.025</v>
+      </c>
+      <c r="T472">
+        <v>2.25</v>
+      </c>
+      <c r="U472">
         <v>1.9</v>
       </c>
-      <c r="L472">
-        <v>3.6</v>
-      </c>
-      <c r="M472">
-        <v>3.6</v>
-      </c>
-      <c r="N472">
-        <v>2</v>
-      </c>
-      <c r="O472">
-        <v>3.8</v>
-      </c>
-      <c r="P472">
-        <v>3.4</v>
-      </c>
-      <c r="Q472">
-        <v>-0.5</v>
-      </c>
-      <c r="R472">
-        <v>2.025</v>
-      </c>
-      <c r="S472">
-        <v>1.825</v>
-      </c>
-      <c r="T472">
+      <c r="V472">
+        <v>1.95</v>
+      </c>
+      <c r="W472">
         <v>3</v>
       </c>
-      <c r="U472">
-        <v>1.875</v>
-      </c>
-      <c r="V472">
-        <v>1.975</v>
-      </c>
-      <c r="W472">
-        <v>-1</v>
-      </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z472">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA472">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB472">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC472">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42532,7 +42532,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42544,76 +42544,76 @@
         <v>45053.375</v>
       </c>
       <c r="F473" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G473" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473">
         <v>1</v>
       </c>
       <c r="J473" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K473">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L473">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M473">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N473">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O473">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P473">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q473">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R473">
+        <v>2.025</v>
+      </c>
+      <c r="S473">
         <v>1.825</v>
       </c>
-      <c r="S473">
-        <v>2.025</v>
-      </c>
       <c r="T473">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U473">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V473">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W473">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X473">
         <v>-1</v>
       </c>
       <c r="Y473">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z473">
+        <v>-1</v>
+      </c>
+      <c r="AA473">
         <v>0.825</v>
       </c>
-      <c r="AA473">
-        <v>-1</v>
-      </c>
       <c r="AB473">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC473">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -42977,7 +42977,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6445253</v>
+        <v>6471205</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42989,58 +42989,58 @@
         <v>45060.375</v>
       </c>
       <c r="F478" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G478" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H478">
+        <v>3</v>
+      </c>
+      <c r="I478">
         <v>1</v>
-      </c>
-      <c r="I478">
-        <v>0</v>
       </c>
       <c r="J478" t="s">
         <v>44</v>
       </c>
       <c r="K478">
+        <v>1.416</v>
+      </c>
+      <c r="L478">
+        <v>4.333</v>
+      </c>
+      <c r="M478">
+        <v>6.5</v>
+      </c>
+      <c r="N478">
+        <v>1.363</v>
+      </c>
+      <c r="O478">
+        <v>5</v>
+      </c>
+      <c r="P478">
+        <v>9</v>
+      </c>
+      <c r="Q478">
+        <v>-1.5</v>
+      </c>
+      <c r="R478">
+        <v>1.95</v>
+      </c>
+      <c r="S478">
+        <v>1.9</v>
+      </c>
+      <c r="T478">
+        <v>3</v>
+      </c>
+      <c r="U478">
+        <v>2</v>
+      </c>
+      <c r="V478">
         <v>1.85</v>
       </c>
-      <c r="L478">
-        <v>3.6</v>
-      </c>
-      <c r="M478">
-        <v>3.75</v>
-      </c>
-      <c r="N478">
-        <v>1.909</v>
-      </c>
-      <c r="O478">
-        <v>3.6</v>
-      </c>
-      <c r="P478">
-        <v>4.2</v>
-      </c>
-      <c r="Q478">
-        <v>-0.5</v>
-      </c>
-      <c r="R478">
-        <v>1.9</v>
-      </c>
-      <c r="S478">
-        <v>1.95</v>
-      </c>
-      <c r="T478">
-        <v>2.75</v>
-      </c>
-      <c r="U478">
-        <v>1.975</v>
-      </c>
-      <c r="V478">
-        <v>1.875</v>
-      </c>
       <c r="W478">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X478">
         <v>-1</v>
@@ -43049,16 +43049,16 @@
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA478">
         <v>-1</v>
       </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC478">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43066,7 +43066,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6471205</v>
+        <v>6445253</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43078,58 +43078,58 @@
         <v>45060.375</v>
       </c>
       <c r="F479" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G479" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H479">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J479" t="s">
         <v>44</v>
       </c>
       <c r="K479">
-        <v>1.416</v>
+        <v>1.85</v>
       </c>
       <c r="L479">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M479">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N479">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O479">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P479">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q479">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R479">
+        <v>1.9</v>
+      </c>
+      <c r="S479">
         <v>1.95</v>
       </c>
-      <c r="S479">
-        <v>1.9</v>
-      </c>
       <c r="T479">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U479">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V479">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W479">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43138,16 +43138,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA479">
         <v>-1</v>
       </c>
       <c r="AB479">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC479">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43511,7 +43511,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43523,76 +43523,76 @@
         <v>45067.375</v>
       </c>
       <c r="F484" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G484" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H484">
         <v>0</v>
       </c>
       <c r="I484">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J484" t="s">
         <v>46</v>
       </c>
       <c r="K484">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L484">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M484">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N484">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O484">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P484">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q484">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R484">
+        <v>2.05</v>
+      </c>
+      <c r="S484">
+        <v>1.8</v>
+      </c>
+      <c r="T484">
+        <v>3</v>
+      </c>
+      <c r="U484">
+        <v>1.9</v>
+      </c>
+      <c r="V484">
+        <v>1.95</v>
+      </c>
+      <c r="W484">
+        <v>-1</v>
+      </c>
+      <c r="X484">
+        <v>-1</v>
+      </c>
+      <c r="Y484">
         <v>2.1</v>
       </c>
-      <c r="S484">
-        <v>1.775</v>
-      </c>
-      <c r="T484">
-        <v>2.5</v>
-      </c>
-      <c r="U484">
-        <v>1.85</v>
-      </c>
-      <c r="V484">
-        <v>2</v>
-      </c>
-      <c r="W484">
-        <v>-1</v>
-      </c>
-      <c r="X484">
-        <v>-1</v>
-      </c>
-      <c r="Y484">
-        <v>1.45</v>
-      </c>
       <c r="Z484">
         <v>-1</v>
       </c>
       <c r="AA484">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB484">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC484">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43600,7 +43600,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43612,55 +43612,55 @@
         <v>45067.375</v>
       </c>
       <c r="F485" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G485" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H485">
         <v>0</v>
       </c>
       <c r="I485">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J485" t="s">
         <v>46</v>
       </c>
       <c r="K485">
+        <v>2.75</v>
+      </c>
+      <c r="L485">
+        <v>3.5</v>
+      </c>
+      <c r="M485">
+        <v>2.3</v>
+      </c>
+      <c r="N485">
+        <v>2.875</v>
+      </c>
+      <c r="O485">
+        <v>3.5</v>
+      </c>
+      <c r="P485">
         <v>2.45</v>
       </c>
-      <c r="L485">
-        <v>3.75</v>
-      </c>
-      <c r="M485">
-        <v>2.6</v>
-      </c>
-      <c r="N485">
-        <v>2.05</v>
-      </c>
-      <c r="O485">
-        <v>4.2</v>
-      </c>
-      <c r="P485">
-        <v>3.1</v>
-      </c>
       <c r="Q485">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R485">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S485">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T485">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U485">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V485">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W485">
         <v>-1</v>
@@ -43669,19 +43669,19 @@
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z485">
         <v>-1</v>
       </c>
       <c r="AA485">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB485">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC485">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -46804,7 +46804,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46816,16 +46816,16 @@
         <v>45151.375</v>
       </c>
       <c r="F521" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G521" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J521" t="s">
         <v>46</v>
@@ -46840,31 +46840,31 @@
         <v>1.909</v>
       </c>
       <c r="N521">
+        <v>3.8</v>
+      </c>
+      <c r="O521">
+        <v>3.75</v>
+      </c>
+      <c r="P521">
+        <v>1.95</v>
+      </c>
+      <c r="Q521">
+        <v>0.5</v>
+      </c>
+      <c r="R521">
+        <v>1.95</v>
+      </c>
+      <c r="S521">
+        <v>1.95</v>
+      </c>
+      <c r="T521">
         <v>3</v>
       </c>
-      <c r="O521">
-        <v>3.4</v>
-      </c>
-      <c r="P521">
-        <v>2.375</v>
-      </c>
-      <c r="Q521">
-        <v>0.25</v>
-      </c>
-      <c r="R521">
-        <v>1.88</v>
-      </c>
-      <c r="S521">
-        <v>2.02</v>
-      </c>
-      <c r="T521">
-        <v>2.5</v>
-      </c>
       <c r="U521">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V521">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W521">
         <v>-1</v>
@@ -46873,16 +46873,16 @@
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z521">
         <v>-1</v>
       </c>
       <c r="AA521">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB521">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC521">
         <v>-1</v>
@@ -46893,7 +46893,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46905,16 +46905,16 @@
         <v>45151.375</v>
       </c>
       <c r="F522" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G522" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I522">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J522" t="s">
         <v>46</v>
@@ -46929,31 +46929,31 @@
         <v>1.909</v>
       </c>
       <c r="N522">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O522">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P522">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q522">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R522">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S522">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T522">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U522">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V522">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W522">
         <v>-1</v>
@@ -46962,16 +46962,16 @@
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z522">
         <v>-1</v>
       </c>
       <c r="AA522">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB522">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC522">
         <v>-1</v>
@@ -48406,7 +48406,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48418,76 +48418,76 @@
         <v>45172.375</v>
       </c>
       <c r="F539" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G539" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H539">
         <v>1</v>
       </c>
       <c r="I539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J539" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K539">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L539">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M539">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N539">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O539">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P539">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q539">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R539">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S539">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T539">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U539">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V539">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W539">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X539">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y539">
         <v>-1</v>
       </c>
       <c r="Z539">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA539">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB539">
         <v>-1</v>
       </c>
       <c r="AC539">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="540" spans="1:29">
@@ -48495,7 +48495,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48507,76 +48507,76 @@
         <v>45172.375</v>
       </c>
       <c r="F540" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G540" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H540">
         <v>1</v>
       </c>
       <c r="I540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J540" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K540">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L540">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M540">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N540">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O540">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P540">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q540">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R540">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S540">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T540">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U540">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V540">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W540">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X540">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y540">
         <v>-1</v>
       </c>
       <c r="Z540">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA540">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB540">
         <v>-1</v>
       </c>
       <c r="AC540">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -49474,7 +49474,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C551" t="s">
         <v>28</v>
@@ -49486,76 +49486,76 @@
         <v>45193.375</v>
       </c>
       <c r="F551" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G551" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H551">
         <v>2</v>
       </c>
       <c r="I551">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J551" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K551">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L551">
         <v>3.6</v>
       </c>
       <c r="M551">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N551">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O551">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P551">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q551">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R551">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S551">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T551">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U551">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V551">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W551">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X551">
         <v>-1</v>
       </c>
       <c r="Y551">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z551">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA551">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB551">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC551">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552" spans="1:29">
@@ -49563,7 +49563,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C552" t="s">
         <v>28</v>
@@ -49575,76 +49575,76 @@
         <v>45193.375</v>
       </c>
       <c r="F552" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G552" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H552">
         <v>2</v>
       </c>
       <c r="I552">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J552" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K552">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L552">
         <v>3.6</v>
       </c>
       <c r="M552">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N552">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O552">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P552">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q552">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R552">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S552">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T552">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U552">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V552">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W552">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X552">
         <v>-1</v>
       </c>
       <c r="Y552">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z552">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA552">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB552">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC552">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="553" spans="1:29">
@@ -50008,7 +50008,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50020,67 +50020,67 @@
         <v>45200.375</v>
       </c>
       <c r="F557" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G557" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I557">
         <v>0</v>
       </c>
       <c r="J557" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K557">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L557">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M557">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N557">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O557">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P557">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q557">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R557">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S557">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T557">
         <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V557">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W557">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X557">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y557">
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA557">
         <v>-1</v>
@@ -50089,7 +50089,7 @@
         <v>-1</v>
       </c>
       <c r="AC557">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="558" spans="1:29">
@@ -50097,7 +50097,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50109,67 +50109,67 @@
         <v>45200.375</v>
       </c>
       <c r="F558" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G558" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558">
         <v>0</v>
       </c>
       <c r="J558" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K558">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L558">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M558">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N558">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O558">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P558">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q558">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R558">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S558">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T558">
         <v>2.5</v>
       </c>
       <c r="U558">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V558">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W558">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X558">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y558">
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA558">
         <v>-1</v>
@@ -50178,7 +50178,7 @@
         <v>-1</v>
       </c>
       <c r="AC558">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -124,10 +124,10 @@
     <t>FC Nordsjaelland</t>
   </si>
   <si>
-    <t>AC Horsens</t>
+    <t>Randers FC</t>
   </si>
   <si>
-    <t>Randers FC</t>
+    <t>AC Horsens</t>
   </si>
   <si>
     <t>FC Copenhagen</t>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5143701</v>
+        <v>5143716</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
+        <v>3.75</v>
+      </c>
+      <c r="N9">
         <v>1.909</v>
       </c>
-      <c r="N9">
-        <v>3.4</v>
-      </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5143716</v>
+        <v>5143701</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>3.6</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
+        <v>3.4</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>2.1</v>
+      </c>
+      <c r="Q10">
+        <v>0.25</v>
+      </c>
+      <c r="R10">
+        <v>2.025</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="L10">
-        <v>3.75</v>
-      </c>
-      <c r="M10">
-        <v>3.75</v>
-      </c>
-      <c r="N10">
-        <v>1.909</v>
-      </c>
-      <c r="O10">
-        <v>3.75</v>
-      </c>
-      <c r="P10">
-        <v>3.8</v>
-      </c>
-      <c r="Q10">
-        <v>-0.5</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5143704</v>
+        <v>5143705</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,73 +1779,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5143705</v>
+        <v>5143704</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L16">
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2491,7 +2491,7 @@
         <v>44997.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2669,7 +2669,7 @@
         <v>44998.625</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143628</v>
+        <v>5143712</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q26">
         <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143627</v>
+        <v>5143711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,76 +2847,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N27">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q27">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB27">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143709</v>
+        <v>5143710</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>2.55</v>
+      </c>
+      <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <v>2.375</v>
+      </c>
+      <c r="O28">
+        <v>3.5</v>
+      </c>
+      <c r="P28">
+        <v>2.8</v>
+      </c>
+      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28">
-        <v>1.95</v>
-      </c>
-      <c r="L28">
-        <v>3.5</v>
-      </c>
-      <c r="M28">
-        <v>3.8</v>
-      </c>
-      <c r="N28">
-        <v>1.833</v>
-      </c>
-      <c r="O28">
-        <v>3.75</v>
-      </c>
-      <c r="P28">
-        <v>4</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
       <c r="R28">
+        <v>1.8</v>
+      </c>
+      <c r="S28">
         <v>2.05</v>
-      </c>
-      <c r="S28">
-        <v>1.8</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z28">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143710</v>
+        <v>5143709</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
         <v>1.8</v>
-      </c>
-      <c r="S29">
-        <v>2.05</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143712</v>
+        <v>5143628</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,76 +3114,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
+        <v>3.1</v>
+      </c>
+      <c r="N30">
+        <v>2.15</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
         <v>3.2</v>
-      </c>
-      <c r="N30">
-        <v>2.1</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.75</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>0.875</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
+        <v>0.4875</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AA30">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB30">
-        <v>-0.5</v>
-      </c>
-      <c r="AC30">
-        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143711</v>
+        <v>5143627</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,76 +3203,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M31">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X31">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>0.4875</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AA31">
-        <v>0.4375</v>
-      </c>
-      <c r="AB31">
-        <v>0.95</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -3740,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>45026.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4274,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4541,7 +4541,7 @@
         <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4805,7 +4805,7 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q51">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
         <v>4</v>
       </c>
-      <c r="P58">
-        <v>4.5</v>
-      </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45053.375</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
+        <v>3.1</v>
+      </c>
+      <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
+        <v>2.2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>0.5</v>
+      </c>
+      <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
+        <v>2.025</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
         <v>1.9</v>
       </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>3.6</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3.8</v>
-      </c>
-      <c r="P63">
-        <v>3.4</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>2.025</v>
-      </c>
-      <c r="S63">
-        <v>1.825</v>
-      </c>
-      <c r="T63">
+      <c r="V63">
+        <v>1.95</v>
+      </c>
+      <c r="W63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45053.375</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>2.025</v>
+      </c>
+      <c r="S64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>2.025</v>
-      </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
         <v>0.825</v>
       </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>45053.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6471205</v>
+        <v>6445253</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,58 +6585,58 @@
         <v>45060.375</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>1.416</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
         <v>1.95</v>
       </c>
-      <c r="S69">
-        <v>1.9</v>
-      </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6645,16 +6645,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6445253</v>
+        <v>6471205</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,58 +6674,58 @@
         <v>45060.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
+        <v>1.416</v>
+      </c>
+      <c r="L70">
+        <v>4.333</v>
+      </c>
+      <c r="M70">
+        <v>6.5</v>
+      </c>
+      <c r="N70">
+        <v>1.363</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+      <c r="P70">
+        <v>9</v>
+      </c>
+      <c r="Q70">
+        <v>-1.5</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>3.75</v>
-      </c>
-      <c r="N70">
-        <v>1.909</v>
-      </c>
-      <c r="O70">
-        <v>3.6</v>
-      </c>
-      <c r="P70">
-        <v>4.2</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.9</v>
-      </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.975</v>
-      </c>
-      <c r="V70">
-        <v>1.875</v>
-      </c>
       <c r="W70">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6734,16 +6734,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7030,7 +7030,7 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>1.8</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>1.9</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>2.1</v>
       </c>
-      <c r="S75">
-        <v>1.775</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>1.45</v>
-      </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,55 +7208,55 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
+        <v>2.75</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
+        <v>2.3</v>
+      </c>
+      <c r="N76">
+        <v>2.875</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
         <v>2.45</v>
       </c>
-      <c r="L76">
-        <v>3.75</v>
-      </c>
-      <c r="M76">
-        <v>2.6</v>
-      </c>
-      <c r="N76">
-        <v>2.05</v>
-      </c>
-      <c r="O76">
-        <v>4.2</v>
-      </c>
-      <c r="P76">
-        <v>3.1</v>
-      </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7265,19 +7265,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7567,7 +7567,7 @@
         <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M81">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L86">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M86">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S86">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA86">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>45080.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
         <v>31</v>
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6471209</v>
+        <v>6445256</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88">
+        <v>1.9</v>
+      </c>
+      <c r="L88">
+        <v>3.7</v>
+      </c>
+      <c r="M88">
+        <v>3.5</v>
+      </c>
+      <c r="N88">
+        <v>1.909</v>
+      </c>
+      <c r="O88">
         <v>4</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>45</v>
-      </c>
-      <c r="K88">
-        <v>1.55</v>
-      </c>
-      <c r="L88">
-        <v>4.333</v>
-      </c>
-      <c r="M88">
-        <v>5</v>
-      </c>
-      <c r="N88">
-        <v>1.75</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
       <c r="P88">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S88">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z88">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8991,7 +8991,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
@@ -9881,7 +9881,7 @@
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10501,7 +10501,7 @@
         <v>45151.375</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -11038,7 +11038,7 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11391,7 +11391,7 @@
         <v>45163.5625</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>34</v>
@@ -12195,7 +12195,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12640,7 +12640,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13705,7 +13705,7 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>32</v>
@@ -14420,7 +14420,7 @@
         <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14951,7 +14951,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -15577,7 +15577,7 @@
         <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15930,7 +15930,7 @@
         <v>45235.5</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16200,7 +16200,7 @@
         <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16998,7 +16998,7 @@
         <v>45256.5</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -17265,7 +17265,7 @@
         <v>45261.625</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
         <v>41</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -106,10 +106,10 @@
     <t>AaB</t>
   </si>
   <si>
-    <t>Odense BK</t>
+    <t>Lyngby</t>
   </si>
   <si>
-    <t>Lyngby</t>
+    <t>Odense BK</t>
   </si>
   <si>
     <t>Silkeborg IF</t>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5143696</v>
+        <v>5143697</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5143697</v>
+        <v>5143696</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
+        <v>2.2</v>
+      </c>
+      <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>2.1</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
         <v>3.3</v>
       </c>
-      <c r="L4">
-        <v>3.6</v>
-      </c>
-      <c r="M4">
+      <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.85</v>
+      </c>
+      <c r="S4">
         <v>2</v>
-      </c>
-      <c r="N4">
-        <v>4.2</v>
-      </c>
-      <c r="O4">
-        <v>3.75</v>
-      </c>
-      <c r="P4">
-        <v>1.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.75</v>
-      </c>
-      <c r="R4">
-        <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>44990.5</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2049,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>44995.625</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2405,7 +2405,7 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143712</v>
+        <v>5143711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,61 +2758,61 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
         <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2821,13 +2821,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.5249999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC26">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143711</v>
+        <v>5143712</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,61 +2847,61 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
+        <v>3.4</v>
+      </c>
+      <c r="P27">
         <v>3.75</v>
-      </c>
-      <c r="P27">
-        <v>2.875</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -2910,13 +2910,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.4375</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3028,7 +3028,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3292,7 +3292,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3381,7 +3381,7 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3918,7 +3918,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4007,7 +4007,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4538,7 +4538,7 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -5339,10 +5339,10 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
         <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5431,7 +5431,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5520,7 +5520,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>45053.375</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6143,7 +6143,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6588,7 +6588,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -7119,10 +7119,10 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
         <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7564,7 +7564,7 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L81">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M82">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -8190,7 +8190,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -8988,7 +8988,7 @@
         <v>45130.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>36</v>
@@ -9258,7 +9258,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9614,7 +9614,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10056,7 +10056,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10234,7 +10234,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10593,7 +10593,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -11035,7 +11035,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11213,7 +11213,7 @@
         <v>45158.625</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11572,7 +11572,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12103,7 +12103,7 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12729,7 +12729,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -12993,7 +12993,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13352,7 +13352,7 @@
         <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13972,10 +13972,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
         <v>30</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>5</v>
@@ -14242,7 +14242,7 @@
         <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>45221.375</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -15040,7 +15040,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15399,7 +15399,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15663,10 +15663,10 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
         <v>31</v>
-      </c>
-      <c r="G171" t="s">
-        <v>30</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -16378,7 +16378,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>42</v>
@@ -17001,7 +17001,7 @@
         <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17357,73 +17357,73 @@
         <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N190">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X190">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.925</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
-      <c r="AC190">
-        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17446,64 +17446,64 @@
         <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L191">
+        <v>3.6</v>
+      </c>
+      <c r="M191">
+        <v>1.75</v>
+      </c>
+      <c r="N191">
+        <v>4.2</v>
+      </c>
+      <c r="O191">
         <v>3.5</v>
       </c>
-      <c r="M191">
-        <v>2.2</v>
-      </c>
-      <c r="N191">
-        <v>3.1</v>
-      </c>
-      <c r="O191">
-        <v>3.4</v>
-      </c>
       <c r="P191">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA191">
         <v>-1</v>
@@ -17512,7 +17512,7 @@
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5143705</v>
+        <v>5143704</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,73 +1779,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5143704</v>
+        <v>5143705</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143711</v>
+        <v>5143627</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X26">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>0.825</v>
+      </c>
+      <c r="AB26">
+        <v>0.4875</v>
+      </c>
+      <c r="AC26">
         <v>-0.5</v>
-      </c>
-      <c r="AA26">
-        <v>0.4375</v>
-      </c>
-      <c r="AB26">
-        <v>0.95</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143712</v>
+        <v>5143709</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,76 +2847,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N27">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
+        <v>2.05</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2.05</v>
-      </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X27">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143709</v>
+        <v>5143711</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N29">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
         <v>3.75</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
+        <v>1.95</v>
+      </c>
+      <c r="V29">
         <v>1.9</v>
       </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143628</v>
+        <v>5143712</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,76 +3114,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB30">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143627</v>
+        <v>5143628</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,10 +3203,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3218,31 +3218,31 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q31">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
         <v>2.75</v>
@@ -3254,7 +3254,7 @@
         <v>1.875</v>
       </c>
       <c r="W31">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,10 +3263,10 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
         <v>0.4875</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6433595</v>
+        <v>6433596</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6433596</v>
+        <v>6433595</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,76 +3470,76 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y34">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6445249</v>
+        <v>6478386</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,58 +4449,58 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>45</v>
       </c>
       <c r="K45">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
         <v>3.5</v>
       </c>
-      <c r="M45">
-        <v>2.45</v>
-      </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6478386</v>
+        <v>6445249</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,58 +4538,58 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
+        <v>2.75</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
+        <v>2.875</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
         <v>2.45</v>
       </c>
-      <c r="L75">
-        <v>3.75</v>
-      </c>
-      <c r="M75">
-        <v>2.6</v>
-      </c>
-      <c r="N75">
-        <v>2.05</v>
-      </c>
-      <c r="O75">
-        <v>4.2</v>
-      </c>
-      <c r="P75">
-        <v>3.1</v>
-      </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,76 +7208,76 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>2.1</v>
       </c>
-      <c r="S76">
-        <v>1.775</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>1.45</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6471209</v>
+        <v>6445256</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86">
+        <v>1.9</v>
+      </c>
+      <c r="L86">
+        <v>3.7</v>
+      </c>
+      <c r="M86">
+        <v>3.5</v>
+      </c>
+      <c r="N86">
+        <v>1.909</v>
+      </c>
+      <c r="O86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>45</v>
-      </c>
-      <c r="K86">
-        <v>1.55</v>
-      </c>
-      <c r="L86">
-        <v>4.333</v>
-      </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>1.75</v>
-      </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S86">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z86">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6478390</v>
+        <v>6471209</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45080.375</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
+        <v>2.02</v>
+      </c>
+      <c r="S87">
+        <v>1.88</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
         <v>1.825</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>2.025</v>
       </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6445256</v>
+        <v>6478390</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="L88">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9299999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6438715</v>
+        <v>6439098</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,61 +8365,61 @@
         <v>45081.5</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89">
+        <v>1.333</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>7.5</v>
+      </c>
+      <c r="N89">
+        <v>1.25</v>
+      </c>
+      <c r="O89">
+        <v>6.5</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-2</v>
+      </c>
+      <c r="R89">
+        <v>2.025</v>
+      </c>
+      <c r="S89">
+        <v>1.825</v>
+      </c>
+      <c r="T89">
+        <v>3.75</v>
+      </c>
+      <c r="U89">
         <v>2</v>
       </c>
-      <c r="L89">
-        <v>3.5</v>
-      </c>
-      <c r="M89">
-        <v>3.25</v>
-      </c>
-      <c r="N89">
-        <v>1.666</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
-      <c r="P89">
-        <v>4.75</v>
-      </c>
-      <c r="Q89">
-        <v>-0.75</v>
-      </c>
-      <c r="R89">
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.9</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8428,13 +8428,13 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,55 +8454,55 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N90">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O90">
         <v>4</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L91">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O91">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,67 +13616,67 @@
         <v>45200.375</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13685,7 +13685,7 @@
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,67 +13705,67 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N149">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13774,7 +13774,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14138,7 +14138,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14150,49 +14150,49 @@
         <v>45207.375</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14201,25 +14201,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>1.025</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,49 +14239,49 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
         <v>4.2</v>
       </c>
-      <c r="M155">
-        <v>6</v>
-      </c>
       <c r="N155">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>2.025</v>
@@ -14290,25 +14290,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,58 +15752,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
+        <v>1.35</v>
+      </c>
+      <c r="L172">
+        <v>5</v>
+      </c>
+      <c r="M172">
+        <v>8</v>
+      </c>
+      <c r="N172">
+        <v>1.3</v>
+      </c>
+      <c r="O172">
+        <v>5.25</v>
+      </c>
+      <c r="P172">
+        <v>10</v>
+      </c>
+      <c r="Q172">
+        <v>-1.5</v>
+      </c>
+      <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="L172">
-        <v>3.5</v>
-      </c>
-      <c r="M172">
-        <v>2.25</v>
-      </c>
-      <c r="N172">
-        <v>2.55</v>
-      </c>
-      <c r="O172">
-        <v>3.5</v>
-      </c>
-      <c r="P172">
-        <v>2.7</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>1.82</v>
-      </c>
-      <c r="S172">
-        <v>2.08</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15812,16 +15812,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,58 +15841,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N173">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q173">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC194"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5143704</v>
+        <v>5143705</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,73 +1779,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5143705</v>
+        <v>5143704</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L16">
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5143708</v>
+        <v>5143769</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z21">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5143769</v>
+        <v>5143708</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,76 +2402,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N22">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y22">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA22">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143627</v>
+        <v>5143709</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,58 +2758,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L26">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.333</v>
+        <v>0.833</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2818,16 +2818,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143709</v>
+        <v>5143627</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,58 +2847,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M27">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N27">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.833</v>
+        <v>0.333</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2907,16 +2907,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
+        <v>0.825</v>
+      </c>
+      <c r="AB27">
+        <v>0.4875</v>
+      </c>
+      <c r="AC27">
         <v>-0.5</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
-      <c r="AC27">
-        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143710</v>
+        <v>5143628</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
         <v>3.5</v>
       </c>
       <c r="P28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143711</v>
+        <v>5143710</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143628</v>
+        <v>5143711</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,76 +3203,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
         <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.975</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6433596</v>
+        <v>6433595</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y33">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6433595</v>
+        <v>6433596</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,76 +3470,76 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N34">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45026.375</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45026.375</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N52">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q52">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45053.375</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
+        <v>2.025</v>
+      </c>
+      <c r="S63">
         <v>1.825</v>
       </c>
-      <c r="S63">
-        <v>2.025</v>
-      </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
         <v>0.825</v>
       </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45053.375</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
+        <v>3.1</v>
+      </c>
+      <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
+        <v>2.2</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <v>0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.825</v>
+      </c>
+      <c r="S64">
+        <v>2.025</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
         <v>1.9</v>
       </c>
-      <c r="L64">
-        <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>3.6</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-      <c r="O64">
-        <v>3.8</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>2.025</v>
-      </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
-      <c r="T64">
+      <c r="V64">
+        <v>1.95</v>
+      </c>
+      <c r="W64">
         <v>3</v>
       </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>1.8</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>1.9</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>2.1</v>
       </c>
-      <c r="S75">
-        <v>1.775</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>1.45</v>
-      </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,55 +7208,55 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
+        <v>2.75</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
+        <v>2.3</v>
+      </c>
+      <c r="N76">
+        <v>2.875</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
         <v>2.45</v>
       </c>
-      <c r="L76">
-        <v>3.75</v>
-      </c>
-      <c r="M76">
-        <v>2.6</v>
-      </c>
-      <c r="N76">
-        <v>2.05</v>
-      </c>
-      <c r="O76">
-        <v>4.2</v>
-      </c>
-      <c r="P76">
-        <v>3.1</v>
-      </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7265,19 +7265,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M81">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6445256</v>
+        <v>6478390</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="L86">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.9299999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L88">
+        <v>3.7</v>
+      </c>
+      <c r="M88">
         <v>3.5</v>
       </c>
-      <c r="M88">
-        <v>2.4</v>
-      </c>
       <c r="N88">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45081.5</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N89">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O89">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>7.5</v>
+      </c>
+      <c r="N91">
+        <v>1.25</v>
+      </c>
+      <c r="O91">
+        <v>6.5</v>
+      </c>
+      <c r="P91">
+        <v>10</v>
+      </c>
+      <c r="Q91">
+        <v>-2</v>
+      </c>
+      <c r="R91">
+        <v>2.025</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
         <v>3.75</v>
       </c>
-      <c r="M91">
-        <v>2.75</v>
-      </c>
-      <c r="N91">
-        <v>2.05</v>
-      </c>
-      <c r="O91">
-        <v>4</v>
-      </c>
-      <c r="P91">
-        <v>3</v>
-      </c>
-      <c r="Q91">
-        <v>-0.25</v>
-      </c>
-      <c r="R91">
-        <v>1.875</v>
-      </c>
-      <c r="S91">
-        <v>1.975</v>
-      </c>
-      <c r="T91">
-        <v>3.25</v>
-      </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,16 +10412,16 @@
         <v>45151.375</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J112" t="s">
         <v>43</v>
@@ -10436,31 +10436,31 @@
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>3.8</v>
+      </c>
+      <c r="O112">
+        <v>3.75</v>
+      </c>
+      <c r="P112">
+        <v>1.95</v>
+      </c>
+      <c r="Q112">
+        <v>0.5</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
         <v>3</v>
       </c>
-      <c r="O112">
-        <v>3.4</v>
-      </c>
-      <c r="P112">
-        <v>2.375</v>
-      </c>
-      <c r="Q112">
-        <v>0.25</v>
-      </c>
-      <c r="R112">
-        <v>1.88</v>
-      </c>
-      <c r="S112">
-        <v>2.02</v>
-      </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10469,16 +10469,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,16 +10501,16 @@
         <v>45151.375</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
@@ -10525,31 +10525,31 @@
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10558,16 +10558,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45193.375</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45193.375</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N143">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,67 +13616,67 @@
         <v>45200.375</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M148">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N148">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13685,7 +13685,7 @@
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,67 +13705,67 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K149">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13774,7 +13774,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14138,7 +14138,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14150,49 +14150,49 @@
         <v>45207.375</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
         <v>4.2</v>
       </c>
-      <c r="M154">
-        <v>6</v>
-      </c>
       <c r="N154">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14201,25 +14201,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,49 +14239,49 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
         <v>2.025</v>
@@ -14290,25 +14290,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>1</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.825</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>1.025</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,58 +15752,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>1</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N172">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q172">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15812,16 +15812,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,58 +15841,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
+        <v>1.35</v>
+      </c>
+      <c r="L173">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>8</v>
+      </c>
+      <c r="N173">
+        <v>1.3</v>
+      </c>
+      <c r="O173">
+        <v>5.25</v>
+      </c>
+      <c r="P173">
+        <v>10</v>
+      </c>
+      <c r="Q173">
+        <v>-1.5</v>
+      </c>
+      <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="L173">
-        <v>3.5</v>
-      </c>
-      <c r="M173">
-        <v>2.25</v>
-      </c>
-      <c r="N173">
-        <v>2.55</v>
-      </c>
-      <c r="O173">
-        <v>3.5</v>
-      </c>
-      <c r="P173">
-        <v>2.7</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>1.82</v>
-      </c>
-      <c r="S173">
-        <v>2.08</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -17780,6 +17780,376 @@
       </c>
       <c r="AC194">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6779317</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45338.625</v>
+      </c>
+      <c r="F195" t="s">
+        <v>34</v>
+      </c>
+      <c r="G195" t="s">
+        <v>31</v>
+      </c>
+      <c r="K195">
+        <v>2.05</v>
+      </c>
+      <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>3.25</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195">
+        <v>3.6</v>
+      </c>
+      <c r="P195">
+        <v>3.4</v>
+      </c>
+      <c r="Q195">
+        <v>-0.5</v>
+      </c>
+      <c r="R195">
+        <v>2.05</v>
+      </c>
+      <c r="S195">
+        <v>1.85</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>1.85</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6779678</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45340.41666666666</v>
+      </c>
+      <c r="F196" t="s">
+        <v>42</v>
+      </c>
+      <c r="G196" t="s">
+        <v>36</v>
+      </c>
+      <c r="K196">
+        <v>3.3</v>
+      </c>
+      <c r="L196">
+        <v>3.6</v>
+      </c>
+      <c r="M196">
+        <v>2.05</v>
+      </c>
+      <c r="N196">
+        <v>3.4</v>
+      </c>
+      <c r="O196">
+        <v>3.6</v>
+      </c>
+      <c r="P196">
+        <v>2</v>
+      </c>
+      <c r="Q196">
+        <v>0.5</v>
+      </c>
+      <c r="R196">
+        <v>1.88</v>
+      </c>
+      <c r="S196">
+        <v>2.02</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.9</v>
+      </c>
+      <c r="V196">
+        <v>1.95</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6779681</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45340.41666666666</v>
+      </c>
+      <c r="F197" t="s">
+        <v>35</v>
+      </c>
+      <c r="G197" t="s">
+        <v>30</v>
+      </c>
+      <c r="K197">
+        <v>1.533</v>
+      </c>
+      <c r="L197">
+        <v>4.333</v>
+      </c>
+      <c r="M197">
+        <v>5</v>
+      </c>
+      <c r="N197">
+        <v>1.55</v>
+      </c>
+      <c r="O197">
+        <v>4.5</v>
+      </c>
+      <c r="P197">
+        <v>5</v>
+      </c>
+      <c r="Q197">
+        <v>-1</v>
+      </c>
+      <c r="R197">
+        <v>1.92</v>
+      </c>
+      <c r="S197">
+        <v>1.98</v>
+      </c>
+      <c r="T197">
+        <v>3</v>
+      </c>
+      <c r="U197">
+        <v>2.05</v>
+      </c>
+      <c r="V197">
+        <v>1.8</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6779680</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45340.5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>32</v>
+      </c>
+      <c r="G198" t="s">
+        <v>38</v>
+      </c>
+      <c r="K198">
+        <v>3.4</v>
+      </c>
+      <c r="L198">
+        <v>3.75</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>3.75</v>
+      </c>
+      <c r="O198">
+        <v>3.8</v>
+      </c>
+      <c r="P198">
+        <v>1.909</v>
+      </c>
+      <c r="Q198">
+        <v>0.5</v>
+      </c>
+      <c r="R198">
+        <v>1.95</v>
+      </c>
+      <c r="S198">
+        <v>1.95</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>1.925</v>
+      </c>
+      <c r="V198">
+        <v>1.925</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6779677</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45340.58333333334</v>
+      </c>
+      <c r="F199" t="s">
+        <v>33</v>
+      </c>
+      <c r="G199" t="s">
+        <v>40</v>
+      </c>
+      <c r="K199">
+        <v>2.25</v>
+      </c>
+      <c r="L199">
+        <v>3.6</v>
+      </c>
+      <c r="M199">
+        <v>2.9</v>
+      </c>
+      <c r="N199">
+        <v>2.25</v>
+      </c>
+      <c r="O199">
+        <v>3.5</v>
+      </c>
+      <c r="P199">
+        <v>2.9</v>
+      </c>
+      <c r="Q199">
+        <v>-0.25</v>
+      </c>
+      <c r="R199">
+        <v>2.04</v>
+      </c>
+      <c r="S199">
+        <v>1.86</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>AaB</t>
   </si>
   <si>
-    <t>Lyngby</t>
+    <t>Odense BK</t>
   </si>
   <si>
-    <t>Odense BK</t>
+    <t>Lyngby</t>
   </si>
   <si>
     <t>Silkeborg IF</t>
@@ -124,10 +124,10 @@
     <t>FC Nordsjaelland</t>
   </si>
   <si>
-    <t>Randers FC</t>
+    <t>AC Horsens</t>
   </si>
   <si>
-    <t>AC Horsens</t>
+    <t>Randers FC</t>
   </si>
   <si>
     <t>FC Copenhagen</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5143697</v>
+        <v>5143696</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
+        <v>2.2</v>
+      </c>
+      <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2.1</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
         <v>3.3</v>
       </c>
-      <c r="L3">
-        <v>3.6</v>
-      </c>
-      <c r="M3">
+      <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
         <v>2</v>
-      </c>
-      <c r="N3">
-        <v>4.2</v>
-      </c>
-      <c r="O3">
-        <v>3.75</v>
-      </c>
-      <c r="P3">
-        <v>1.8</v>
-      </c>
-      <c r="Q3">
-        <v>0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2.05</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5143696</v>
+        <v>5143697</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5143716</v>
+        <v>5143701</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
+        <v>3.4</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
+        <v>2.1</v>
+      </c>
+      <c r="Q9">
+        <v>0.25</v>
+      </c>
+      <c r="R9">
+        <v>2.025</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="L9">
-        <v>3.75</v>
-      </c>
-      <c r="M9">
-        <v>3.75</v>
-      </c>
-      <c r="N9">
-        <v>1.909</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>3.8</v>
-      </c>
-      <c r="Q9">
-        <v>-0.5</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.975</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5143701</v>
+        <v>5143716</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
+        <v>3.75</v>
+      </c>
+      <c r="N10">
         <v>1.909</v>
       </c>
-      <c r="N10">
-        <v>3.4</v>
-      </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1782,7 +1782,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>44990.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2049,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>44995.625</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2316,7 +2316,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>44997.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2669,7 +2669,7 @@
         <v>44998.625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143709</v>
+        <v>5143710</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>2.55</v>
+      </c>
+      <c r="L26">
+        <v>3.4</v>
+      </c>
+      <c r="M26">
+        <v>2.6</v>
+      </c>
+      <c r="N26">
+        <v>2.375</v>
+      </c>
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26">
+        <v>2.8</v>
+      </c>
+      <c r="Q26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>1.95</v>
-      </c>
-      <c r="L26">
-        <v>3.5</v>
-      </c>
-      <c r="M26">
-        <v>3.8</v>
-      </c>
-      <c r="N26">
-        <v>1.833</v>
-      </c>
-      <c r="O26">
-        <v>3.75</v>
-      </c>
-      <c r="P26">
-        <v>4</v>
-      </c>
-      <c r="Q26">
-        <v>-0.75</v>
-      </c>
       <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
         <v>2.05</v>
-      </c>
-      <c r="S26">
-        <v>1.8</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z26">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143627</v>
+        <v>5143709</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,58 +2847,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L27">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N27">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>0.333</v>
+        <v>0.833</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2907,16 +2907,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143628</v>
+        <v>5143711</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q28">
         <v>-0.25</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
         <v>1.875</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB28">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143710</v>
+        <v>5143712</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,40 +3025,40 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N29">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
         <v>1.8</v>
@@ -3067,34 +3067,34 @@
         <v>2.05</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143712</v>
+        <v>5143628</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,76 +3114,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
+        <v>3.1</v>
+      </c>
+      <c r="N30">
+        <v>2.15</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
         <v>3.2</v>
-      </c>
-      <c r="N30">
-        <v>2.1</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.75</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>0.875</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
+        <v>0.4875</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AA30">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB30">
-        <v>-0.5</v>
-      </c>
-      <c r="AC30">
-        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143711</v>
+        <v>5143627</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,76 +3203,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M31">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X31">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>0.4875</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AA31">
-        <v>0.4375</v>
-      </c>
-      <c r="AB31">
-        <v>0.95</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6433595</v>
+        <v>6433596</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6433596</v>
+        <v>6433595</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,76 +3470,76 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y34">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3918,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4007,7 +4007,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>45026.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4274,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4449,10 +4449,10 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4538,7 +4538,7 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -4805,7 +4805,7 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q51">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5339,10 +5339,10 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5428,10 +5428,10 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5520,7 +5520,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5965,7 +5965,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45053.375</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
+        <v>3.1</v>
+      </c>
+      <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
+        <v>2.2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>0.5</v>
+      </c>
+      <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
+        <v>2.025</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
         <v>1.9</v>
       </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>3.6</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3.8</v>
-      </c>
-      <c r="P63">
-        <v>3.4</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>2.025</v>
-      </c>
-      <c r="S63">
-        <v>1.825</v>
-      </c>
-      <c r="T63">
+      <c r="V63">
+        <v>1.95</v>
+      </c>
+      <c r="W63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45053.375</v>
       </c>
       <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
       </c>
-      <c r="G64" t="s">
-        <v>40</v>
-      </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>2.025</v>
+      </c>
+      <c r="S64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>2.025</v>
-      </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
         <v>0.825</v>
       </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>45053.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6496,7 +6496,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6588,7 +6588,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6677,7 +6677,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6941,7 +6941,7 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7030,7 +7030,7 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
+        <v>2.75</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
+        <v>2.875</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
         <v>2.45</v>
       </c>
-      <c r="L75">
-        <v>3.75</v>
-      </c>
-      <c r="M75">
-        <v>2.6</v>
-      </c>
-      <c r="N75">
-        <v>2.05</v>
-      </c>
-      <c r="O75">
-        <v>4.2</v>
-      </c>
-      <c r="P75">
-        <v>3.1</v>
-      </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,76 +7208,76 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>2.1</v>
       </c>
-      <c r="S76">
-        <v>1.775</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>1.45</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7564,10 +7564,10 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L81">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M82">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L86">
+        <v>3.7</v>
+      </c>
+      <c r="M86">
         <v>3.5</v>
       </c>
-      <c r="M86">
-        <v>2.4</v>
-      </c>
       <c r="N86">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6445256</v>
+        <v>6478390</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="L88">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9299999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45081.5</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>7.5</v>
+      </c>
+      <c r="N89">
+        <v>1.25</v>
+      </c>
+      <c r="O89">
+        <v>6.5</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-2</v>
+      </c>
+      <c r="R89">
+        <v>2.025</v>
+      </c>
+      <c r="S89">
+        <v>1.825</v>
+      </c>
+      <c r="T89">
         <v>3.75</v>
       </c>
-      <c r="M89">
-        <v>2.75</v>
-      </c>
-      <c r="N89">
-        <v>2.05</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
       <c r="U89">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,55 +8454,55 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N90">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O90">
         <v>4</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6439098</v>
+        <v>6438715</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,61 +8543,61 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N91">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8606,13 +8606,13 @@
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -8988,10 +8988,10 @@
         <v>45130.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9258,7 +9258,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
@@ -9614,7 +9614,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9881,7 +9881,7 @@
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10056,7 +10056,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10234,7 +10234,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,16 +10412,16 @@
         <v>45151.375</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>43</v>
@@ -10436,31 +10436,31 @@
         <v>1.909</v>
       </c>
       <c r="N112">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10469,16 +10469,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,16 +10501,16 @@
         <v>45151.375</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
@@ -10525,31 +10525,31 @@
         <v>1.909</v>
       </c>
       <c r="N113">
+        <v>3.8</v>
+      </c>
+      <c r="O113">
+        <v>3.75</v>
+      </c>
+      <c r="P113">
+        <v>1.95</v>
+      </c>
+      <c r="Q113">
+        <v>0.5</v>
+      </c>
+      <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
         <v>3</v>
       </c>
-      <c r="O113">
-        <v>3.4</v>
-      </c>
-      <c r="P113">
-        <v>2.375</v>
-      </c>
-      <c r="Q113">
-        <v>0.25</v>
-      </c>
-      <c r="R113">
-        <v>1.88</v>
-      </c>
-      <c r="S113">
-        <v>2.02</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10558,16 +10558,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -11035,10 +11035,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>45158.625</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11391,7 +11391,7 @@
         <v>45163.5625</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>34</v>
@@ -11572,7 +11572,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12103,7 +12103,7 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12195,7 +12195,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12640,7 +12640,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12729,7 +12729,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -12993,7 +12993,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45193.375</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45193.375</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13352,7 +13352,7 @@
         <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13705,7 +13705,7 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>32</v>
@@ -13972,10 +13972,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" t="s">
         <v>31</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>5</v>
@@ -14138,7 +14138,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14150,49 +14150,49 @@
         <v>45207.375</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14201,25 +14201,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>1.025</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,49 +14239,49 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
         <v>4.2</v>
       </c>
-      <c r="M155">
-        <v>6</v>
-      </c>
       <c r="N155">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>2.025</v>
@@ -14290,25 +14290,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14773,7 +14773,7 @@
         <v>45221.375</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14951,7 +14951,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -15040,7 +15040,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15399,7 +15399,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15577,7 +15577,7 @@
         <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15663,10 +15663,10 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F171" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" t="s">
         <v>30</v>
-      </c>
-      <c r="G171" t="s">
-        <v>31</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,58 +15752,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
+        <v>1.35</v>
+      </c>
+      <c r="L172">
+        <v>5</v>
+      </c>
+      <c r="M172">
+        <v>8</v>
+      </c>
+      <c r="N172">
+        <v>1.3</v>
+      </c>
+      <c r="O172">
+        <v>5.25</v>
+      </c>
+      <c r="P172">
+        <v>10</v>
+      </c>
+      <c r="Q172">
+        <v>-1.5</v>
+      </c>
+      <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="L172">
-        <v>3.5</v>
-      </c>
-      <c r="M172">
-        <v>2.25</v>
-      </c>
-      <c r="N172">
-        <v>2.55</v>
-      </c>
-      <c r="O172">
-        <v>3.5</v>
-      </c>
-      <c r="P172">
-        <v>2.7</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>1.82</v>
-      </c>
-      <c r="S172">
-        <v>2.08</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15812,16 +15812,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,58 +15841,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N173">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q173">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>45235.5</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16200,7 +16200,7 @@
         <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16378,7 +16378,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>42</v>
@@ -16998,10 +16998,10 @@
         <v>45256.5</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -17265,7 +17265,7 @@
         <v>45261.625</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>41</v>
@@ -17354,7 +17354,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
         <v>32</v>
@@ -17443,7 +17443,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
         <v>35</v>
@@ -17802,7 +17802,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K195">
         <v>2.05</v>
@@ -17814,22 +17814,22 @@
         <v>3.25</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O195">
         <v>3.6</v>
       </c>
       <c r="P195">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="S195">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T195">
         <v>2.75</v>
@@ -17861,7 +17861,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6779678</v>
+        <v>6779681</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17873,46 +17873,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K196">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M196">
+        <v>5</v>
+      </c>
+      <c r="N196">
+        <v>1.533</v>
+      </c>
+      <c r="O196">
+        <v>4.5</v>
+      </c>
+      <c r="P196">
+        <v>5.25</v>
+      </c>
+      <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>1.89</v>
+      </c>
+      <c r="S196">
+        <v>2.01</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.8</v>
+      </c>
+      <c r="V196">
         <v>2.05</v>
-      </c>
-      <c r="N196">
-        <v>3.4</v>
-      </c>
-      <c r="O196">
-        <v>3.6</v>
-      </c>
-      <c r="P196">
-        <v>2</v>
-      </c>
-      <c r="Q196">
-        <v>0.5</v>
-      </c>
-      <c r="R196">
-        <v>1.88</v>
-      </c>
-      <c r="S196">
-        <v>2.02</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.9</v>
-      </c>
-      <c r="V196">
-        <v>1.95</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17935,7 +17935,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6779681</v>
+        <v>6779678</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17947,46 +17947,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K197">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N197">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="O197">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S197">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T197">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -18036,22 +18036,22 @@
         <v>2</v>
       </c>
       <c r="N198">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O198">
         <v>3.8</v>
       </c>
       <c r="P198">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="Q198">
         <v>0.5</v>
       </c>
       <c r="R198">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T198">
         <v>2.75</v>
@@ -18110,31 +18110,31 @@
         <v>2.9</v>
       </c>
       <c r="N199">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q199">
         <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="S199">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
         <v>0</v>
@@ -18149,6 +18149,80 @@
         <v>0</v>
       </c>
       <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6779679</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45341.625</v>
+      </c>
+      <c r="F200" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200" t="s">
+        <v>39</v>
+      </c>
+      <c r="K200">
+        <v>3.8</v>
+      </c>
+      <c r="L200">
+        <v>3.5</v>
+      </c>
+      <c r="M200">
+        <v>1.9</v>
+      </c>
+      <c r="N200">
+        <v>4</v>
+      </c>
+      <c r="O200">
+        <v>3.3</v>
+      </c>
+      <c r="P200">
+        <v>1.95</v>
+      </c>
+      <c r="Q200">
+        <v>0.5</v>
+      </c>
+      <c r="R200">
+        <v>1.89</v>
+      </c>
+      <c r="S200">
+        <v>2.01</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
+        <v>1.775</v>
+      </c>
+      <c r="V200">
+        <v>2.1</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5143705</v>
+        <v>5143704</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,73 +1779,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5143704</v>
+        <v>5143705</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143710</v>
+        <v>5143627</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC26">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143709</v>
+        <v>5143628</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,58 +2847,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
         <v>3.5</v>
       </c>
       <c r="M27">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2907,16 +2907,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
+        <v>0.4875</v>
+      </c>
+      <c r="AC27">
         <v>-0.5</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
-      <c r="AC27">
-        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143711</v>
+        <v>5143709</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N28">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O28">
         <v>3.75</v>
       </c>
       <c r="P28">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
+        <v>1.9</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="V28">
-        <v>1.9</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X28">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4375</v>
-      </c>
       <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.95</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143712</v>
+        <v>5143710</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,40 +3025,40 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>1.8</v>
@@ -3067,34 +3067,34 @@
         <v>2.05</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143628</v>
+        <v>5143711</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,76 +3114,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
         <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>1.975</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB30">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143627</v>
+        <v>5143712</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,76 +3203,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N31">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB31">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6478386</v>
+        <v>6445249</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,58 +4449,58 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>45</v>
       </c>
       <c r="K45">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6445249</v>
+        <v>6478386</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,58 +4538,58 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
         <v>3.5</v>
       </c>
-      <c r="M46">
-        <v>2.45</v>
-      </c>
       <c r="N46">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N52">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q52">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
         <v>4</v>
       </c>
-      <c r="P57">
-        <v>4.5</v>
-      </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6445256</v>
+        <v>6478390</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="L86">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.9299999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L88">
+        <v>3.7</v>
+      </c>
+      <c r="M88">
         <v>3.5</v>
       </c>
-      <c r="M88">
-        <v>2.4</v>
-      </c>
       <c r="N88">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,55 +8454,55 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N90">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O90">
         <v>4</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O91">
         <v>4</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8603,16 +8603,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45193.375</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45193.375</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N143">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,67 +13616,67 @@
         <v>45200.375</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13685,7 +13685,7 @@
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,67 +13705,67 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N149">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13774,7 +13774,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,58 +15752,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>1</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N172">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q172">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15812,16 +15812,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,58 +15841,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
+        <v>1.35</v>
+      </c>
+      <c r="L173">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>8</v>
+      </c>
+      <c r="N173">
+        <v>1.3</v>
+      </c>
+      <c r="O173">
+        <v>5.25</v>
+      </c>
+      <c r="P173">
+        <v>10</v>
+      </c>
+      <c r="Q173">
+        <v>-1.5</v>
+      </c>
+      <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="L173">
-        <v>3.5</v>
-      </c>
-      <c r="M173">
-        <v>2.25</v>
-      </c>
-      <c r="N173">
-        <v>2.55</v>
-      </c>
-      <c r="O173">
-        <v>3.5</v>
-      </c>
-      <c r="P173">
-        <v>2.7</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>1.82</v>
-      </c>
-      <c r="S173">
-        <v>2.08</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17354,67 +17354,67 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K190">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>1.75</v>
+      </c>
+      <c r="N190">
+        <v>4.2</v>
+      </c>
+      <c r="O190">
         <v>3.5</v>
       </c>
-      <c r="M190">
-        <v>2.2</v>
-      </c>
-      <c r="N190">
-        <v>3.1</v>
-      </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
       <c r="P190">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA190">
         <v>-1</v>
@@ -17423,7 +17423,7 @@
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17443,76 +17443,76 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K191">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N191">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.925</v>
-      </c>
-      <c r="AA191">
-        <v>-1</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
-      <c r="AC191">
-        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17804,6 +17804,15 @@
       <c r="G195" t="s">
         <v>30</v>
       </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>43</v>
+      </c>
       <c r="K195">
         <v>2.05</v>
       </c>
@@ -17814,46 +17823,52 @@
         <v>3.25</v>
       </c>
       <c r="N195">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O195">
         <v>3.6</v>
       </c>
       <c r="P195">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB195">
+        <v>0.825</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,22 +17903,22 @@
         <v>5</v>
       </c>
       <c r="N196">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P196">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q196">
         <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="S196">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="T196">
         <v>2.75</v>
@@ -17962,22 +17977,22 @@
         <v>2.05</v>
       </c>
       <c r="N197">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O197">
         <v>3.6</v>
       </c>
       <c r="P197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q197">
         <v>0.5</v>
       </c>
       <c r="R197">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T197">
         <v>2.5</v>
@@ -18036,7 +18051,7 @@
         <v>2</v>
       </c>
       <c r="N198">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O198">
         <v>3.8</v>
@@ -18048,19 +18063,19 @@
         <v>0.5</v>
       </c>
       <c r="R198">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S198">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
         <v>0</v>
@@ -18110,10 +18125,10 @@
         <v>2.9</v>
       </c>
       <c r="N199">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
         <v>2.8</v>
@@ -18202,13 +18217,13 @@
         <v>2.01</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
+        <v>2.1</v>
+      </c>
+      <c r="V200">
         <v>1.775</v>
-      </c>
-      <c r="V200">
-        <v>2.1</v>
       </c>
       <c r="W200">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143627</v>
+        <v>5143628</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,10 +2758,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2773,31 +2773,31 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
         <v>2.75</v>
@@ -2809,7 +2809,7 @@
         <v>1.875</v>
       </c>
       <c r="W26">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2818,10 +2818,10 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>0.4875</v>
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143628</v>
+        <v>5143627</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,10 +2847,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2862,31 +2862,31 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -2898,7 +2898,7 @@
         <v>1.875</v>
       </c>
       <c r="W27">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2907,10 +2907,10 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
         <v>0.4875</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6433596</v>
+        <v>6433595</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y33">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6433595</v>
+        <v>6433596</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,76 +3470,76 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N34">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6445249</v>
+        <v>6478386</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,58 +4449,58 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>45</v>
       </c>
       <c r="K45">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
         <v>3.5</v>
       </c>
-      <c r="M45">
-        <v>2.45</v>
-      </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6478386</v>
+        <v>6445249</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,58 +4538,58 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6445253</v>
+        <v>6471205</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,58 +6585,58 @@
         <v>45060.375</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
+        <v>1.416</v>
+      </c>
+      <c r="L69">
+        <v>4.333</v>
+      </c>
+      <c r="M69">
+        <v>6.5</v>
+      </c>
+      <c r="N69">
+        <v>1.363</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>9</v>
+      </c>
+      <c r="Q69">
+        <v>-1.5</v>
+      </c>
+      <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="L69">
-        <v>3.6</v>
-      </c>
-      <c r="M69">
-        <v>3.75</v>
-      </c>
-      <c r="N69">
-        <v>1.909</v>
-      </c>
-      <c r="O69">
-        <v>3.6</v>
-      </c>
-      <c r="P69">
-        <v>4.2</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.9</v>
-      </c>
-      <c r="S69">
-        <v>1.95</v>
-      </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.975</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6645,16 +6645,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6471205</v>
+        <v>6445253</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,58 +6674,58 @@
         <v>45060.375</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.416</v>
+        <v>1.85</v>
       </c>
       <c r="L70">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
         <v>1.95</v>
       </c>
-      <c r="S70">
-        <v>1.9</v>
-      </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6734,16 +6734,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17903,31 +17903,31 @@
         <v>5</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O196">
         <v>5</v>
       </c>
       <c r="P196">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
+        <v>2.06</v>
+      </c>
+      <c r="S196">
         <v>1.84</v>
       </c>
-      <c r="S196">
-        <v>2.06</v>
-      </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U196">
+        <v>2.05</v>
+      </c>
+      <c r="V196">
         <v>1.8</v>
-      </c>
-      <c r="V196">
-        <v>2.05</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17989,10 +17989,10 @@
         <v>0.5</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T197">
         <v>2.5</v>
@@ -18137,10 +18137,10 @@
         <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="S199">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
         <v>2.5</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143628</v>
+        <v>5143627</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,10 +2758,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2773,31 +2773,31 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.75</v>
@@ -2809,7 +2809,7 @@
         <v>1.875</v>
       </c>
       <c r="W26">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2818,10 +2818,10 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
         <v>0.4875</v>
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143627</v>
+        <v>5143628</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,10 +2847,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2862,31 +2862,31 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -2898,7 +2898,7 @@
         <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2907,10 +2907,10 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>0.4875</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6478386</v>
+        <v>6445249</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,58 +4449,58 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>45</v>
       </c>
       <c r="K45">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6445249</v>
+        <v>6478386</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,58 +4538,58 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
         <v>3.5</v>
       </c>
-      <c r="M46">
-        <v>2.45</v>
-      </c>
       <c r="N46">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>1.8</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>1.9</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>2.1</v>
       </c>
-      <c r="S75">
-        <v>1.775</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>1.45</v>
-      </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,55 +7208,55 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
+        <v>2.75</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
+        <v>2.3</v>
+      </c>
+      <c r="N76">
+        <v>2.875</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
         <v>2.45</v>
       </c>
-      <c r="L76">
-        <v>3.75</v>
-      </c>
-      <c r="M76">
-        <v>2.6</v>
-      </c>
-      <c r="N76">
-        <v>2.05</v>
-      </c>
-      <c r="O76">
-        <v>4.2</v>
-      </c>
-      <c r="P76">
-        <v>3.1</v>
-      </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7265,19 +7265,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17354,76 +17354,76 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N190">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X190">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.925</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
-      <c r="AC190">
-        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17443,67 +17443,67 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L191">
+        <v>3.6</v>
+      </c>
+      <c r="M191">
+        <v>1.75</v>
+      </c>
+      <c r="N191">
+        <v>4.2</v>
+      </c>
+      <c r="O191">
         <v>3.5</v>
       </c>
-      <c r="M191">
-        <v>2.2</v>
-      </c>
-      <c r="N191">
-        <v>3.1</v>
-      </c>
-      <c r="O191">
-        <v>3.4</v>
-      </c>
       <c r="P191">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA191">
         <v>-1</v>
@@ -17512,7 +17512,7 @@
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17915,10 +17915,10 @@
         <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="S196">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T196">
         <v>3</v>
@@ -17989,19 +17989,19 @@
         <v>0.5</v>
       </c>
       <c r="R197">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S197">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -18063,10 +18063,10 @@
         <v>0.5</v>
       </c>
       <c r="R198">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S198">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T198">
         <v>2.75</v>
@@ -18137,19 +18137,19 @@
         <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W199">
         <v>0</v>
@@ -18220,10 +18220,10 @@
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V200">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W200">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>AaB</t>
   </si>
   <si>
-    <t>Odense BK</t>
+    <t>Lyngby</t>
   </si>
   <si>
-    <t>Lyngby</t>
+    <t>Odense BK</t>
   </si>
   <si>
     <t>Silkeborg IF</t>
@@ -124,10 +124,10 @@
     <t>FC Nordsjaelland</t>
   </si>
   <si>
-    <t>AC Horsens</t>
+    <t>Randers FC</t>
   </si>
   <si>
-    <t>Randers FC</t>
+    <t>AC Horsens</t>
   </si>
   <si>
     <t>FC Copenhagen</t>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5143696</v>
+        <v>5143697</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5143697</v>
+        <v>5143696</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
+        <v>2.2</v>
+      </c>
+      <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>2.1</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
         <v>3.3</v>
       </c>
-      <c r="L4">
-        <v>3.6</v>
-      </c>
-      <c r="M4">
+      <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.85</v>
+      </c>
+      <c r="S4">
         <v>2</v>
-      </c>
-      <c r="N4">
-        <v>4.2</v>
-      </c>
-      <c r="O4">
-        <v>3.75</v>
-      </c>
-      <c r="P4">
-        <v>1.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.75</v>
-      </c>
-      <c r="R4">
-        <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5143701</v>
+        <v>5143716</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
+        <v>3.75</v>
+      </c>
+      <c r="N9">
         <v>1.909</v>
       </c>
-      <c r="N9">
-        <v>3.4</v>
-      </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5143716</v>
+        <v>5143701</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>3.6</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
+        <v>3.4</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>2.1</v>
+      </c>
+      <c r="Q10">
+        <v>0.25</v>
+      </c>
+      <c r="R10">
+        <v>2.025</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="L10">
-        <v>3.75</v>
-      </c>
-      <c r="M10">
-        <v>3.75</v>
-      </c>
-      <c r="N10">
-        <v>1.909</v>
-      </c>
-      <c r="O10">
-        <v>3.75</v>
-      </c>
-      <c r="P10">
-        <v>3.8</v>
-      </c>
-      <c r="Q10">
-        <v>-0.5</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>44990.5</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2049,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>44995.625</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5143769</v>
+        <v>5143708</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N21">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y21">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA21">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5143708</v>
+        <v>5143769</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,76 +2402,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N22">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P22">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z22">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>44997.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2669,7 +2669,7 @@
         <v>44998.625</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143627</v>
+        <v>5143628</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,10 +2758,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2773,31 +2773,31 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
         <v>2.75</v>
@@ -2809,7 +2809,7 @@
         <v>1.875</v>
       </c>
       <c r="W26">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2818,10 +2818,10 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>0.4875</v>
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143628</v>
+        <v>5143627</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,10 +2847,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2862,31 +2862,31 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -2898,7 +2898,7 @@
         <v>1.875</v>
       </c>
       <c r="W27">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2907,10 +2907,10 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
         <v>0.4875</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143709</v>
+        <v>5143711</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N28">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
         <v>3.75</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.9</v>
       </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143710</v>
+        <v>5143709</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
         <v>1.8</v>
-      </c>
-      <c r="S29">
-        <v>2.05</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143711</v>
+        <v>5143712</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,61 +3114,61 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
+        <v>3.4</v>
+      </c>
+      <c r="P30">
         <v>3.75</v>
-      </c>
-      <c r="P30">
-        <v>2.875</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
         <v>-1</v>
@@ -3177,13 +3177,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.4375</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143712</v>
+        <v>5143710</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,40 +3203,40 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L31">
         <v>3.4</v>
       </c>
       <c r="M31">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>1.8</v>
@@ -3245,34 +3245,34 @@
         <v>2.05</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6433595</v>
+        <v>6433596</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6433596</v>
+        <v>6433595</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,76 +3470,76 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y34">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3918,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4007,7 +4007,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>45026.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4274,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4538,10 +4538,10 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4805,7 +4805,7 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q51">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5339,10 +5339,10 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
         <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5428,10 +5428,10 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
         <v>4</v>
       </c>
-      <c r="P58">
-        <v>4.5</v>
-      </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6051,7 +6051,7 @@
         <v>45053.375</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6143,7 +6143,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>45053.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6496,7 +6496,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6471205</v>
+        <v>6445253</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,58 +6585,58 @@
         <v>45060.375</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>1.416</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
         <v>1.95</v>
       </c>
-      <c r="S69">
-        <v>1.9</v>
-      </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6645,16 +6645,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6445253</v>
+        <v>6471205</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,58 +6674,58 @@
         <v>45060.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
+        <v>1.416</v>
+      </c>
+      <c r="L70">
+        <v>4.333</v>
+      </c>
+      <c r="M70">
+        <v>6.5</v>
+      </c>
+      <c r="N70">
+        <v>1.363</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+      <c r="P70">
+        <v>9</v>
+      </c>
+      <c r="Q70">
+        <v>-1.5</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>3.75</v>
-      </c>
-      <c r="N70">
-        <v>1.909</v>
-      </c>
-      <c r="O70">
-        <v>3.6</v>
-      </c>
-      <c r="P70">
-        <v>4.2</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.9</v>
-      </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.975</v>
-      </c>
-      <c r="V70">
-        <v>1.875</v>
-      </c>
       <c r="W70">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6734,16 +6734,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7030,7 +7030,7 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
+        <v>2.75</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
+        <v>2.875</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
         <v>2.45</v>
       </c>
-      <c r="L75">
-        <v>3.75</v>
-      </c>
-      <c r="M75">
-        <v>2.6</v>
-      </c>
-      <c r="N75">
-        <v>2.05</v>
-      </c>
-      <c r="O75">
-        <v>4.2</v>
-      </c>
-      <c r="P75">
-        <v>3.1</v>
-      </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,76 +7208,76 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>2.1</v>
       </c>
-      <c r="S76">
-        <v>1.775</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>1.45</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7564,10 +7564,10 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8009,7 +8009,7 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6478390</v>
+        <v>6471209</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
         <v>31</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M86">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
+        <v>2.02</v>
+      </c>
+      <c r="S86">
+        <v>1.88</v>
+      </c>
+      <c r="T86">
+        <v>3.25</v>
+      </c>
+      <c r="U86">
         <v>1.825</v>
       </c>
-      <c r="S86">
+      <c r="V86">
         <v>2.025</v>
       </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6471209</v>
+        <v>6478390</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45080.375</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L87">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N87">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8368,7 +8368,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,55 +8454,55 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N90">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O90">
         <v>4</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N91">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
         <v>4</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8603,16 +8603,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -8988,10 +8988,10 @@
         <v>45130.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9258,7 +9258,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
@@ -9614,7 +9614,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9881,7 +9881,7 @@
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10056,7 +10056,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10234,7 +10234,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,16 +10412,16 @@
         <v>45151.375</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J112" t="s">
         <v>43</v>
@@ -10436,31 +10436,31 @@
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>3.8</v>
+      </c>
+      <c r="O112">
+        <v>3.75</v>
+      </c>
+      <c r="P112">
+        <v>1.95</v>
+      </c>
+      <c r="Q112">
+        <v>0.5</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
         <v>3</v>
       </c>
-      <c r="O112">
-        <v>3.4</v>
-      </c>
-      <c r="P112">
-        <v>2.375</v>
-      </c>
-      <c r="Q112">
-        <v>0.25</v>
-      </c>
-      <c r="R112">
-        <v>1.88</v>
-      </c>
-      <c r="S112">
-        <v>2.02</v>
-      </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10469,16 +10469,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,16 +10501,16 @@
         <v>45151.375</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
@@ -10525,31 +10525,31 @@
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10558,16 +10558,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -11035,10 +11035,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>45158.625</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11391,7 +11391,7 @@
         <v>45163.5625</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>34</v>
@@ -11572,7 +11572,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12640,7 +12640,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12729,7 +12729,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -12993,7 +12993,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13260,7 +13260,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13352,7 +13352,7 @@
         <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,67 +13616,67 @@
         <v>45200.375</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M148">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N148">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13685,7 +13685,7 @@
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,67 +13705,67 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K149">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13774,7 +13774,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13972,10 +13972,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
         <v>30</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>5</v>
@@ -14138,7 +14138,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14150,49 +14150,49 @@
         <v>45207.375</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
         <v>4.2</v>
       </c>
-      <c r="M154">
-        <v>6</v>
-      </c>
       <c r="N154">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14201,25 +14201,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,49 +14239,49 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
         <v>2.025</v>
@@ -14290,25 +14290,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>1</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.825</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>1.025</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14773,7 +14773,7 @@
         <v>45221.375</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14951,7 +14951,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -15040,7 +15040,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15399,7 +15399,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15577,7 +15577,7 @@
         <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15663,10 +15663,10 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
         <v>31</v>
-      </c>
-      <c r="G171" t="s">
-        <v>30</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,58 +15752,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
+        <v>1.35</v>
+      </c>
+      <c r="L172">
+        <v>5</v>
+      </c>
+      <c r="M172">
+        <v>8</v>
+      </c>
+      <c r="N172">
+        <v>1.3</v>
+      </c>
+      <c r="O172">
+        <v>5.25</v>
+      </c>
+      <c r="P172">
+        <v>10</v>
+      </c>
+      <c r="Q172">
+        <v>-1.5</v>
+      </c>
+      <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="L172">
-        <v>3.5</v>
-      </c>
-      <c r="M172">
-        <v>2.25</v>
-      </c>
-      <c r="N172">
-        <v>2.55</v>
-      </c>
-      <c r="O172">
-        <v>3.5</v>
-      </c>
-      <c r="P172">
-        <v>2.7</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>1.82</v>
-      </c>
-      <c r="S172">
-        <v>2.08</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15812,16 +15812,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,58 +15841,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N173">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q173">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>45235.5</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16200,7 +16200,7 @@
         <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16378,7 +16378,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>42</v>
@@ -16998,10 +16998,10 @@
         <v>45256.5</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -17265,7 +17265,7 @@
         <v>45261.625</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
         <v>41</v>
@@ -17354,7 +17354,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
         <v>32</v>
@@ -17443,7 +17443,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>35</v>
@@ -17802,7 +17802,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17891,7 +17891,16 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196" t="s">
+        <v>45</v>
       </c>
       <c r="K196">
         <v>1.533</v>
@@ -17903,46 +17912,52 @@
         <v>5</v>
       </c>
       <c r="N196">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P196">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q196">
         <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>3</v>
       </c>
       <c r="U196">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB196">
+        <v>0.95</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17965,7 +17980,16 @@
         <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>3</v>
+      </c>
+      <c r="J197" t="s">
+        <v>43</v>
       </c>
       <c r="K197">
         <v>3.3</v>
@@ -17977,22 +18001,22 @@
         <v>2.05</v>
       </c>
       <c r="N197">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
+        <v>1.8</v>
+      </c>
+      <c r="Q197">
+        <v>0.75</v>
+      </c>
+      <c r="R197">
+        <v>1.85</v>
+      </c>
+      <c r="S197">
         <v>2</v>
-      </c>
-      <c r="Q197">
-        <v>0.5</v>
-      </c>
-      <c r="R197">
-        <v>1.93</v>
-      </c>
-      <c r="S197">
-        <v>1.97</v>
       </c>
       <c r="T197">
         <v>2.5</v>
@@ -18004,19 +18028,25 @@
         <v>1.95</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB197">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18041,6 +18071,15 @@
       <c r="G198" t="s">
         <v>38</v>
       </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" t="s">
+        <v>43</v>
+      </c>
       <c r="K198">
         <v>3.4</v>
       </c>
@@ -18051,46 +18090,52 @@
         <v>2</v>
       </c>
       <c r="N198">
+        <v>4.333</v>
+      </c>
+      <c r="O198">
         <v>4</v>
       </c>
-      <c r="O198">
-        <v>3.8</v>
-      </c>
       <c r="P198">
+        <v>1.75</v>
+      </c>
+      <c r="Q198">
+        <v>0.75</v>
+      </c>
+      <c r="R198">
         <v>1.85</v>
       </c>
-      <c r="Q198">
-        <v>0.5</v>
-      </c>
-      <c r="R198">
-        <v>2.02</v>
-      </c>
       <c r="S198">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB198">
+        <v>0.45</v>
+      </c>
+      <c r="AC198">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18115,6 +18160,15 @@
       <c r="G199" t="s">
         <v>40</v>
       </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>45</v>
+      </c>
       <c r="K199">
         <v>2.25</v>
       </c>
@@ -18125,7 +18179,7 @@
         <v>2.9</v>
       </c>
       <c r="N199">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O199">
         <v>3.6</v>
@@ -18134,37 +18188,43 @@
         <v>2.8</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="S199">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18199,31 +18259,31 @@
         <v>1.9</v>
       </c>
       <c r="N200">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O200">
         <v>3.3</v>
       </c>
       <c r="P200">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q200">
         <v>0.5</v>
       </c>
       <c r="R200">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S200">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W200">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5143704</v>
+        <v>5143705</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,73 +1779,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5143705</v>
+        <v>5143704</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L16">
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143628</v>
+        <v>5143712</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q26">
         <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143627</v>
+        <v>5143711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,76 +2847,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N27">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q27">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB27">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143711</v>
+        <v>5143710</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143709</v>
+        <v>5143627</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,58 +3025,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M29">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N29">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>0.833</v>
+        <v>0.333</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
+        <v>0.825</v>
+      </c>
+      <c r="AB29">
+        <v>0.4875</v>
+      </c>
+      <c r="AC29">
         <v>-0.5</v>
-      </c>
-      <c r="AB29">
-        <v>-1</v>
-      </c>
-      <c r="AC29">
-        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143712</v>
+        <v>5143709</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,76 +3114,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
+        <v>2.05</v>
+      </c>
+      <c r="S30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>2.05</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA30">
         <v>-0.5</v>
       </c>
-      <c r="AA30">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143710</v>
+        <v>5143628</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,76 +3203,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
         <v>3.5</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45026.375</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45026.375</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
         <v>4</v>
       </c>
-      <c r="P57">
-        <v>4.5</v>
-      </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45053.375</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
+        <v>2.025</v>
+      </c>
+      <c r="S63">
         <v>1.825</v>
       </c>
-      <c r="S63">
-        <v>2.025</v>
-      </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
         <v>0.825</v>
       </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45053.375</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
+        <v>3.1</v>
+      </c>
+      <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
+        <v>2.2</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <v>0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.825</v>
+      </c>
+      <c r="S64">
+        <v>2.025</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
         <v>1.9</v>
       </c>
-      <c r="L64">
-        <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>3.6</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-      <c r="O64">
-        <v>3.8</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>2.025</v>
-      </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
-      <c r="T64">
+      <c r="V64">
+        <v>1.95</v>
+      </c>
+      <c r="W64">
         <v>3</v>
       </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6445253</v>
+        <v>6471205</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,58 +6585,58 @@
         <v>45060.375</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
+        <v>1.416</v>
+      </c>
+      <c r="L69">
+        <v>4.333</v>
+      </c>
+      <c r="M69">
+        <v>6.5</v>
+      </c>
+      <c r="N69">
+        <v>1.363</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>9</v>
+      </c>
+      <c r="Q69">
+        <v>-1.5</v>
+      </c>
+      <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="L69">
-        <v>3.6</v>
-      </c>
-      <c r="M69">
-        <v>3.75</v>
-      </c>
-      <c r="N69">
-        <v>1.909</v>
-      </c>
-      <c r="O69">
-        <v>3.6</v>
-      </c>
-      <c r="P69">
-        <v>4.2</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.9</v>
-      </c>
-      <c r="S69">
-        <v>1.95</v>
-      </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.975</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6645,16 +6645,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6471205</v>
+        <v>6445253</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,58 +6674,58 @@
         <v>45060.375</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.416</v>
+        <v>1.85</v>
       </c>
       <c r="L70">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
         <v>1.95</v>
       </c>
-      <c r="S70">
-        <v>1.9</v>
-      </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6734,16 +6734,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M81">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6471209</v>
+        <v>6478390</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6478390</v>
+        <v>6471209</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45080.375</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
+        <v>2.02</v>
+      </c>
+      <c r="S87">
+        <v>1.88</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
         <v>1.825</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>2.025</v>
       </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45081.5</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N89">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O89">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,55 +8454,55 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N90">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O90">
         <v>4</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6438715</v>
+        <v>6439098</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,61 +8543,61 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
+        <v>1.333</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>7.5</v>
+      </c>
+      <c r="N91">
+        <v>1.25</v>
+      </c>
+      <c r="O91">
+        <v>6.5</v>
+      </c>
+      <c r="P91">
+        <v>10</v>
+      </c>
+      <c r="Q91">
+        <v>-2</v>
+      </c>
+      <c r="R91">
+        <v>2.025</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
+        <v>3.75</v>
+      </c>
+      <c r="U91">
         <v>2</v>
       </c>
-      <c r="L91">
-        <v>3.5</v>
-      </c>
-      <c r="M91">
-        <v>3.25</v>
-      </c>
-      <c r="N91">
-        <v>1.666</v>
-      </c>
-      <c r="O91">
-        <v>4</v>
-      </c>
-      <c r="P91">
-        <v>4.75</v>
-      </c>
-      <c r="Q91">
-        <v>-0.75</v>
-      </c>
-      <c r="R91">
+      <c r="V91">
         <v>1.85</v>
       </c>
-      <c r="S91">
-        <v>2</v>
-      </c>
-      <c r="T91">
-        <v>2.75</v>
-      </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8606,13 +8606,13 @@
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45193.375</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45193.375</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,67 +13616,67 @@
         <v>45200.375</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13685,7 +13685,7 @@
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,67 +13705,67 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N149">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13774,7 +13774,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14138,7 +14138,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14150,49 +14150,49 @@
         <v>45207.375</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14201,25 +14201,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>1.025</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,49 +14239,49 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
         <v>4.2</v>
       </c>
-      <c r="M155">
-        <v>6</v>
-      </c>
       <c r="N155">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>2.025</v>
@@ -14290,25 +14290,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17354,67 +17354,67 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K190">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>1.75</v>
+      </c>
+      <c r="N190">
+        <v>4.2</v>
+      </c>
+      <c r="O190">
         <v>3.5</v>
       </c>
-      <c r="M190">
-        <v>2.2</v>
-      </c>
-      <c r="N190">
-        <v>3.1</v>
-      </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
       <c r="P190">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA190">
         <v>-1</v>
@@ -17423,7 +17423,7 @@
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17443,76 +17443,76 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K191">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N191">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.925</v>
-      </c>
-      <c r="AA191">
-        <v>-1</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
-      <c r="AC191">
-        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17876,7 +17876,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6779681</v>
+        <v>6779678</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17888,40 +17888,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
         <v>3</v>
       </c>
-      <c r="I196">
-        <v>2</v>
-      </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L196">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N196">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O196">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P196">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R196">
         <v>1.85</v>
@@ -17930,31 +17930,31 @@
         <v>2</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
+        <v>1.9</v>
+      </c>
+      <c r="V196">
         <v>1.95</v>
       </c>
-      <c r="V196">
-        <v>1.9</v>
-      </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6779678</v>
+        <v>6779681</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,40 +17977,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M197">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N197">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P197">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q197">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R197">
         <v>1.85</v>
@@ -18019,31 +18019,31 @@
         <v>2</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U197">
+        <v>1.95</v>
+      </c>
+      <c r="V197">
         <v>1.9</v>
       </c>
-      <c r="V197">
-        <v>1.95</v>
-      </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18249,6 +18249,15 @@
       <c r="G200" t="s">
         <v>39</v>
       </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>44</v>
+      </c>
       <c r="K200">
         <v>3.8</v>
       </c>
@@ -18259,45 +18268,495 @@
         <v>1.9</v>
       </c>
       <c r="N200">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P200">
+        <v>2.25</v>
+      </c>
+      <c r="Q200">
+        <v>0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.92</v>
+      </c>
+      <c r="S200">
+        <v>1.98</v>
+      </c>
+      <c r="T200">
+        <v>1.75</v>
+      </c>
+      <c r="U200">
+        <v>1.775</v>
+      </c>
+      <c r="V200">
+        <v>2.1</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>2</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
+        <v>0.46</v>
+      </c>
+      <c r="AA200">
+        <v>-0.5</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6779685</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45345.625</v>
+      </c>
+      <c r="F201" t="s">
+        <v>36</v>
+      </c>
+      <c r="G201" t="s">
+        <v>30</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>3.5</v>
+      </c>
+      <c r="M201">
+        <v>3.5</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201">
+        <v>3.5</v>
+      </c>
+      <c r="P201">
+        <v>3.7</v>
+      </c>
+      <c r="Q201">
+        <v>-0.5</v>
+      </c>
+      <c r="R201">
         <v>2.05</v>
       </c>
-      <c r="Q200">
+      <c r="S201">
+        <v>1.85</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
+        <v>1.85</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6780974</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>42</v>
+      </c>
+      <c r="G202" t="s">
+        <v>34</v>
+      </c>
+      <c r="K202">
+        <v>4</v>
+      </c>
+      <c r="L202">
+        <v>3.7</v>
+      </c>
+      <c r="M202">
+        <v>1.833</v>
+      </c>
+      <c r="N202">
+        <v>4</v>
+      </c>
+      <c r="O202">
+        <v>3.75</v>
+      </c>
+      <c r="P202">
+        <v>1.85</v>
+      </c>
+      <c r="Q202">
         <v>0.5</v>
       </c>
-      <c r="R200">
+      <c r="R202">
+        <v>2.02</v>
+      </c>
+      <c r="S202">
+        <v>1.88</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
+        <v>2.025</v>
+      </c>
+      <c r="V202">
+        <v>1.825</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6779686</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>41</v>
+      </c>
+      <c r="G203" t="s">
+        <v>32</v>
+      </c>
+      <c r="K203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>2.3</v>
+      </c>
+      <c r="N203">
+        <v>2.9</v>
+      </c>
+      <c r="O203">
+        <v>3.4</v>
+      </c>
+      <c r="P203">
+        <v>2.375</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
         <v>1.83</v>
       </c>
-      <c r="S200">
+      <c r="S203">
         <v>2.07</v>
       </c>
-      <c r="T200">
+      <c r="T203">
         <v>2.25</v>
       </c>
-      <c r="U200">
-        <v>2.1</v>
-      </c>
-      <c r="V200">
-        <v>1.775</v>
-      </c>
-      <c r="W200">
+      <c r="U203">
+        <v>1.8</v>
+      </c>
+      <c r="V203">
+        <v>2.05</v>
+      </c>
+      <c r="W203">
         <v>0</v>
       </c>
-      <c r="X200">
+      <c r="X203">
         <v>0</v>
       </c>
-      <c r="Y200">
+      <c r="Y203">
         <v>0</v>
       </c>
-      <c r="Z200">
+      <c r="Z203">
         <v>0</v>
       </c>
-      <c r="AA200">
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6779684</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="F204" t="s">
+        <v>31</v>
+      </c>
+      <c r="G204" t="s">
+        <v>33</v>
+      </c>
+      <c r="K204">
+        <v>3.6</v>
+      </c>
+      <c r="L204">
+        <v>3.5</v>
+      </c>
+      <c r="M204">
+        <v>1.95</v>
+      </c>
+      <c r="N204">
+        <v>3.75</v>
+      </c>
+      <c r="O204">
+        <v>3.5</v>
+      </c>
+      <c r="P204">
+        <v>1.95</v>
+      </c>
+      <c r="Q204">
+        <v>0.5</v>
+      </c>
+      <c r="R204">
+        <v>1.89</v>
+      </c>
+      <c r="S204">
+        <v>2.01</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
+        <v>1.875</v>
+      </c>
+      <c r="V204">
+        <v>1.975</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6779682</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45347.58333333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>39</v>
+      </c>
+      <c r="G205" t="s">
+        <v>40</v>
+      </c>
+      <c r="K205">
+        <v>2.8</v>
+      </c>
+      <c r="L205">
+        <v>3.4</v>
+      </c>
+      <c r="M205">
+        <v>2.35</v>
+      </c>
+      <c r="N205">
+        <v>2.8</v>
+      </c>
+      <c r="O205">
+        <v>3.5</v>
+      </c>
+      <c r="P205">
+        <v>2.4</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>2.11</v>
+      </c>
+      <c r="S205">
+        <v>1.79</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
+        <v>2</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6779683</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45348.625</v>
+      </c>
+      <c r="F206" t="s">
+        <v>38</v>
+      </c>
+      <c r="G206" t="s">
+        <v>35</v>
+      </c>
+      <c r="K206">
+        <v>1.85</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>4</v>
+      </c>
+      <c r="N206">
+        <v>1.85</v>
+      </c>
+      <c r="O206">
+        <v>3.75</v>
+      </c>
+      <c r="P206">
+        <v>4</v>
+      </c>
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>1.91</v>
+      </c>
+      <c r="S206">
+        <v>1.99</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.975</v>
+      </c>
+      <c r="V206">
+        <v>1.875</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143712</v>
+        <v>5143711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,61 +2758,61 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
         <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2821,13 +2821,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.5249999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC26">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143711</v>
+        <v>5143628</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,76 +2847,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
         <v>1.975</v>
-      </c>
-      <c r="S27">
-        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.875</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
+        <v>0.4875</v>
+      </c>
+      <c r="AC27">
         <v>-0.5</v>
-      </c>
-      <c r="AA27">
-        <v>0.4375</v>
-      </c>
-      <c r="AB27">
-        <v>0.95</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143627</v>
+        <v>5143709</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,58 +3025,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.333</v>
+        <v>0.833</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143709</v>
+        <v>5143627</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,58 +3114,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>45</v>
       </c>
       <c r="K30">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M30">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N30">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>0.833</v>
+        <v>0.333</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.825</v>
+      </c>
+      <c r="AB30">
+        <v>0.4875</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
-      </c>
-      <c r="AC30">
-        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143628</v>
+        <v>5143712</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,76 +3203,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB31">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6433596</v>
+        <v>6433595</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y33">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6433595</v>
+        <v>6433596</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,76 +3470,76 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N34">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
         <v>4</v>
       </c>
-      <c r="P58">
-        <v>4.5</v>
-      </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6471205</v>
+        <v>6445253</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,58 +6585,58 @@
         <v>45060.375</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>1.416</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
         <v>1.95</v>
       </c>
-      <c r="S69">
-        <v>1.9</v>
-      </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6645,16 +6645,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6445253</v>
+        <v>6471205</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,58 +6674,58 @@
         <v>45060.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
+        <v>1.416</v>
+      </c>
+      <c r="L70">
+        <v>4.333</v>
+      </c>
+      <c r="M70">
+        <v>6.5</v>
+      </c>
+      <c r="N70">
+        <v>1.363</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+      <c r="P70">
+        <v>9</v>
+      </c>
+      <c r="Q70">
+        <v>-1.5</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>3.75</v>
-      </c>
-      <c r="N70">
-        <v>1.909</v>
-      </c>
-      <c r="O70">
-        <v>3.6</v>
-      </c>
-      <c r="P70">
-        <v>4.2</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.9</v>
-      </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.975</v>
-      </c>
-      <c r="V70">
-        <v>1.875</v>
-      </c>
       <c r="W70">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6734,16 +6734,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L81">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M82">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L86">
+        <v>3.7</v>
+      </c>
+      <c r="M86">
         <v>3.5</v>
       </c>
-      <c r="M86">
-        <v>2.4</v>
-      </c>
       <c r="N86">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6445256</v>
+        <v>6478390</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="L88">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9299999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45081.5</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>7.5</v>
+      </c>
+      <c r="N89">
+        <v>1.25</v>
+      </c>
+      <c r="O89">
+        <v>6.5</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-2</v>
+      </c>
+      <c r="R89">
+        <v>2.025</v>
+      </c>
+      <c r="S89">
+        <v>1.825</v>
+      </c>
+      <c r="T89">
         <v>3.75</v>
       </c>
-      <c r="M89">
-        <v>2.75</v>
-      </c>
-      <c r="N89">
-        <v>2.05</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
       <c r="U89">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,55 +8454,55 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N90">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O90">
         <v>4</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6439098</v>
+        <v>6438715</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,61 +8543,61 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N91">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8606,13 +8606,13 @@
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45193.375</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45193.375</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N143">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -14138,7 +14138,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14150,49 +14150,49 @@
         <v>45207.375</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
         <v>4.2</v>
       </c>
-      <c r="M154">
-        <v>6</v>
-      </c>
       <c r="N154">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14201,25 +14201,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,49 +14239,49 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
         <v>2.025</v>
@@ -14290,25 +14290,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>1</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.825</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>1.025</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -18369,10 +18369,10 @@
         <v>2.5</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18434,10 +18434,10 @@
         <v>0.5</v>
       </c>
       <c r="R202">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S202">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T202">
         <v>2.75</v>
@@ -18653,22 +18653,22 @@
         <v>2.4</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="S205">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18718,22 +18718,22 @@
         <v>4</v>
       </c>
       <c r="N206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O206">
         <v>3.75</v>
       </c>
       <c r="P206">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S206">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>2.75</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -106,10 +106,10 @@
     <t>AaB</t>
   </si>
   <si>
-    <t>Lyngby</t>
+    <t>Odense BK</t>
   </si>
   <si>
-    <t>Odense BK</t>
+    <t>Lyngby</t>
   </si>
   <si>
     <t>Silkeborg IF</t>
@@ -124,10 +124,10 @@
     <t>FC Nordsjaelland</t>
   </si>
   <si>
-    <t>Randers FC</t>
+    <t>AC Horsens</t>
   </si>
   <si>
-    <t>AC Horsens</t>
+    <t>Randers FC</t>
   </si>
   <si>
     <t>FC Copenhagen</t>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5143697</v>
+        <v>5143696</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
+        <v>2.2</v>
+      </c>
+      <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2.1</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
         <v>3.3</v>
       </c>
-      <c r="L3">
-        <v>3.6</v>
-      </c>
-      <c r="M3">
+      <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
         <v>2</v>
-      </c>
-      <c r="N3">
-        <v>4.2</v>
-      </c>
-      <c r="O3">
-        <v>3.75</v>
-      </c>
-      <c r="P3">
-        <v>1.8</v>
-      </c>
-      <c r="Q3">
-        <v>0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2.05</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5143696</v>
+        <v>5143697</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5143716</v>
+        <v>5143701</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
+        <v>3.4</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
+        <v>2.1</v>
+      </c>
+      <c r="Q9">
+        <v>0.25</v>
+      </c>
+      <c r="R9">
+        <v>2.025</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="L9">
-        <v>3.75</v>
-      </c>
-      <c r="M9">
-        <v>3.75</v>
-      </c>
-      <c r="N9">
-        <v>1.909</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>3.8</v>
-      </c>
-      <c r="Q9">
-        <v>-0.5</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.975</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5143701</v>
+        <v>5143716</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
+        <v>3.75</v>
+      </c>
+      <c r="N10">
         <v>1.909</v>
       </c>
-      <c r="N10">
-        <v>3.4</v>
-      </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1782,7 +1782,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>44990.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2049,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>44995.625</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5143708</v>
+        <v>5143769</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z21">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5143769</v>
+        <v>5143708</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,76 +2402,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N22">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y22">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA22">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>44997.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2669,7 +2669,7 @@
         <v>44998.625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143711</v>
+        <v>5143627</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X26">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>0.825</v>
+      </c>
+      <c r="AB26">
+        <v>0.4875</v>
+      </c>
+      <c r="AC26">
         <v>-0.5</v>
-      </c>
-      <c r="AA26">
-        <v>0.4375</v>
-      </c>
-      <c r="AB26">
-        <v>0.95</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143710</v>
+        <v>5143709</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143709</v>
+        <v>5143710</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>2.55</v>
+      </c>
+      <c r="L29">
+        <v>3.4</v>
+      </c>
+      <c r="M29">
+        <v>2.6</v>
+      </c>
+      <c r="N29">
+        <v>2.375</v>
+      </c>
+      <c r="O29">
+        <v>3.5</v>
+      </c>
+      <c r="P29">
+        <v>2.8</v>
+      </c>
+      <c r="Q29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29">
-        <v>1.95</v>
-      </c>
-      <c r="L29">
-        <v>3.5</v>
-      </c>
-      <c r="M29">
-        <v>3.8</v>
-      </c>
-      <c r="N29">
-        <v>1.833</v>
-      </c>
-      <c r="O29">
-        <v>3.75</v>
-      </c>
-      <c r="P29">
-        <v>4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.75</v>
-      </c>
       <c r="R29">
+        <v>1.8</v>
+      </c>
+      <c r="S29">
         <v>2.05</v>
-      </c>
-      <c r="S29">
-        <v>1.8</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z29">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143627</v>
+        <v>5143712</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,76 +3114,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N30">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB30">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143712</v>
+        <v>5143711</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,61 +3203,61 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>44</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3266,13 +3266,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.5249999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3381,7 +3381,7 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3470,7 +3470,7 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -3740,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45026.375</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45026.375</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>45026.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4274,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4538,10 +4538,10 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4805,7 +4805,7 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N52">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q52">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5339,10 +5339,10 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5428,10 +5428,10 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
         <v>4</v>
       </c>
-      <c r="P57">
-        <v>4.5</v>
-      </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6054,7 +6054,7 @@
         <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>45053.375</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6229,7 +6229,7 @@
         <v>45053.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6496,7 +6496,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6445253</v>
+        <v>6471205</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,58 +6585,58 @@
         <v>45060.375</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
+        <v>1.416</v>
+      </c>
+      <c r="L69">
+        <v>4.333</v>
+      </c>
+      <c r="M69">
+        <v>6.5</v>
+      </c>
+      <c r="N69">
+        <v>1.363</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>9</v>
+      </c>
+      <c r="Q69">
+        <v>-1.5</v>
+      </c>
+      <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="L69">
-        <v>3.6</v>
-      </c>
-      <c r="M69">
-        <v>3.75</v>
-      </c>
-      <c r="N69">
-        <v>1.909</v>
-      </c>
-      <c r="O69">
-        <v>3.6</v>
-      </c>
-      <c r="P69">
-        <v>4.2</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.9</v>
-      </c>
-      <c r="S69">
-        <v>1.95</v>
-      </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.975</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6645,16 +6645,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6471205</v>
+        <v>6445253</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,58 +6674,58 @@
         <v>45060.375</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.416</v>
+        <v>1.85</v>
       </c>
       <c r="L70">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
         <v>1.95</v>
       </c>
-      <c r="S70">
-        <v>1.9</v>
-      </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6734,16 +6734,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7030,7 +7030,7 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7208,10 +7208,10 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
         <v>30</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7564,10 +7564,10 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M81">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8190,7 +8190,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -8276,10 +8276,10 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45081.5</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N89">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O89">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,76 +8454,76 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>7.5</v>
+      </c>
+      <c r="N90">
+        <v>1.25</v>
+      </c>
+      <c r="O90">
+        <v>6.5</v>
+      </c>
+      <c r="P90">
+        <v>10</v>
+      </c>
+      <c r="Q90">
+        <v>-2</v>
+      </c>
+      <c r="R90">
+        <v>2.025</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
         <v>3.75</v>
       </c>
-      <c r="M90">
-        <v>2.75</v>
-      </c>
-      <c r="N90">
-        <v>2.05</v>
-      </c>
-      <c r="O90">
-        <v>4</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.875</v>
-      </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -8988,10 +8988,10 @@
         <v>45130.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9258,7 +9258,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
@@ -9614,7 +9614,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9881,7 +9881,7 @@
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10056,7 +10056,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10234,7 +10234,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,16 +10412,16 @@
         <v>45151.375</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>43</v>
@@ -10436,31 +10436,31 @@
         <v>1.909</v>
       </c>
       <c r="N112">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10469,16 +10469,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,16 +10501,16 @@
         <v>45151.375</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
@@ -10525,31 +10525,31 @@
         <v>1.909</v>
       </c>
       <c r="N113">
+        <v>3.8</v>
+      </c>
+      <c r="O113">
+        <v>3.75</v>
+      </c>
+      <c r="P113">
+        <v>1.95</v>
+      </c>
+      <c r="Q113">
+        <v>0.5</v>
+      </c>
+      <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
         <v>3</v>
       </c>
-      <c r="O113">
-        <v>3.4</v>
-      </c>
-      <c r="P113">
-        <v>2.375</v>
-      </c>
-      <c r="Q113">
-        <v>0.25</v>
-      </c>
-      <c r="R113">
-        <v>1.88</v>
-      </c>
-      <c r="S113">
-        <v>2.02</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10558,16 +10558,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -11035,10 +11035,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>45158.625</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11391,7 +11391,7 @@
         <v>45163.5625</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>34</v>
@@ -11572,7 +11572,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12014,7 +12014,7 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>35</v>
@@ -12195,7 +12195,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12640,7 +12640,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12729,7 +12729,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -12993,7 +12993,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13260,7 +13260,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13352,7 +13352,7 @@
         <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,67 +13616,67 @@
         <v>45200.375</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M148">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N148">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13685,7 +13685,7 @@
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,67 +13705,67 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K149">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13774,7 +13774,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13972,10 +13972,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" t="s">
         <v>31</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>5</v>
@@ -14138,7 +14138,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14150,49 +14150,49 @@
         <v>45207.375</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14201,25 +14201,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>1.025</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,49 +14239,49 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
         <v>4.2</v>
       </c>
-      <c r="M155">
-        <v>6</v>
-      </c>
       <c r="N155">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>2.025</v>
@@ -14290,25 +14290,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14773,7 +14773,7 @@
         <v>45221.375</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14951,7 +14951,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -15040,7 +15040,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15399,7 +15399,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15577,7 +15577,7 @@
         <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15663,10 +15663,10 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F171" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" t="s">
         <v>30</v>
-      </c>
-      <c r="G171" t="s">
-        <v>31</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,58 +15752,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>1</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N172">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q172">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15812,16 +15812,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,58 +15841,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
+        <v>1.35</v>
+      </c>
+      <c r="L173">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>8</v>
+      </c>
+      <c r="N173">
+        <v>1.3</v>
+      </c>
+      <c r="O173">
+        <v>5.25</v>
+      </c>
+      <c r="P173">
+        <v>10</v>
+      </c>
+      <c r="Q173">
+        <v>-1.5</v>
+      </c>
+      <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="L173">
-        <v>3.5</v>
-      </c>
-      <c r="M173">
-        <v>2.25</v>
-      </c>
-      <c r="N173">
-        <v>2.55</v>
-      </c>
-      <c r="O173">
-        <v>3.5</v>
-      </c>
-      <c r="P173">
-        <v>2.7</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>1.82</v>
-      </c>
-      <c r="S173">
-        <v>2.08</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>45235.5</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16200,7 +16200,7 @@
         <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16378,7 +16378,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>42</v>
@@ -16998,10 +16998,10 @@
         <v>45256.5</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -17265,7 +17265,7 @@
         <v>45261.625</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>41</v>
@@ -17354,7 +17354,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
         <v>35</v>
@@ -17443,7 +17443,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>32</v>
@@ -17802,7 +17802,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17891,7 +17891,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17980,7 +17980,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18333,10 +18333,10 @@
         <v>45345.625</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -18354,25 +18354,25 @@
         <v>3.5</v>
       </c>
       <c r="P201">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q201">
         <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T201">
         <v>2.5</v>
       </c>
       <c r="U201">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18508,10 +18508,10 @@
         <v>0.25</v>
       </c>
       <c r="R203">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S203">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T203">
         <v>2.25</v>
@@ -18555,7 +18555,7 @@
         <v>45347.5</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>33</v>
@@ -18644,13 +18644,13 @@
         <v>2.35</v>
       </c>
       <c r="N205">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O205">
         <v>3.5</v>
       </c>
       <c r="P205">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q205">
         <v>0.25</v>
@@ -18665,10 +18665,10 @@
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18730,10 +18730,10 @@
         <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T206">
         <v>2.75</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -106,10 +106,10 @@
     <t>AaB</t>
   </si>
   <si>
-    <t>Odense BK</t>
+    <t>Lyngby</t>
   </si>
   <si>
-    <t>Lyngby</t>
+    <t>Odense BK</t>
   </si>
   <si>
     <t>Silkeborg IF</t>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5143696</v>
+        <v>5143697</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5143697</v>
+        <v>5143696</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
+        <v>2.2</v>
+      </c>
+      <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>2.1</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
         <v>3.3</v>
       </c>
-      <c r="L4">
-        <v>3.6</v>
-      </c>
-      <c r="M4">
+      <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.85</v>
+      </c>
+      <c r="S4">
         <v>2</v>
-      </c>
-      <c r="N4">
-        <v>4.2</v>
-      </c>
-      <c r="O4">
-        <v>3.75</v>
-      </c>
-      <c r="P4">
-        <v>1.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.75</v>
-      </c>
-      <c r="R4">
-        <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>44990.5</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2049,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>44995.625</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5143769</v>
+        <v>5143708</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,76 +2313,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N21">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y21">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA21">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5143708</v>
+        <v>5143769</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,76 +2402,76 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N22">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P22">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z22">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143712</v>
+        <v>5143711</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,61 +3114,61 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y30">
         <v>-1</v>
@@ -3177,13 +3177,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.5249999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143711</v>
+        <v>5143712</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,61 +3203,61 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>44</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O31">
+        <v>3.4</v>
+      </c>
+      <c r="P31">
         <v>3.75</v>
-      </c>
-      <c r="P31">
-        <v>2.875</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3266,13 +3266,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3381,7 +3381,7 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45026.375</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45026.375</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4538,7 +4538,7 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q51">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5339,10 +5339,10 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
         <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
         <v>4</v>
       </c>
-      <c r="P58">
-        <v>4.5</v>
-      </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45053.375</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
+        <v>3.1</v>
+      </c>
+      <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
+        <v>2.2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>0.5</v>
+      </c>
+      <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
+        <v>2.025</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
         <v>1.9</v>
       </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>3.6</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3.8</v>
-      </c>
-      <c r="P63">
-        <v>3.4</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>2.025</v>
-      </c>
-      <c r="S63">
-        <v>1.825</v>
-      </c>
-      <c r="T63">
+      <c r="V63">
+        <v>1.95</v>
+      </c>
+      <c r="W63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45053.375</v>
       </c>
       <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
         <v>31</v>
       </c>
-      <c r="G64" t="s">
-        <v>40</v>
-      </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>2.025</v>
+      </c>
+      <c r="S64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>2.025</v>
-      </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
         <v>0.825</v>
       </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6471205</v>
+        <v>6445253</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,58 +6585,58 @@
         <v>45060.375</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>1.416</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
         <v>1.95</v>
       </c>
-      <c r="S69">
-        <v>1.9</v>
-      </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6645,16 +6645,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6445253</v>
+        <v>6471205</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,58 +6674,58 @@
         <v>45060.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
+        <v>1.416</v>
+      </c>
+      <c r="L70">
+        <v>4.333</v>
+      </c>
+      <c r="M70">
+        <v>6.5</v>
+      </c>
+      <c r="N70">
+        <v>1.363</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+      <c r="P70">
+        <v>9</v>
+      </c>
+      <c r="Q70">
+        <v>-1.5</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>3.75</v>
-      </c>
-      <c r="N70">
-        <v>1.909</v>
-      </c>
-      <c r="O70">
-        <v>3.6</v>
-      </c>
-      <c r="P70">
-        <v>4.2</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.9</v>
-      </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.975</v>
-      </c>
-      <c r="V70">
-        <v>1.875</v>
-      </c>
       <c r="W70">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6734,16 +6734,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,76 +7119,76 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>1.8</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>1.9</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>2.1</v>
       </c>
-      <c r="S75">
-        <v>1.775</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>1.45</v>
-      </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,55 +7208,55 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
+        <v>2.75</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
+        <v>2.3</v>
+      </c>
+      <c r="N76">
+        <v>2.875</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
         <v>2.45</v>
       </c>
-      <c r="L76">
-        <v>3.75</v>
-      </c>
-      <c r="M76">
-        <v>2.6</v>
-      </c>
-      <c r="N76">
-        <v>2.05</v>
-      </c>
-      <c r="O76">
-        <v>4.2</v>
-      </c>
-      <c r="P76">
-        <v>3.1</v>
-      </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7265,19 +7265,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>36</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L81">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M82">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L86">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M86">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S86">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA86">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6471209</v>
+        <v>6478390</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45080.375</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L87">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N87">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L88">
+        <v>3.7</v>
+      </c>
+      <c r="M88">
         <v>3.5</v>
       </c>
-      <c r="M88">
-        <v>2.4</v>
-      </c>
       <c r="N88">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45081.5</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>7.5</v>
+      </c>
+      <c r="N89">
+        <v>1.25</v>
+      </c>
+      <c r="O89">
+        <v>6.5</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-2</v>
+      </c>
+      <c r="R89">
+        <v>2.025</v>
+      </c>
+      <c r="S89">
+        <v>1.825</v>
+      </c>
+      <c r="T89">
         <v>3.75</v>
       </c>
-      <c r="M89">
-        <v>2.75</v>
-      </c>
-      <c r="N89">
-        <v>2.05</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
       <c r="U89">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6439098</v>
+        <v>6438715</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,61 +8454,61 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N90">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="O90">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8517,13 +8517,13 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O91">
         <v>4</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8603,16 +8603,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -8988,7 +8988,7 @@
         <v>45130.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -9258,7 +9258,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9614,7 +9614,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10056,7 +10056,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10234,7 +10234,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,16 +10412,16 @@
         <v>45151.375</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J112" t="s">
         <v>43</v>
@@ -10436,31 +10436,31 @@
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>3.8</v>
+      </c>
+      <c r="O112">
+        <v>3.75</v>
+      </c>
+      <c r="P112">
+        <v>1.95</v>
+      </c>
+      <c r="Q112">
+        <v>0.5</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
         <v>3</v>
       </c>
-      <c r="O112">
-        <v>3.4</v>
-      </c>
-      <c r="P112">
-        <v>2.375</v>
-      </c>
-      <c r="Q112">
-        <v>0.25</v>
-      </c>
-      <c r="R112">
-        <v>1.88</v>
-      </c>
-      <c r="S112">
-        <v>2.02</v>
-      </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10469,16 +10469,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,16 +10501,16 @@
         <v>45151.375</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
@@ -10525,31 +10525,31 @@
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10558,16 +10558,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -11035,7 +11035,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>37</v>
@@ -11213,7 +11213,7 @@
         <v>45158.625</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11572,7 +11572,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45172.375</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -12993,7 +12993,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13352,7 +13352,7 @@
         <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13972,10 +13972,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
         <v>30</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>5</v>
@@ -14153,7 +14153,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>45221.375</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -15040,7 +15040,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15399,7 +15399,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15663,10 +15663,10 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
         <v>31</v>
-      </c>
-      <c r="G171" t="s">
-        <v>30</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -16378,7 +16378,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>42</v>
@@ -17001,7 +17001,7 @@
         <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17357,73 +17357,73 @@
         <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N190">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X190">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.925</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
-      <c r="AC190">
-        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17446,64 +17446,64 @@
         <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L191">
+        <v>3.6</v>
+      </c>
+      <c r="M191">
+        <v>1.75</v>
+      </c>
+      <c r="N191">
+        <v>4.2</v>
+      </c>
+      <c r="O191">
         <v>3.5</v>
       </c>
-      <c r="M191">
-        <v>2.2</v>
-      </c>
-      <c r="N191">
-        <v>3.1</v>
-      </c>
-      <c r="O191">
-        <v>3.4</v>
-      </c>
       <c r="P191">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA191">
         <v>-1</v>
@@ -17512,7 +17512,7 @@
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17802,7 +17802,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17876,7 +17876,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6779678</v>
+        <v>6779681</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17888,40 +17888,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K196">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M196">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N196">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P196">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q196">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
         <v>1.85</v>
@@ -17930,31 +17930,31 @@
         <v>2</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U196">
+        <v>1.95</v>
+      </c>
+      <c r="V196">
         <v>1.9</v>
       </c>
-      <c r="V196">
-        <v>1.95</v>
-      </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB196">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6779681</v>
+        <v>6779678</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,40 +17977,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
         <v>3</v>
       </c>
-      <c r="I197">
-        <v>2</v>
-      </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K197">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N197">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O197">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q197">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
         <v>1.85</v>
@@ -18019,31 +18019,31 @@
         <v>2</v>
       </c>
       <c r="T197">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
+        <v>1.9</v>
+      </c>
+      <c r="V197">
         <v>1.95</v>
       </c>
-      <c r="V197">
-        <v>1.9</v>
-      </c>
       <c r="W197">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18336,7 +18336,7 @@
         <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -18360,19 +18360,19 @@
         <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S201">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T201">
         <v>2.5</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18422,31 +18422,31 @@
         <v>1.833</v>
       </c>
       <c r="N202">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O202">
         <v>3.75</v>
       </c>
       <c r="P202">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="Q202">
         <v>0.5</v>
       </c>
       <c r="R202">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S202">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
+        <v>1.825</v>
+      </c>
+      <c r="V202">
         <v>2.025</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18502,16 +18502,16 @@
         <v>3.4</v>
       </c>
       <c r="P203">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q203">
         <v>0.25</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S203">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="T203">
         <v>2.25</v>
@@ -18555,7 +18555,7 @@
         <v>45347.5</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
         <v>33</v>
@@ -18570,7 +18570,7 @@
         <v>1.95</v>
       </c>
       <c r="N204">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O204">
         <v>3.5</v>
@@ -18582,10 +18582,10 @@
         <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S204">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="T204">
         <v>2.5</v>
@@ -18730,10 +18730,10 @@
         <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S206">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>2.75</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5143705</v>
+        <v>5143704</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,73 +1779,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5143704</v>
+        <v>5143705</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143628</v>
+        <v>5143711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,76 +2847,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
         <v>1.875</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB27">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143709</v>
+        <v>5143710</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>2.55</v>
+      </c>
+      <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <v>2.375</v>
+      </c>
+      <c r="O28">
+        <v>3.5</v>
+      </c>
+      <c r="P28">
+        <v>2.8</v>
+      </c>
+      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28">
-        <v>1.95</v>
-      </c>
-      <c r="L28">
-        <v>3.5</v>
-      </c>
-      <c r="M28">
-        <v>3.8</v>
-      </c>
-      <c r="N28">
-        <v>1.833</v>
-      </c>
-      <c r="O28">
-        <v>3.75</v>
-      </c>
-      <c r="P28">
-        <v>4</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
       <c r="R28">
+        <v>1.8</v>
+      </c>
+      <c r="S28">
         <v>2.05</v>
-      </c>
-      <c r="S28">
-        <v>1.8</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z28">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143710</v>
+        <v>5143712</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,40 +3025,40 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N29">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
         <v>1.8</v>
@@ -3067,34 +3067,34 @@
         <v>2.05</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143711</v>
+        <v>5143709</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,76 +3114,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O30">
         <v>3.75</v>
       </c>
       <c r="P30">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.9</v>
+      </c>
+      <c r="V30">
         <v>1.95</v>
       </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X30">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA30">
         <v>-0.5</v>
       </c>
-      <c r="AA30">
-        <v>0.4375</v>
-      </c>
       <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.95</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143712</v>
+        <v>5143628</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,76 +3203,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
+        <v>3.1</v>
+      </c>
+      <c r="N31">
+        <v>2.15</v>
+      </c>
+      <c r="O31">
+        <v>3.5</v>
+      </c>
+      <c r="P31">
         <v>3.2</v>
-      </c>
-      <c r="N31">
-        <v>2.1</v>
-      </c>
-      <c r="O31">
-        <v>3.4</v>
-      </c>
-      <c r="P31">
-        <v>3.75</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
+        <v>0.875</v>
+      </c>
+      <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
+        <v>0.4875</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AA31">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB31">
-        <v>-0.5</v>
-      </c>
-      <c r="AC31">
-        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6461433</v>
+        <v>6461434</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45026.375</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6461434</v>
+        <v>6461433</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,76 +4004,76 @@
         <v>45026.375</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6445249</v>
+        <v>6478386</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,58 +4449,58 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>45</v>
       </c>
       <c r="K45">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
         <v>3.5</v>
       </c>
-      <c r="M45">
-        <v>2.45</v>
-      </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6478386</v>
+        <v>6445249</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,58 +4538,58 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N52">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q52">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
         <v>4</v>
       </c>
-      <c r="P57">
-        <v>4.5</v>
-      </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6471203</v>
+        <v>6445252</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45053.375</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
+        <v>2.025</v>
+      </c>
+      <c r="S63">
         <v>1.825</v>
       </c>
-      <c r="S63">
-        <v>2.025</v>
-      </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
         <v>0.825</v>
       </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6445252</v>
+        <v>6471203</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45053.375</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
+        <v>3.1</v>
+      </c>
+      <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
+        <v>2.2</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <v>0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.825</v>
+      </c>
+      <c r="S64">
+        <v>2.025</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
         <v>1.9</v>
       </c>
-      <c r="L64">
-        <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>3.6</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-      <c r="O64">
-        <v>3.8</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>2.025</v>
-      </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
-      <c r="T64">
+      <c r="V64">
+        <v>1.95</v>
+      </c>
+      <c r="W64">
         <v>3</v>
       </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M81">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6471209</v>
+        <v>6478390</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45080.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L87">
+        <v>3.7</v>
+      </c>
+      <c r="M87">
         <v>3.5</v>
       </c>
-      <c r="M87">
-        <v>2.4</v>
-      </c>
       <c r="N87">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L88">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N88">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S88">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA88">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,55 +8454,55 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N90">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O90">
         <v>4</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45081.5</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N91">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
         <v>4</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8603,16 +8603,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45193.375</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45193.375</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,67 +13616,67 @@
         <v>45200.375</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13685,7 +13685,7 @@
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,67 +13705,67 @@
         <v>45200.375</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N149">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13774,7 +13774,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14138,7 +14138,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14150,49 +14150,49 @@
         <v>45207.375</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
         <v>4.2</v>
       </c>
-      <c r="M154">
-        <v>6</v>
-      </c>
       <c r="N154">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14201,25 +14201,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,49 +14239,49 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
         <v>2.025</v>
@@ -14290,25 +14290,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>1</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.825</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>1.025</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,58 +15752,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
+        <v>1.35</v>
+      </c>
+      <c r="L172">
+        <v>5</v>
+      </c>
+      <c r="M172">
+        <v>8</v>
+      </c>
+      <c r="N172">
+        <v>1.3</v>
+      </c>
+      <c r="O172">
+        <v>5.25</v>
+      </c>
+      <c r="P172">
+        <v>10</v>
+      </c>
+      <c r="Q172">
+        <v>-1.5</v>
+      </c>
+      <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="L172">
-        <v>3.5</v>
-      </c>
-      <c r="M172">
-        <v>2.25</v>
-      </c>
-      <c r="N172">
-        <v>2.55</v>
-      </c>
-      <c r="O172">
-        <v>3.5</v>
-      </c>
-      <c r="P172">
-        <v>2.7</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>1.82</v>
-      </c>
-      <c r="S172">
-        <v>2.08</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15812,16 +15812,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,58 +15841,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N173">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q173">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -17876,7 +17876,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6779681</v>
+        <v>6779678</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17888,40 +17888,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
         <v>3</v>
       </c>
-      <c r="I196">
-        <v>2</v>
-      </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L196">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N196">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O196">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P196">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R196">
         <v>1.85</v>
@@ -17930,31 +17930,31 @@
         <v>2</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
+        <v>1.9</v>
+      </c>
+      <c r="V196">
         <v>1.95</v>
       </c>
-      <c r="V196">
-        <v>1.9</v>
-      </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6779678</v>
+        <v>6779681</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,40 +17977,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M197">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N197">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P197">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q197">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R197">
         <v>1.85</v>
@@ -18019,31 +18019,31 @@
         <v>2</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U197">
+        <v>1.95</v>
+      </c>
+      <c r="V197">
         <v>1.9</v>
       </c>
-      <c r="V197">
-        <v>1.95</v>
-      </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18338,6 +18338,15 @@
       <c r="G201" t="s">
         <v>30</v>
       </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>45</v>
+      </c>
       <c r="K201">
         <v>2</v>
       </c>
@@ -18351,43 +18360,49 @@
         <v>2</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
         <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>2.06</v>
+        <v>2.025</v>
       </c>
       <c r="S201">
-        <v>1.84</v>
+        <v>1.825</v>
       </c>
       <c r="T201">
         <v>2.5</v>
       </c>
       <c r="U201">
+        <v>1.825</v>
+      </c>
+      <c r="V201">
         <v>2.025</v>
       </c>
-      <c r="V201">
-        <v>1.825</v>
-      </c>
       <c r="W201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18437,7 @@
         <v>1.833</v>
       </c>
       <c r="N202">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O202">
         <v>3.75</v>
@@ -18440,13 +18455,13 @@
         <v>1.86</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
+        <v>2.025</v>
+      </c>
+      <c r="V202">
         <v>1.825</v>
-      </c>
-      <c r="V202">
-        <v>2.025</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18496,7 +18511,7 @@
         <v>2.3</v>
       </c>
       <c r="N203">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O203">
         <v>3.4</v>
@@ -18514,13 +18529,13 @@
         <v>2.11</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
+        <v>2.05</v>
+      </c>
+      <c r="V203">
         <v>1.8</v>
-      </c>
-      <c r="V203">
-        <v>2.05</v>
       </c>
       <c r="W203">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143627</v>
+        <v>5143711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB26">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143711</v>
+        <v>5143710</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,76 +2847,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143710</v>
+        <v>5143627</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M28">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P28">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143709</v>
+        <v>5143628</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,58 +3114,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>45</v>
       </c>
       <c r="K30">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
+        <v>0.4875</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
-      </c>
-      <c r="AC30">
-        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143628</v>
+        <v>5143709</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,58 +3203,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>45</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6433595</v>
+        <v>6433596</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6433596</v>
+        <v>6433595</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,76 +3470,76 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y34">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17354,67 +17354,67 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K190">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>1.75</v>
+      </c>
+      <c r="N190">
+        <v>4.2</v>
+      </c>
+      <c r="O190">
         <v>3.5</v>
       </c>
-      <c r="M190">
-        <v>2.2</v>
-      </c>
-      <c r="N190">
-        <v>3.1</v>
-      </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
       <c r="P190">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA190">
         <v>-1</v>
@@ -17423,7 +17423,7 @@
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17443,76 +17443,76 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K191">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N191">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.925</v>
-      </c>
-      <c r="AA191">
-        <v>-1</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
-      <c r="AC191">
-        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18511,31 +18511,31 @@
         <v>2.3</v>
       </c>
       <c r="N203">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O203">
         <v>3.4</v>
       </c>
       <c r="P203">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q203">
         <v>0.25</v>
       </c>
       <c r="R203">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="S203">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
+        <v>1.8</v>
+      </c>
+      <c r="V203">
         <v>2.05</v>
-      </c>
-      <c r="V203">
-        <v>1.8</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18597,19 +18597,19 @@
         <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S204">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18659,13 +18659,13 @@
         <v>2.35</v>
       </c>
       <c r="N205">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q205">
         <v>0.25</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -106,10 +106,10 @@
     <t>AaB</t>
   </si>
   <si>
-    <t>Lyngby</t>
+    <t>Odense BK</t>
   </si>
   <si>
-    <t>Odense BK</t>
+    <t>Lyngby</t>
   </si>
   <si>
     <t>Silkeborg IF</t>
@@ -124,10 +124,10 @@
     <t>FC Nordsjaelland</t>
   </si>
   <si>
-    <t>AC Horsens</t>
+    <t>Randers FC</t>
   </si>
   <si>
-    <t>Randers FC</t>
+    <t>AC Horsens</t>
   </si>
   <si>
     <t>FC Copenhagen</t>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5143697</v>
+        <v>5143696</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
+        <v>2.2</v>
+      </c>
+      <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2.1</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
         <v>3.3</v>
       </c>
-      <c r="L3">
-        <v>3.6</v>
-      </c>
-      <c r="M3">
+      <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
         <v>2</v>
-      </c>
-      <c r="N3">
-        <v>4.2</v>
-      </c>
-      <c r="O3">
-        <v>3.75</v>
-      </c>
-      <c r="P3">
-        <v>1.8</v>
-      </c>
-      <c r="Q3">
-        <v>0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2.05</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5143696</v>
+        <v>5143697</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5143701</v>
+        <v>5143716</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
+        <v>3.75</v>
+      </c>
+      <c r="N9">
         <v>1.909</v>
       </c>
-      <c r="N9">
-        <v>3.4</v>
-      </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5143716</v>
+        <v>5143701</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>3.6</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
+        <v>3.4</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>2.1</v>
+      </c>
+      <c r="Q10">
+        <v>0.25</v>
+      </c>
+      <c r="R10">
+        <v>2.025</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="L10">
-        <v>3.75</v>
-      </c>
-      <c r="M10">
-        <v>3.75</v>
-      </c>
-      <c r="N10">
-        <v>1.909</v>
-      </c>
-      <c r="O10">
-        <v>3.75</v>
-      </c>
-      <c r="P10">
-        <v>3.8</v>
-      </c>
-      <c r="Q10">
-        <v>-0.5</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5143704</v>
+        <v>5143705</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,73 +1779,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5143705</v>
+        <v>5143704</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,73 +1868,73 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L16">
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>44990.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2049,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>44995.625</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2405,7 +2405,7 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>44997.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2669,7 +2669,7 @@
         <v>44998.625</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5143711</v>
+        <v>5143627</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2758,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X26">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>0.825</v>
+      </c>
+      <c r="AB26">
+        <v>0.4875</v>
+      </c>
+      <c r="AC26">
         <v>-0.5</v>
-      </c>
-      <c r="AA26">
-        <v>0.4375</v>
-      </c>
-      <c r="AB26">
-        <v>0.95</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5143710</v>
+        <v>5143628</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,76 +2847,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5143627</v>
+        <v>5143709</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,58 +2936,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L28">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N28">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O28">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.333</v>
+        <v>0.833</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2996,16 +2996,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5143712</v>
+        <v>5143710</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,40 +3025,40 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>1.8</v>
@@ -3067,34 +3067,34 @@
         <v>2.05</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5143628</v>
+        <v>5143712</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3114,76 +3114,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB30">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5143709</v>
+        <v>5143711</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,76 +3203,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
         <v>3.75</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
+        <v>1.95</v>
+      </c>
+      <c r="V31">
         <v>1.9</v>
       </c>
-      <c r="V31">
-        <v>1.95</v>
-      </c>
       <c r="W31">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3381,7 +3381,7 @@
         <v>45018.375</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3470,7 +3470,7 @@
         <v>45018.375</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3740,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3918,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4007,7 +4007,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>45026.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4274,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4449,10 +4449,10 @@
         <v>45032.375</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4538,7 +4538,7 @@
         <v>45032.375</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -4805,7 +4805,7 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6471200</v>
+        <v>6437824</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45039.375</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.714</v>
+        <v>2.4</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q51">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6437824</v>
+        <v>6471200</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45039.375</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>1.714</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5339,10 +5339,10 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5428,10 +5428,10 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6437825</v>
+        <v>6478387</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5517,16 +5517,16 @@
         <v>45046.375</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
@@ -5535,31 +5535,31 @@
         <v>1.9</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5577,16 +5577,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0.49</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6478387</v>
+        <v>6437825</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,16 +5606,16 @@
         <v>45046.375</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -5624,31 +5624,31 @@
         <v>1.9</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
         <v>4</v>
       </c>
-      <c r="P58">
-        <v>4.5</v>
-      </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.49</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6054,7 +6054,7 @@
         <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>45053.375</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6229,7 +6229,7 @@
         <v>45053.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6496,7 +6496,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6588,7 +6588,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6677,7 +6677,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6941,7 +6941,7 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7030,7 +7030,7 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6471207</v>
+        <v>6471206</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45067.375</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
+        <v>2.75</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
+        <v>2.875</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
         <v>2.45</v>
       </c>
-      <c r="L75">
-        <v>3.75</v>
-      </c>
-      <c r="M75">
-        <v>2.6</v>
-      </c>
-      <c r="N75">
-        <v>2.05</v>
-      </c>
-      <c r="O75">
-        <v>4.2</v>
-      </c>
-      <c r="P75">
-        <v>3.1</v>
-      </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6471206</v>
+        <v>6471207</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,76 +7208,76 @@
         <v>45067.375</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>2.1</v>
       </c>
-      <c r="S76">
-        <v>1.775</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>1.45</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7564,10 +7564,10 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6478389</v>
+        <v>6445255</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45075.375</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L81">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6445255</v>
+        <v>6478389</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45075.375</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M82">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O82">
         <v>3.75</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>45076.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45080.375</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L86">
+        <v>3.7</v>
+      </c>
+      <c r="M86">
         <v>3.5</v>
       </c>
-      <c r="M86">
-        <v>2.4</v>
-      </c>
       <c r="N86">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45080.375</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L87">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S87">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA87">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6471209</v>
+        <v>6478390</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45080.375</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L88">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45081.5</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N89">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O89">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,76 +8454,76 @@
         <v>45081.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>7.5</v>
+      </c>
+      <c r="N90">
+        <v>1.25</v>
+      </c>
+      <c r="O90">
+        <v>6.5</v>
+      </c>
+      <c r="P90">
+        <v>10</v>
+      </c>
+      <c r="Q90">
+        <v>-2</v>
+      </c>
+      <c r="R90">
+        <v>2.025</v>
+      </c>
+      <c r="S90">
+        <v>1.825</v>
+      </c>
+      <c r="T90">
         <v>3.75</v>
       </c>
-      <c r="M90">
-        <v>2.75</v>
-      </c>
-      <c r="N90">
-        <v>2.05</v>
-      </c>
-      <c r="O90">
-        <v>4</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.875</v>
-      </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -8988,10 +8988,10 @@
         <v>45130.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9258,7 +9258,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9522,7 +9522,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
@@ -9614,7 +9614,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9881,7 +9881,7 @@
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10056,7 +10056,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10234,7 +10234,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10412,7 +10412,7 @@
         <v>45151.375</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10593,7 +10593,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -11035,10 +11035,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>45158.625</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11391,7 +11391,7 @@
         <v>45163.5625</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>34</v>
@@ -11572,7 +11572,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12103,7 +12103,7 @@
         <v>45172.375</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12195,7 +12195,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12640,7 +12640,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12729,7 +12729,7 @@
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -12993,7 +12993,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45193.375</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45193.375</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N143">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13352,7 +13352,7 @@
         <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13616,7 +13616,7 @@
         <v>45200.375</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
         <v>32</v>
@@ -13972,10 +13972,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" t="s">
         <v>31</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>5</v>
@@ -14242,7 +14242,7 @@
         <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14420,7 +14420,7 @@
         <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14773,7 +14773,7 @@
         <v>45221.375</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14951,7 +14951,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -15040,7 +15040,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15399,7 +15399,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15577,7 +15577,7 @@
         <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15663,10 +15663,10 @@
         <v>45234.52083333334</v>
       </c>
       <c r="F171" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" t="s">
         <v>30</v>
-      </c>
-      <c r="G171" t="s">
-        <v>31</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,58 +15752,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>1</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N172">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q172">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15812,16 +15812,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,58 +15841,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
+        <v>1.35</v>
+      </c>
+      <c r="L173">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>8</v>
+      </c>
+      <c r="N173">
+        <v>1.3</v>
+      </c>
+      <c r="O173">
+        <v>5.25</v>
+      </c>
+      <c r="P173">
+        <v>10</v>
+      </c>
+      <c r="Q173">
+        <v>-1.5</v>
+      </c>
+      <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="L173">
-        <v>3.5</v>
-      </c>
-      <c r="M173">
-        <v>2.25</v>
-      </c>
-      <c r="N173">
-        <v>2.55</v>
-      </c>
-      <c r="O173">
-        <v>3.5</v>
-      </c>
-      <c r="P173">
-        <v>2.7</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>1.82</v>
-      </c>
-      <c r="S173">
-        <v>2.08</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>45235.5</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16200,7 +16200,7 @@
         <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16378,7 +16378,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>42</v>
@@ -16998,10 +16998,10 @@
         <v>45256.5</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -17265,7 +17265,7 @@
         <v>45261.625</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
         <v>41</v>
@@ -17354,7 +17354,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
         <v>35</v>
@@ -17443,7 +17443,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>32</v>
@@ -17802,7 +17802,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17891,7 +17891,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17980,7 +17980,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18333,10 +18333,10 @@
         <v>45345.625</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18410,7 +18410,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6780974</v>
+        <v>6779686</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18422,46 +18422,46 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L202">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N202">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O202">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="Q202">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="S202">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18484,7 +18484,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6779686</v>
+        <v>6780974</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18496,46 +18496,46 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M203">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N203">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P203">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q203">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R203">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="S203">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V203">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18570,7 +18570,7 @@
         <v>45347.5</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>33</v>
@@ -18597,19 +18597,19 @@
         <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S204">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18671,19 +18671,19 @@
         <v>0.25</v>
       </c>
       <c r="R205">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="S205">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -18410,7 +18410,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6779686</v>
+        <v>6780974</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18422,46 +18422,46 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M202">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N202">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P202">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R202">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S202">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18484,7 +18484,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6780974</v>
+        <v>6779686</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18496,46 +18496,46 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L203">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N203">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="O203">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
+        <v>2.375</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.83</v>
+      </c>
+      <c r="S203">
+        <v>2.07</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>2.05</v>
+      </c>
+      <c r="V203">
         <v>1.8</v>
-      </c>
-      <c r="Q203">
-        <v>0.75</v>
-      </c>
-      <c r="R203">
-        <v>1.84</v>
-      </c>
-      <c r="S203">
-        <v>2.06</v>
-      </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>2.025</v>
-      </c>
-      <c r="V203">
-        <v>1.825</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18585,7 +18585,7 @@
         <v>1.95</v>
       </c>
       <c r="N204">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O204">
         <v>3.5</v>
@@ -18597,10 +18597,10 @@
         <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S204">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T204">
         <v>2.5</v>
@@ -18671,10 +18671,10 @@
         <v>0.25</v>
       </c>
       <c r="R205">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T205">
         <v>2.25</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,19 @@
     <t>AC Horsens</t>
   </si>
   <si>
+    <t>AaB</t>
+  </si>
+  <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>AaB</t>
+    <t>FC Copenhagen</t>
   </si>
   <si>
     <t>FC Nordsjaelland</t>
   </si>
   <si>
     <t>AGF Aarhus</t>
-  </si>
-  <si>
-    <t>FC Copenhagen</t>
   </si>
   <si>
     <t>Viborg</t>
@@ -148,10 +148,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6471209</v>
+        <v>6445256</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N3">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S3">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z3">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L4">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S4">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA4">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>7.5</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>6.5</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>-2</v>
+      </c>
+      <c r="R5">
+        <v>2.025</v>
+      </c>
+      <c r="S5">
+        <v>1.825</v>
+      </c>
+      <c r="T5">
         <v>3.75</v>
       </c>
-      <c r="M5">
-        <v>2.75</v>
-      </c>
-      <c r="N5">
-        <v>2.05</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,52 +981,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6439098</v>
+        <v>6438715</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,58 +1070,58 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
       </c>
       <c r="K7">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1130,13 +1130,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.222</v>
@@ -1337,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>4.75</v>
@@ -1423,7 +1423,7 @@
         <v>45130.375</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>1.7</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1871,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>5.5</v>
@@ -1957,7 +1957,7 @@
         <v>45137.375</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2224,10 +2224,10 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2402,7 +2402,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>1.333</v>
@@ -2494,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2583,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2669,7 +2669,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.95</v>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2847,7 +2847,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.45</v>
@@ -2939,7 +2939,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3028,7 +3028,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>3.6</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3203,7 +3203,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3384,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3473,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.714</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>2.55</v>
@@ -4004,7 +4004,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4016,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4093,7 +4093,7 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>2.9</v>
@@ -4271,10 +4271,10 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>3.3</v>
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>1.75</v>
@@ -4541,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>1.533</v>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4805,7 +4805,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4894,10 +4894,10 @@
         <v>45172.625</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5072,10 +5072,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
         <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>2.4</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>3.1</v>
@@ -5339,7 +5339,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K56">
         <v>2.4</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45193.375</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L58">
         <v>3.6</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45193.375</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
         <v>44</v>
       </c>
       <c r="K59">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L59">
         <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N59">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>1.65</v>
@@ -5962,7 +5962,7 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -6051,10 +6051,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,67 +6140,67 @@
         <v>45200.375</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N64">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6209,7 +6209,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,67 +6229,67 @@
         <v>45200.375</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
         <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X65">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6298,7 +6298,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6410,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.625</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.7</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6763,7 +6763,7 @@
         <v>45207.375</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
         <v>37</v>
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K71">
         <v>1.5</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6941,7 +6941,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -7030,10 +7030,10 @@
         <v>45207.625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7208,7 +7208,7 @@
         <v>45220.5</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.3</v>
@@ -7300,7 +7300,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7389,7 +7389,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K78">
         <v>3.4</v>
@@ -7567,7 +7567,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7653,7 +7653,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.615</v>
@@ -7742,7 +7742,7 @@
         <v>45227.5</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>42</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>1.222</v>
@@ -8012,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2.3</v>
@@ -8098,7 +8098,7 @@
         <v>45229.625</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>40</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,58 +8276,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O88">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q88">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8336,16 +8336,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>45</v>
+      </c>
+      <c r="K89">
+        <v>1.35</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>8</v>
+      </c>
+      <c r="N89">
+        <v>1.3</v>
+      </c>
+      <c r="O89">
+        <v>5.25</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-1.5</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
+        <v>1.875</v>
+      </c>
+      <c r="W89">
+        <v>0.3</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
         <v>1</v>
       </c>
-      <c r="J89" t="s">
-        <v>44</v>
-      </c>
-      <c r="K89">
-        <v>3</v>
-      </c>
-      <c r="L89">
-        <v>3.5</v>
-      </c>
-      <c r="M89">
-        <v>2.25</v>
-      </c>
-      <c r="N89">
-        <v>2.55</v>
-      </c>
-      <c r="O89">
-        <v>3.5</v>
-      </c>
-      <c r="P89">
-        <v>2.7</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.82</v>
-      </c>
-      <c r="S89">
-        <v>2.08</v>
-      </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
-      <c r="W89">
-        <v>1.55</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8466,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>4.2</v>
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>5.5</v>
@@ -8635,7 +8635,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8810,7 +8810,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8988,10 +8988,10 @@
         <v>45242.5</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>1.55</v>
@@ -9166,7 +9166,7 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9347,7 +9347,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9433,10 +9433,10 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9703,7 +9703,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9881,7 +9881,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>2.9</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.25</v>
@@ -10145,10 +10145,10 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
         <v>34</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>1.65</v>
@@ -10234,7 +10234,7 @@
         <v>45264.625</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>1.666</v>
@@ -10335,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>2.05</v>
@@ -10424,7 +10424,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>3.3</v>
@@ -10501,7 +10501,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
         <v>36</v>
@@ -10513,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>1.533</v>
@@ -10593,7 +10593,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10682,7 +10682,7 @@
         <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>2.25</v>
@@ -10771,7 +10771,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>3</v>
@@ -11136,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>3.6</v>
@@ -11213,10 +11213,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>2.8</v>
@@ -11302,10 +11302,19 @@
         <v>45348.625</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.85</v>
@@ -11317,46 +11326,52 @@
         <v>4</v>
       </c>
       <c r="N122">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
+        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,10 +11391,10 @@
         <v>45352.625</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K123">
         <v>2.6</v>
@@ -11397,25 +11412,25 @@
         <v>3.5</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q123">
         <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
         <v>0</v>
@@ -11465,31 +11480,31 @@
         <v>5</v>
       </c>
       <c r="N124">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O124">
         <v>4</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="S124">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
+        <v>1.825</v>
+      </c>
+      <c r="V124">
         <v>2.025</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11539,31 +11554,31 @@
         <v>2.75</v>
       </c>
       <c r="N125">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q125">
         <v>0</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="S125">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11619,25 +11634,25 @@
         <v>4.333</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q126">
         <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -11672,7 +11687,7 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -11687,31 +11702,31 @@
         <v>4.75</v>
       </c>
       <c r="N127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S127">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
         <v>0</v>
@@ -11746,7 +11761,7 @@
         <v>45355.625</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11761,31 +11776,31 @@
         <v>5.5</v>
       </c>
       <c r="N128">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="S128">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U128">
+        <v>2.05</v>
+      </c>
+      <c r="V128">
         <v>1.8</v>
-      </c>
-      <c r="V128">
-        <v>2.05</v>
       </c>
       <c r="W128">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -103,22 +103,22 @@
     <t>Denmark Superligaen</t>
   </si>
   <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
     <t>AC Horsens</t>
   </si>
   <si>
     <t>AaB</t>
   </si>
   <si>
-    <t>Midtjylland</t>
-  </si>
-  <si>
-    <t>FC Copenhagen</t>
-  </si>
-  <si>
     <t>FC Nordsjaelland</t>
   </si>
   <si>
     <t>AGF Aarhus</t>
+  </si>
+  <si>
+    <t>FC Copenhagen</t>
   </si>
   <si>
     <t>Viborg</t>
@@ -145,13 +145,13 @@
     <t>Hvidovre IF</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6478390</v>
+        <v>6471209</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
+        <v>2.02</v>
+      </c>
+      <c r="S2">
+        <v>1.88</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
         <v>1.825</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>2.025</v>
       </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.95</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA2">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6445256</v>
+        <v>6478390</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.9299999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6471209</v>
+        <v>6445256</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S4">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z4">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O5">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,52 +981,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6438715</v>
+        <v>6439098</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,58 +1070,58 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N7">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R7">
+        <v>2.025</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1130,13 +1130,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.222</v>
@@ -1337,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>4.75</v>
@@ -1423,7 +1423,7 @@
         <v>45130.375</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>1.7</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1871,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>5.5</v>
@@ -1957,7 +1957,7 @@
         <v>45137.375</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2224,10 +2224,10 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2402,7 +2402,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>1.333</v>
@@ -2494,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2583,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2669,7 +2669,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.95</v>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2847,7 +2847,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>1.45</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,19 +2936,19 @@
         <v>45151.375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -2960,31 +2960,31 @@
         <v>1.909</v>
       </c>
       <c r="N28">
+        <v>3.8</v>
+      </c>
+      <c r="O28">
+        <v>3.75</v>
+      </c>
+      <c r="P28">
+        <v>1.95</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>2.375</v>
-      </c>
-      <c r="Q28">
-        <v>0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.88</v>
-      </c>
-      <c r="S28">
-        <v>2.02</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,19 +3025,19 @@
         <v>45151.375</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>3.6</v>
@@ -3049,31 +3049,31 @@
         <v>1.909</v>
       </c>
       <c r="N29">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3203,7 +3203,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3215,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>1.909</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>1.65</v>
@@ -3384,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3473,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>2.9</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.714</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>2.55</v>
@@ -4004,7 +4004,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4016,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4093,7 +4093,7 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2.9</v>
@@ -4271,10 +4271,10 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>3.3</v>
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>1.75</v>
@@ -4541,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
         <v>4.5</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>1.533</v>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4805,7 +4805,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4894,10 +4894,10 @@
         <v>45172.625</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>2.9</v>
@@ -5072,10 +5072,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5084,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>2.7</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>2.4</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>3.1</v>
@@ -5339,7 +5339,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>2.4</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>1.85</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45193.375</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L58">
         <v>3.6</v>
       </c>
       <c r="M58">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45193.375</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L59">
         <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>3.4</v>
@@ -5873,7 +5873,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>1.65</v>
@@ -5962,7 +5962,7 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>1.285</v>
@@ -6051,10 +6051,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6143,7 +6143,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>4.333</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6330,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6410,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.625</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.7</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,13 +6674,13 @@
         <v>45207.375</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6689,34 +6689,34 @@
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N70">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
         <v>2.025</v>
@@ -6725,25 +6725,25 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.825</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>1.025</v>
-      </c>
-      <c r="AC70">
-        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45207.375</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
         <v>4.2</v>
       </c>
-      <c r="M71">
-        <v>6</v>
-      </c>
       <c r="N71">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
         <v>2.025</v>
@@ -6814,25 +6814,25 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6941,7 +6941,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -6953,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>1.6</v>
@@ -7030,10 +7030,10 @@
         <v>45207.625</v>
       </c>
       <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
         <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>3.2</v>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7208,7 +7208,7 @@
         <v>45220.5</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>1.3</v>
@@ -7300,7 +7300,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7389,7 +7389,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>3.4</v>
@@ -7487,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>3.6</v>
@@ -7567,7 +7567,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7653,7 +7653,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>1.615</v>
@@ -7742,7 +7742,7 @@
         <v>45227.5</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>42</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>1.222</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>3.1</v>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.75</v>
@@ -8012,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>2.3</v>
@@ -8098,7 +8098,7 @@
         <v>45229.625</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>40</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8288,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8365,7 +8365,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.35</v>
@@ -8457,7 +8457,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8466,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>4.2</v>
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>5.5</v>
@@ -8635,7 +8635,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>2.05</v>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93">
         <v>1.7</v>
@@ -8810,7 +8810,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>1.85</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8988,10 +8988,10 @@
         <v>45242.5</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>1.55</v>
@@ -9166,7 +9166,7 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>3.1</v>
@@ -9347,7 +9347,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9433,11 +9433,11 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
         <v>33</v>
       </c>
-      <c r="G101" t="s">
-        <v>34</v>
-      </c>
       <c r="H101">
         <v>0</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>1.769</v>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9623,7 +9623,7 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>3.75</v>
@@ -9703,7 +9703,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,76 +9878,76 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N106">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.925</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
-      <c r="AC106">
-        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,67 +9967,67 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>1.75</v>
+      </c>
+      <c r="N107">
+        <v>4.2</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.2</v>
-      </c>
-      <c r="N107">
-        <v>3.1</v>
-      </c>
-      <c r="O107">
-        <v>3.4</v>
-      </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
         <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
         <v>-1</v>
@@ -10036,7 +10036,7 @@
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>1.25</v>
@@ -10145,10 +10145,10 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>1.65</v>
@@ -10234,7 +10234,7 @@
         <v>45264.625</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>1.666</v>
@@ -10335,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>2.05</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779678</v>
+        <v>6779681</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,40 +10412,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P112">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
         <v>1.85</v>
@@ -10454,31 +10454,31 @@
         <v>2</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="V112">
-        <v>1.95</v>
-      </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779681</v>
+        <v>6779678</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,40 +10501,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>3</v>
-      </c>
-      <c r="I113">
-        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>45</v>
       </c>
       <c r="K113">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N113">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O113">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q113">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
         <v>1.85</v>
@@ -10543,31 +10543,31 @@
         <v>2</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
+        <v>1.9</v>
+      </c>
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="V113">
-        <v>1.9</v>
-      </c>
       <c r="W113">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10682,7 +10682,7 @@
         <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>2.25</v>
@@ -10771,7 +10771,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>3.8</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K118">
         <v>4</v>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>3</v>
@@ -11136,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>3.6</v>
@@ -11213,10 +11213,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>2.8</v>
@@ -11302,11 +11302,11 @@
         <v>45348.625</v>
       </c>
       <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
         <v>32</v>
       </c>
-      <c r="G122" t="s">
-        <v>33</v>
-      </c>
       <c r="H122">
         <v>2</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>1.85</v>
@@ -11391,10 +11391,10 @@
         <v>45352.625</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K123">
         <v>2.6</v>
@@ -11406,22 +11406,22 @@
         <v>2.5</v>
       </c>
       <c r="N123">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O123">
         <v>3.5</v>
       </c>
       <c r="P123">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
         <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11453,7 +11453,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6779691</v>
+        <v>6779318</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11465,46 +11465,46 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6779318</v>
+        <v>6779691</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11539,46 +11539,46 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.571</v>
+      </c>
+      <c r="O125">
+        <v>4</v>
+      </c>
+      <c r="P125">
+        <v>6</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
         <v>2.75</v>
       </c>
-      <c r="N125">
-        <v>2.55</v>
-      </c>
-      <c r="O125">
-        <v>3.4</v>
-      </c>
-      <c r="P125">
-        <v>2.7</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>1.89</v>
-      </c>
-      <c r="S125">
-        <v>2.01</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11640,19 +11640,19 @@
         <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -11687,7 +11687,7 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -11702,13 +11702,13 @@
         <v>4.75</v>
       </c>
       <c r="N127">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O127">
         <v>3.4</v>
       </c>
       <c r="P127">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
@@ -11761,7 +11761,7 @@
         <v>45355.625</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11776,31 +11776,31 @@
         <v>5.5</v>
       </c>
       <c r="N128">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O128">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P128">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q128">
         <v>-1</v>
       </c>
       <c r="R128">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S128">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
+        <v>1.8</v>
+      </c>
+      <c r="V128">
         <v>2.05</v>
-      </c>
-      <c r="V128">
-        <v>1.8</v>
       </c>
       <c r="W128">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Denmark Superligaen</t>
   </si>
   <si>
-    <t>Midtjylland</t>
+    <t>AaB</t>
   </si>
   <si>
     <t>AC Horsens</t>
   </si>
   <si>
-    <t>AaB</t>
+    <t>Midtjylland</t>
   </si>
   <si>
     <t>FC Nordsjaelland</t>
@@ -145,13 +145,13 @@
     <t>Hvidovre IF</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6471209</v>
+        <v>6445256</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N2">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S2">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z2">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L4">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S4">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA4">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.222</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>4.75</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>1.7</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>5.5</v>
@@ -1957,7 +1957,7 @@
         <v>45137.375</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>1.333</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2583,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.95</v>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.45</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,19 +2936,19 @@
         <v>45151.375</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -2960,31 +2960,31 @@
         <v>1.909</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,19 +3025,19 @@
         <v>45151.375</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>3.6</v>
@@ -3049,31 +3049,31 @@
         <v>1.909</v>
       </c>
       <c r="N29">
+        <v>3.8</v>
+      </c>
+      <c r="O29">
+        <v>3.75</v>
+      </c>
+      <c r="P29">
+        <v>1.95</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>2.375</v>
-      </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.88</v>
-      </c>
-      <c r="S29">
-        <v>2.02</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.714</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>2.55</v>
@@ -4016,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>2.9</v>
@@ -4274,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>3.3</v>
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>1.75</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>1.533</v>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4894,7 +4894,7 @@
         <v>45172.625</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>2.4</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>3.1</v>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>2.4</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45193.375</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L58">
         <v>3.6</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45193.375</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
         <v>43</v>
       </c>
       <c r="K59">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L59">
         <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N59">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>1.65</v>
@@ -6054,7 +6054,7 @@
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6330,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.625</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.7</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,13 +6674,13 @@
         <v>45207.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6689,34 +6689,34 @@
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
         <v>4.2</v>
       </c>
-      <c r="M70">
-        <v>6</v>
-      </c>
       <c r="N70">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
         <v>2.025</v>
@@ -6725,25 +6725,25 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,13 +6763,13 @@
         <v>45207.375</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6778,34 +6778,34 @@
         <v>43</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N71">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U71">
         <v>2.025</v>
@@ -6814,25 +6814,25 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.825</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>1.025</v>
-      </c>
-      <c r="AC71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6941,7 +6941,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.3</v>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>3.4</v>
@@ -7567,7 +7567,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7653,7 +7653,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.615</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>1.222</v>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2.3</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88">
+        <v>1.35</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>8</v>
+      </c>
+      <c r="N88">
+        <v>1.3</v>
+      </c>
+      <c r="O88">
+        <v>5.25</v>
+      </c>
+      <c r="P88">
+        <v>10</v>
+      </c>
+      <c r="Q88">
+        <v>-1.5</v>
+      </c>
+      <c r="R88">
+        <v>1.85</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
+        <v>1.875</v>
+      </c>
+      <c r="W88">
+        <v>0.3</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
         <v>1</v>
       </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>3</v>
-      </c>
-      <c r="L88">
-        <v>3.5</v>
-      </c>
-      <c r="M88">
-        <v>2.25</v>
-      </c>
-      <c r="N88">
-        <v>2.55</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
-      <c r="P88">
-        <v>2.7</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>1.82</v>
-      </c>
-      <c r="S88">
-        <v>2.08</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
-      <c r="V88">
-        <v>2.025</v>
-      </c>
-      <c r="W88">
-        <v>1.55</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,58 +8365,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>1</v>
       </c>
-      <c r="I89">
+      <c r="J89" t="s">
+        <v>45</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>3.5</v>
+      </c>
+      <c r="M89">
+        <v>2.25</v>
+      </c>
+      <c r="N89">
+        <v>2.55</v>
+      </c>
+      <c r="O89">
+        <v>3.5</v>
+      </c>
+      <c r="P89">
+        <v>2.7</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
       </c>
-      <c r="J89" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89">
-        <v>1.35</v>
-      </c>
-      <c r="L89">
-        <v>5</v>
-      </c>
-      <c r="M89">
-        <v>8</v>
-      </c>
-      <c r="N89">
-        <v>1.3</v>
-      </c>
-      <c r="O89">
-        <v>5.25</v>
-      </c>
-      <c r="P89">
-        <v>10</v>
-      </c>
-      <c r="Q89">
-        <v>-1.5</v>
-      </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8425,16 +8425,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>4.2</v>
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>5.5</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8988,7 +8988,7 @@
         <v>45242.5</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>1.55</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9703,7 +9703,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>2.9</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.25</v>
@@ -10157,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>1.65</v>
@@ -10234,7 +10234,7 @@
         <v>45264.625</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>1.666</v>
@@ -10335,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>2.05</v>
@@ -10424,7 +10424,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>1.533</v>
@@ -10513,7 +10513,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>3.3</v>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10682,7 +10682,7 @@
         <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>2.25</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6780974</v>
+        <v>6779686</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N118">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X118">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6779686</v>
+        <v>6780974</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>2.025</v>
-      </c>
       <c r="W119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>3.6</v>
@@ -11216,7 +11216,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>2.8</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.85</v>
@@ -11391,11 +11391,20 @@
         <v>45352.625</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>34</v>
       </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>45</v>
+      </c>
       <c r="K123">
         <v>2.6</v>
       </c>
@@ -11406,46 +11415,52 @@
         <v>2.5</v>
       </c>
       <c r="N123">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O123">
         <v>3.5</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="Q123">
         <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.83</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>2.07</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11453,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6779318</v>
+        <v>6779691</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11465,46 +11480,46 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.615</v>
+      </c>
+      <c r="O124">
+        <v>4.2</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.82</v>
+      </c>
+      <c r="S124">
+        <v>2.08</v>
+      </c>
+      <c r="T124">
         <v>2.75</v>
       </c>
-      <c r="N124">
-        <v>2.45</v>
-      </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>2.875</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2.1</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11527,7 +11542,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6779691</v>
+        <v>6779318</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11539,46 +11554,46 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K125">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11634,16 +11649,16 @@
         <v>4.333</v>
       </c>
       <c r="P126">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q126">
         <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S126">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T126">
         <v>2.5</v>
@@ -11714,19 +11729,19 @@
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S127">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
         <v>0</v>
@@ -11794,13 +11809,13 @@
         <v>1.91</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U128">
+        <v>2.05</v>
+      </c>
+      <c r="V128">
         <v>1.8</v>
-      </c>
-      <c r="V128">
-        <v>2.05</v>
       </c>
       <c r="W128">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -103,22 +103,22 @@
     <t>Denmark Superligaen</t>
   </si>
   <si>
-    <t>AaB</t>
+    <t>Midtjylland</t>
   </si>
   <si>
     <t>AC Horsens</t>
   </si>
   <si>
-    <t>Midtjylland</t>
+    <t>AaB</t>
   </si>
   <si>
-    <t>FC Nordsjaelland</t>
+    <t>FC Copenhagen</t>
   </si>
   <si>
     <t>AGF Aarhus</t>
   </si>
   <si>
-    <t>FC Copenhagen</t>
+    <t>FC Nordsjaelland</t>
   </si>
   <si>
     <t>Viborg</t>
@@ -145,13 +145,13 @@
     <t>Hvidovre IF</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L2">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S2">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA2">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6471209</v>
+        <v>6445256</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S4">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z4">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>7.5</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>6.5</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>-2</v>
+      </c>
+      <c r="R5">
+        <v>2.025</v>
+      </c>
+      <c r="S5">
+        <v>1.825</v>
+      </c>
+      <c r="T5">
         <v>3.75</v>
       </c>
-      <c r="M5">
-        <v>2.75</v>
-      </c>
-      <c r="N5">
-        <v>2.05</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,73 +1070,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.222</v>
@@ -1337,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>4.75</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>1.7</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1871,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>5.5</v>
@@ -1957,7 +1957,7 @@
         <v>45137.375</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2227,7 +2227,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2402,7 +2402,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>1.333</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2583,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2669,7 +2669,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.95</v>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2847,7 +2847,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>1.45</v>
@@ -2939,7 +2939,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3028,7 +3028,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>3.6</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3384,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3473,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.714</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>2.55</v>
@@ -4004,7 +4004,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4016,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2.9</v>
@@ -4271,10 +4271,10 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>3.3</v>
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>1.75</v>
@@ -4541,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>1.533</v>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4805,7 +4805,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4894,7 +4894,7 @@
         <v>45172.625</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5072,10 +5072,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
         <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>2.4</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>3.1</v>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>2.4</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.15</v>
@@ -5698,7 +5698,7 @@
         <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>2.75</v>
@@ -5873,7 +5873,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>1.65</v>
@@ -5962,7 +5962,7 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -6051,10 +6051,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,67 +6140,67 @@
         <v>45200.375</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6209,7 +6209,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,67 +6229,67 @@
         <v>45200.375</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M65">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N65">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P65">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
         <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6298,7 +6298,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.625</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.7</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,13 +6674,13 @@
         <v>45207.375</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6689,34 +6689,34 @@
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N70">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
         <v>2.025</v>
@@ -6725,25 +6725,25 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.825</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>1.025</v>
-      </c>
-      <c r="AC70">
-        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,13 +6763,13 @@
         <v>45207.375</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6778,34 +6778,34 @@
         <v>43</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
         <v>4.2</v>
       </c>
-      <c r="M71">
-        <v>6</v>
-      </c>
       <c r="N71">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
         <v>2.025</v>
@@ -6814,25 +6814,25 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6941,7 +6941,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -7033,7 +7033,7 @@
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7208,7 +7208,7 @@
         <v>45220.5</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>1.3</v>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7389,7 +7389,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>3.4</v>
@@ -7567,7 +7567,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7653,7 +7653,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>1.615</v>
@@ -7742,7 +7742,7 @@
         <v>45227.5</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>42</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>1.222</v>
@@ -8012,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>2.3</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8276,7 +8276,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.35</v>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>3</v>
@@ -8457,7 +8457,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8466,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>4.2</v>
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>5.5</v>
@@ -8810,7 +8810,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8988,10 +8988,10 @@
         <v>45242.5</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>1.55</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9347,7 +9347,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9433,7 +9433,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9703,7 +9703,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,67 +9878,67 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L106">
+        <v>3.6</v>
+      </c>
+      <c r="M106">
+        <v>1.75</v>
+      </c>
+      <c r="N106">
+        <v>4.2</v>
+      </c>
+      <c r="O106">
         <v>3.5</v>
       </c>
-      <c r="M106">
-        <v>2.2</v>
-      </c>
-      <c r="N106">
-        <v>3.1</v>
-      </c>
-      <c r="O106">
-        <v>3.4</v>
-      </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
@@ -9947,7 +9947,7 @@
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,76 +9967,76 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N107">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.925</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>1.25</v>
@@ -10145,7 +10145,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>33</v>
@@ -10157,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>1.65</v>
@@ -10234,7 +10234,7 @@
         <v>45264.625</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>1.666</v>
@@ -10335,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>2.05</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779681</v>
+        <v>6779678</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,40 +10412,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>3</v>
-      </c>
-      <c r="I112">
-        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>45</v>
       </c>
       <c r="K112">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N112">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O112">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
         <v>1.85</v>
@@ -10454,31 +10454,31 @@
         <v>2</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
+        <v>1.9</v>
+      </c>
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="V112">
-        <v>1.9</v>
-      </c>
       <c r="W112">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779678</v>
+        <v>6779681</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,40 +10501,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
       </c>
       <c r="K113">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P113">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
         <v>1.85</v>
@@ -10543,31 +10543,31 @@
         <v>2</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10682,7 +10682,7 @@
         <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>2.25</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6779686</v>
+        <v>6780974</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2.05</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.85</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>2.025</v>
-      </c>
       <c r="W118">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6780974</v>
+        <v>6779686</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X119">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>3.6</v>
@@ -11216,7 +11216,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>2.8</v>
@@ -11302,10 +11302,10 @@
         <v>45348.625</v>
       </c>
       <c r="F122" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
         <v>34</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>1.85</v>
@@ -11391,10 +11391,10 @@
         <v>45352.625</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>2.6</v>
@@ -11498,28 +11498,28 @@
         <v>1.615</v>
       </c>
       <c r="O124">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P124">
         <v>5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R124">
+        <v>2.08</v>
+      </c>
+      <c r="S124">
         <v>1.82</v>
-      </c>
-      <c r="S124">
-        <v>2.08</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11578,22 +11578,22 @@
         <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
+        <v>1.79</v>
+      </c>
+      <c r="S125">
         <v>2.11</v>
-      </c>
-      <c r="S125">
-        <v>1.79</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>45355.625</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11812,10 +11812,10 @@
         <v>3</v>
       </c>
       <c r="U128">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Denmark Superligaen</t>
   </si>
   <si>
-    <t>Midtjylland</t>
-  </si>
-  <si>
     <t>AC Horsens</t>
   </si>
   <si>
     <t>AaB</t>
+  </si>
+  <si>
+    <t>Midtjylland</t>
   </si>
   <si>
     <t>FC Copenhagen</t>
@@ -145,13 +145,13 @@
     <t>Hvidovre IF</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6471209</v>
+        <v>6478390</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L3">
+        <v>3.7</v>
+      </c>
+      <c r="M3">
         <v>3.5</v>
       </c>
-      <c r="M3">
-        <v>2.4</v>
-      </c>
       <c r="N3">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L4">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S4">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA4">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1.333</v>
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.222</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>4.75</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>1.7</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>5.5</v>
@@ -1957,7 +1957,7 @@
         <v>45137.375</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>1.333</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2583,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.95</v>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.45</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,19 +2936,19 @@
         <v>45151.375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -2960,31 +2960,31 @@
         <v>1.909</v>
       </c>
       <c r="N28">
+        <v>3.8</v>
+      </c>
+      <c r="O28">
+        <v>3.75</v>
+      </c>
+      <c r="P28">
+        <v>1.95</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>2.375</v>
-      </c>
-      <c r="Q28">
-        <v>0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.88</v>
-      </c>
-      <c r="S28">
-        <v>2.02</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,19 +3025,19 @@
         <v>45151.375</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>3.6</v>
@@ -3049,31 +3049,31 @@
         <v>1.909</v>
       </c>
       <c r="N29">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3215,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.909</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>1.65</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>2.9</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.714</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>2.55</v>
@@ -4016,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>2.9</v>
@@ -4274,7 +4274,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>3.3</v>
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>1.75</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>4.5</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>1.533</v>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4894,7 +4894,7 @@
         <v>45172.625</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.9</v>
@@ -5084,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>2.7</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>2.4</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>3.1</v>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K56">
         <v>2.4</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>1.85</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>2.15</v>
@@ -5707,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>2.75</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>3.4</v>
@@ -5873,7 +5873,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>1.65</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>1.285</v>
@@ -6054,7 +6054,7 @@
         <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>4.333</v>
@@ -6330,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.625</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.7</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,13 +6674,13 @@
         <v>45207.375</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6689,34 +6689,34 @@
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
         <v>4.2</v>
       </c>
-      <c r="M70">
-        <v>6</v>
-      </c>
       <c r="N70">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
         <v>2.025</v>
@@ -6725,25 +6725,25 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45207.375</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N71">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U71">
         <v>2.025</v>
@@ -6814,25 +6814,25 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.825</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>1.025</v>
-      </c>
-      <c r="AC71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6941,7 +6941,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -6953,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>1.6</v>
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>3.2</v>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.3</v>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K78">
         <v>3.4</v>
@@ -7487,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>3.6</v>
@@ -7567,7 +7567,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7653,7 +7653,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.615</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>1.222</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>3.1</v>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.75</v>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2.3</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,58 +8276,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O88">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q88">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8336,16 +8336,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>45</v>
+      </c>
+      <c r="K89">
+        <v>1.35</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>8</v>
+      </c>
+      <c r="N89">
+        <v>1.3</v>
+      </c>
+      <c r="O89">
+        <v>5.25</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-1.5</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
+        <v>1.875</v>
+      </c>
+      <c r="W89">
+        <v>0.3</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
         <v>1</v>
       </c>
-      <c r="J89" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89">
-        <v>3</v>
-      </c>
-      <c r="L89">
-        <v>3.5</v>
-      </c>
-      <c r="M89">
-        <v>2.25</v>
-      </c>
-      <c r="N89">
-        <v>2.55</v>
-      </c>
-      <c r="O89">
-        <v>3.5</v>
-      </c>
-      <c r="P89">
-        <v>2.7</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.82</v>
-      </c>
-      <c r="S89">
-        <v>2.08</v>
-      </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
-      <c r="W89">
-        <v>1.55</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>4.2</v>
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>5.5</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>2.05</v>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>1.7</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>1.85</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8988,7 +8988,7 @@
         <v>45242.5</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>1.55</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>3.1</v>
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.769</v>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9623,7 +9623,7 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>3.75</v>
@@ -9703,7 +9703,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>4.333</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>2.9</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.25</v>
@@ -10157,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>1.65</v>
@@ -10234,7 +10234,7 @@
         <v>45264.625</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>1.666</v>
@@ -10335,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>2.05</v>
@@ -10424,7 +10424,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>3.3</v>
@@ -10513,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>1.533</v>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10682,7 +10682,7 @@
         <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>2.25</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>3.8</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6780974</v>
+        <v>6779686</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N118">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X118">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6779686</v>
+        <v>6780974</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>43</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>2.025</v>
-      </c>
       <c r="W119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>3.6</v>
@@ -11216,7 +11216,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>2.8</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.85</v>
@@ -11391,7 +11391,7 @@
         <v>45352.625</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>2.6</v>
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6779691</v>
+        <v>6779318</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,61 +11480,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S124">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>0.925</v>
+      </c>
+      <c r="AC124">
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11542,7 +11557,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6779318</v>
+        <v>6779691</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11554,61 +11569,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125" t="s">
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.6</v>
+      </c>
+      <c r="O125">
+        <v>4.5</v>
+      </c>
+      <c r="P125">
+        <v>4.75</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1.85</v>
+      </c>
+      <c r="T125">
         <v>2.75</v>
       </c>
-      <c r="N125">
-        <v>2.45</v>
-      </c>
-      <c r="O125">
-        <v>3.4</v>
-      </c>
-      <c r="P125">
-        <v>2.9</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>1.79</v>
-      </c>
-      <c r="S125">
-        <v>2.11</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB125">
+        <v>0.825</v>
+      </c>
+      <c r="AC125">
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11633,6 +11663,15 @@
       <c r="G126" t="s">
         <v>39</v>
       </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>43</v>
+      </c>
       <c r="K126">
         <v>1.533</v>
       </c>
@@ -11643,46 +11682,52 @@
         <v>5.5</v>
       </c>
       <c r="N126">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O126">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q126">
         <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.82</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>2.08</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11707,6 +11752,15 @@
       <c r="G127" t="s">
         <v>37</v>
       </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>43</v>
+      </c>
       <c r="K127">
         <v>1.8</v>
       </c>
@@ -11717,46 +11771,52 @@
         <v>4.75</v>
       </c>
       <c r="N127">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S127">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB127">
+        <v>-0.5</v>
+      </c>
+      <c r="AC127">
+        <v>0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11781,6 +11841,15 @@
       <c r="G128" t="s">
         <v>38</v>
       </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>45</v>
+      </c>
       <c r="K128">
         <v>1.55</v>
       </c>
@@ -11791,45 +11860,495 @@
         <v>5.5</v>
       </c>
       <c r="N128">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="O128">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P128">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>3</v>
       </c>
       <c r="U128">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0.925</v>
+      </c>
+      <c r="AC128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>6779693</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F129" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" t="s">
+        <v>34</v>
+      </c>
+      <c r="K129">
+        <v>8</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>1.333</v>
+      </c>
+      <c r="N129">
+        <v>9.5</v>
+      </c>
+      <c r="O129">
+        <v>5.25</v>
+      </c>
+      <c r="P129">
+        <v>1.333</v>
+      </c>
+      <c r="Q129">
+        <v>1.5</v>
+      </c>
+      <c r="R129">
+        <v>1.99</v>
+      </c>
+      <c r="S129">
+        <v>1.91</v>
+      </c>
+      <c r="T129">
+        <v>3.25</v>
+      </c>
+      <c r="U129">
+        <v>2.05</v>
+      </c>
+      <c r="V129">
+        <v>1.8</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>6779696</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F130" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" t="s">
+        <v>37</v>
+      </c>
+      <c r="K130">
+        <v>2.5</v>
+      </c>
+      <c r="L130">
+        <v>3.2</v>
+      </c>
+      <c r="M130">
+        <v>2.8</v>
+      </c>
+      <c r="N130">
+        <v>2.625</v>
+      </c>
+      <c r="O130">
+        <v>3.25</v>
+      </c>
+      <c r="P130">
+        <v>2.7</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>1.89</v>
+      </c>
+      <c r="S130">
+        <v>2.01</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
+        <v>2.05</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6779694</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s">
+        <v>33</v>
+      </c>
+      <c r="K131">
+        <v>2.4</v>
+      </c>
+      <c r="L131">
+        <v>3.3</v>
+      </c>
+      <c r="M131">
+        <v>2.8</v>
+      </c>
+      <c r="N131">
+        <v>2.7</v>
+      </c>
+      <c r="O131">
+        <v>3.3</v>
+      </c>
+      <c r="P131">
+        <v>2.55</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>1.875</v>
+      </c>
+      <c r="V131">
+        <v>1.975</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6779692</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+      <c r="K132">
+        <v>1.25</v>
+      </c>
+      <c r="L132">
+        <v>5.5</v>
+      </c>
+      <c r="M132">
+        <v>11</v>
+      </c>
+      <c r="N132">
+        <v>1.285</v>
+      </c>
+      <c r="O132">
+        <v>6</v>
+      </c>
+      <c r="P132">
+        <v>9.5</v>
+      </c>
+      <c r="Q132">
+        <v>-1.75</v>
+      </c>
+      <c r="R132">
+        <v>2.05</v>
+      </c>
+      <c r="S132">
+        <v>1.85</v>
+      </c>
+      <c r="T132">
+        <v>3</v>
+      </c>
+      <c r="U132">
+        <v>1.925</v>
+      </c>
+      <c r="V132">
+        <v>1.925</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6779319</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133" t="s">
+        <v>41</v>
+      </c>
+      <c r="K133">
+        <v>3.8</v>
+      </c>
+      <c r="L133">
+        <v>3.6</v>
+      </c>
+      <c r="M133">
+        <v>1.95</v>
+      </c>
+      <c r="N133">
+        <v>3.6</v>
+      </c>
+      <c r="O133">
+        <v>3.6</v>
+      </c>
+      <c r="P133">
+        <v>2</v>
+      </c>
+      <c r="Q133">
+        <v>0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>2.05</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
+        <v>1.925</v>
+      </c>
+      <c r="V133">
+        <v>1.925</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>6779695</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45362.625</v>
+      </c>
+      <c r="F134" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>3.6</v>
+      </c>
+      <c r="M134">
+        <v>1.9</v>
+      </c>
+      <c r="N134">
+        <v>3.6</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
+        <v>2</v>
+      </c>
+      <c r="Q134">
+        <v>0.5</v>
+      </c>
+      <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
+        <v>1.925</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -112,13 +112,13 @@
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>FC Copenhagen</t>
+    <t>FC Nordsjaelland</t>
   </si>
   <si>
     <t>AGF Aarhus</t>
   </si>
   <si>
-    <t>FC Nordsjaelland</t>
+    <t>FC Copenhagen</t>
   </si>
   <si>
     <t>Viborg</t>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O5">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,73 +1070,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>7.5</v>
+      </c>
+      <c r="N7">
+        <v>1.25</v>
+      </c>
+      <c r="O7">
+        <v>6.5</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>-2</v>
+      </c>
+      <c r="R7">
+        <v>2.025</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="M7">
-        <v>2.75</v>
-      </c>
-      <c r="N7">
-        <v>2.05</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>-0.25</v>
-      </c>
-      <c r="R7">
-        <v>1.875</v>
-      </c>
-      <c r="S7">
-        <v>1.975</v>
-      </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
       <c r="U7">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1337,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1871,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2669,7 +2669,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2847,7 +2847,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,16 +2936,16 @@
         <v>45151.375</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
@@ -2960,31 +2960,31 @@
         <v>1.909</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,16 +3025,16 @@
         <v>45151.375</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
@@ -3049,31 +3049,31 @@
         <v>1.909</v>
       </c>
       <c r="N29">
+        <v>3.8</v>
+      </c>
+      <c r="O29">
+        <v>3.75</v>
+      </c>
+      <c r="P29">
+        <v>1.95</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>2.375</v>
-      </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.88</v>
-      </c>
-      <c r="S29">
-        <v>2.02</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3384,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4271,7 +4271,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -4541,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -5072,10 +5072,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
         <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5698,7 +5698,7 @@
         <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5962,7 +5962,7 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -6051,7 +6051,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>31</v>
@@ -6232,7 +6232,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45207.375</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N70">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
         <v>2.025</v>
@@ -6725,25 +6725,25 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.825</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>1.025</v>
-      </c>
-      <c r="AC70">
-        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,49 +6763,49 @@
         <v>45207.375</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
         <v>4.2</v>
       </c>
-      <c r="M71">
-        <v>6</v>
-      </c>
       <c r="N71">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
         <v>2.025</v>
@@ -6814,25 +6814,25 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7033,7 +7033,7 @@
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7208,7 +7208,7 @@
         <v>45220.5</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7389,7 +7389,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>45227.5</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>42</v>
@@ -8012,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,58 +8276,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
       </c>
       <c r="K88">
+        <v>1.35</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>8</v>
+      </c>
+      <c r="N88">
+        <v>1.3</v>
+      </c>
+      <c r="O88">
+        <v>5.25</v>
+      </c>
+      <c r="P88">
+        <v>10</v>
+      </c>
+      <c r="Q88">
+        <v>-1.5</v>
+      </c>
+      <c r="R88">
+        <v>1.85</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
         <v>3</v>
       </c>
-      <c r="L88">
-        <v>3.5</v>
-      </c>
-      <c r="M88">
-        <v>2.25</v>
-      </c>
-      <c r="N88">
-        <v>2.55</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
-      <c r="P88">
-        <v>2.7</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>1.82</v>
-      </c>
-      <c r="S88">
-        <v>2.08</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8336,16 +8336,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,58 +8365,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N89">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O89">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q89">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8425,16 +8425,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -8991,7 +8991,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9347,7 +9347,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9433,7 +9433,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,76 +9878,76 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N106">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.925</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
-      <c r="AC106">
-        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,67 +9967,67 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>1.75</v>
+      </c>
+      <c r="N107">
+        <v>4.2</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.2</v>
-      </c>
-      <c r="N107">
-        <v>3.1</v>
-      </c>
-      <c r="O107">
-        <v>3.4</v>
-      </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
         <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
         <v>-1</v>
@@ -10036,7 +10036,7 @@
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>33</v>
@@ -10501,7 +10501,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
         <v>36</v>
@@ -10593,7 +10593,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -11302,10 +11302,10 @@
         <v>45348.625</v>
       </c>
       <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
         <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>34</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11394,7 +11394,7 @@
         <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11836,7 +11836,7 @@
         <v>45355.625</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11908,7 +11908,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11928,7 +11928,16 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>44</v>
       </c>
       <c r="K129">
         <v>8</v>
@@ -11940,22 +11949,22 @@
         <v>1.333</v>
       </c>
       <c r="N129">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O129">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P129">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="Q129">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R129">
-        <v>1.99</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.91</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
         <v>3.25</v>
@@ -11967,22 +11976,28 @@
         <v>1.8</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-0.5</v>
+      </c>
+      <c r="AC129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -12056,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:29">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12088,13 +12103,13 @@
         <v>2.8</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O131">
         <v>3.3</v>
       </c>
       <c r="P131">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -12130,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:29">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -12147,7 +12162,7 @@
         <v>45361.5</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
@@ -12171,13 +12186,13 @@
         <v>9.5</v>
       </c>
       <c r="Q132">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R132">
+        <v>1.85</v>
+      </c>
+      <c r="S132">
         <v>2.05</v>
-      </c>
-      <c r="S132">
-        <v>1.85</v>
       </c>
       <c r="T132">
         <v>3</v>
@@ -12204,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:29">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -12248,19 +12263,19 @@
         <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S133">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -12278,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:29">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12310,31 +12325,31 @@
         <v>1.9</v>
       </c>
       <c r="N134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q134">
         <v>0.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
         <v>0</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,19 @@
     <t>AC Horsens</t>
   </si>
   <si>
-    <t>AaB</t>
+    <t>Midtjylland</t>
   </si>
   <si>
-    <t>Midtjylland</t>
+    <t>AaB</t>
   </si>
   <si>
     <t>FC Nordsjaelland</t>
   </si>
   <si>
-    <t>AGF Aarhus</t>
+    <t>FC Copenhagen</t>
   </si>
   <si>
-    <t>FC Copenhagen</t>
+    <t>AGF Aarhus</t>
   </si>
   <si>
     <t>Viborg</t>
@@ -148,10 +148,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S3">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA3">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6471209</v>
+        <v>6445256</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S4">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z4">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6438715</v>
+        <v>6439098</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,58 +981,58 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R6">
+        <v>2.025</v>
+      </c>
+      <c r="S6">
+        <v>1.825</v>
+      </c>
+      <c r="T6">
+        <v>3.75</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
-      <c r="U6">
-        <v>1.9</v>
-      </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1041,13 +1041,13 @@
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6439098</v>
+        <v>6438715</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,58 +1070,58 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
       </c>
       <c r="K7">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1130,13 +1130,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.222</v>
@@ -1337,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>4.75</v>
@@ -1423,7 +1423,7 @@
         <v>45130.375</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>1.7</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1871,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>5.5</v>
@@ -1957,7 +1957,7 @@
         <v>45137.375</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2224,7 +2224,7 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2402,7 +2402,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>1.333</v>
@@ -2494,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2583,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.95</v>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2847,7 +2847,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.45</v>
@@ -2939,7 +2939,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3037,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>3.6</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3203,7 +3203,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3384,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.714</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>2.55</v>
@@ -4004,7 +4004,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4016,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4093,7 +4093,7 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2.9</v>
@@ -4274,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>3.3</v>
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>1.75</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6779624</v>
+        <v>6779623</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,76 +4538,76 @@
         <v>45172.375</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N46">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P46">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6779623</v>
+        <v>6779624</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,76 +4627,76 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N47">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4805,7 +4805,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4894,10 +4894,10 @@
         <v>45172.625</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5075,7 +5075,7 @@
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>2.4</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>3.1</v>
@@ -5339,7 +5339,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>2.4</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6779308</v>
+        <v>6779632</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45193.375</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L58">
         <v>3.6</v>
       </c>
       <c r="M58">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6779632</v>
+        <v>6779308</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45193.375</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>44</v>
       </c>
       <c r="K59">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L59">
         <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>1.65</v>
@@ -6051,10 +6051,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6779638</v>
+        <v>6779640</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,67 +6140,67 @@
         <v>45200.375</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N64">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6209,7 +6209,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6779640</v>
+        <v>6779638</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,67 +6229,67 @@
         <v>45200.375</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
         <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X65">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6298,7 +6298,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6410,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.625</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>1.7</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,13 +6674,13 @@
         <v>45207.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6689,34 +6689,34 @@
         <v>44</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
         <v>4.2</v>
       </c>
-      <c r="M70">
-        <v>6</v>
-      </c>
       <c r="N70">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
         <v>2.025</v>
@@ -6725,25 +6725,25 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,13 +6763,13 @@
         <v>45207.375</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6778,34 +6778,34 @@
         <v>45</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N71">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U71">
         <v>2.025</v>
@@ -6814,25 +6814,25 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.825</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>1.025</v>
-      </c>
-      <c r="AC71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6941,7 +6941,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -7030,10 +7030,10 @@
         <v>45207.625</v>
       </c>
       <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
         <v>33</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7208,7 +7208,7 @@
         <v>45220.5</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K76">
         <v>1.3</v>
@@ -7300,7 +7300,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>3.4</v>
@@ -7567,7 +7567,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7653,7 +7653,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>1.615</v>
@@ -7742,7 +7742,7 @@
         <v>45227.5</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>42</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>1.222</v>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K85">
         <v>2.3</v>
@@ -8098,7 +8098,7 @@
         <v>45229.625</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>40</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>1.35</v>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>3</v>
@@ -8457,7 +8457,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8466,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>4.2</v>
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>5.5</v>
@@ -8635,7 +8635,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8810,7 +8810,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8988,7 +8988,7 @@
         <v>45242.5</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>1.55</v>
@@ -9166,7 +9166,7 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9347,7 +9347,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9436,7 +9436,7 @@
         <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9703,7 +9703,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6779673</v>
+        <v>6779676</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,67 +9878,67 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L106">
+        <v>3.6</v>
+      </c>
+      <c r="M106">
+        <v>1.75</v>
+      </c>
+      <c r="N106">
+        <v>4.2</v>
+      </c>
+      <c r="O106">
         <v>3.5</v>
       </c>
-      <c r="M106">
-        <v>2.2</v>
-      </c>
-      <c r="N106">
-        <v>3.1</v>
-      </c>
-      <c r="O106">
-        <v>3.4</v>
-      </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
@@ -9947,7 +9947,7 @@
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6779676</v>
+        <v>6779673</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,76 +9967,76 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N107">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.925</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>1.25</v>
@@ -10145,10 +10145,10 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F109" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" t="s">
         <v>34</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>1.65</v>
@@ -10234,7 +10234,7 @@
         <v>45264.625</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K110">
         <v>1.666</v>
@@ -10335,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>2.05</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779678</v>
+        <v>6779681</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,40 +10412,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>44</v>
       </c>
       <c r="K112">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P112">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
         <v>1.85</v>
@@ -10454,31 +10454,31 @@
         <v>2</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="V112">
-        <v>1.95</v>
-      </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779681</v>
+        <v>6779678</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,40 +10501,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>3</v>
-      </c>
-      <c r="I113">
-        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>45</v>
       </c>
       <c r="K113">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N113">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O113">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q113">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
         <v>1.85</v>
@@ -10543,31 +10543,31 @@
         <v>2</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
+        <v>1.9</v>
+      </c>
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="V113">
-        <v>1.9</v>
-      </c>
       <c r="W113">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10682,7 +10682,7 @@
         <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>2.25</v>
@@ -10771,7 +10771,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6779686</v>
+        <v>6780974</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2.05</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.85</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>2.025</v>
-      </c>
       <c r="W118">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6780974</v>
+        <v>6779686</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X119">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>3.6</v>
@@ -11213,10 +11213,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>2.8</v>
@@ -11302,7 +11302,7 @@
         <v>45348.625</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K122">
         <v>1.85</v>
@@ -11391,10 +11391,10 @@
         <v>45352.625</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>2.6</v>
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6779318</v>
+        <v>6779691</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,73 +11480,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.6</v>
+      </c>
+      <c r="O124">
+        <v>4.5</v>
+      </c>
+      <c r="P124">
+        <v>4.75</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.85</v>
+      </c>
+      <c r="T124">
         <v>2.75</v>
       </c>
-      <c r="N124">
-        <v>2.45</v>
-      </c>
-      <c r="O124">
-        <v>3.3</v>
-      </c>
-      <c r="P124">
-        <v>2.9</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.84</v>
-      </c>
-      <c r="S124">
-        <v>2.06</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z124">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11557,7 +11557,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6779691</v>
+        <v>6779318</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11569,73 +11569,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>44</v>
       </c>
       <c r="K125">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O125">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11747,7 +11747,7 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -11848,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K128">
         <v>1.55</v>
@@ -11937,7 +11937,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>8</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6779696</v>
+        <v>6779694</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,25 +12014,34 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
         <v>2.8</v>
       </c>
       <c r="N130">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
         <v>2.7</v>
@@ -12041,34 +12050,40 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2.25</v>
       </c>
       <c r="U130">
+        <v>2.05</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="V130">
-        <v>2.05</v>
-      </c>
       <c r="W130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12076,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6779694</v>
+        <v>6779696</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12088,34 +12103,43 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
         <v>2.8</v>
       </c>
       <c r="N131">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q131">
         <v>0</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
         <v>1.9</v>
@@ -12124,25 +12148,31 @@
         <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12162,11 +12192,20 @@
         <v>45361.5</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
       </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>44</v>
+      </c>
       <c r="K132">
         <v>1.25</v>
       </c>
@@ -12177,10 +12216,10 @@
         <v>11</v>
       </c>
       <c r="N132">
-        <v>1.285</v>
+        <v>1.3</v>
       </c>
       <c r="O132">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="P132">
         <v>9.5</v>
@@ -12192,31 +12231,37 @@
         <v>1.85</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>0.95</v>
+      </c>
+      <c r="AC132">
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12241,6 +12286,15 @@
       <c r="G133" t="s">
         <v>41</v>
       </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>45</v>
+      </c>
       <c r="K133">
         <v>3.8</v>
       </c>
@@ -12251,46 +12305,52 @@
         <v>1.95</v>
       </c>
       <c r="N133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q133">
         <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="S133">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.9</v>
       </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>0.99</v>
+      </c>
+      <c r="AB133">
+        <v>0.475</v>
+      </c>
+      <c r="AC133">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12313,7 +12373,16 @@
         <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>45</v>
       </c>
       <c r="K134">
         <v>4</v>
@@ -12325,45 +12394,495 @@
         <v>1.9</v>
       </c>
       <c r="N134">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
+        <v>2.15</v>
+      </c>
+      <c r="Q134">
+        <v>0.25</v>
+      </c>
+      <c r="R134">
+        <v>2.04</v>
+      </c>
+      <c r="S134">
+        <v>1.86</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
+        <v>1.875</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>1.15</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>6779320</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" t="s">
+        <v>35</v>
+      </c>
+      <c r="K135">
+        <v>2.5</v>
+      </c>
+      <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>2.5</v>
+      </c>
+      <c r="N135">
+        <v>2.6</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
+        <v>2.4</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>2.02</v>
+      </c>
+      <c r="S135">
+        <v>1.88</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.875</v>
+      </c>
+      <c r="V135">
+        <v>1.975</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>6779697</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" t="s">
+        <v>42</v>
+      </c>
+      <c r="K136">
+        <v>1.363</v>
+      </c>
+      <c r="L136">
+        <v>4.75</v>
+      </c>
+      <c r="M136">
+        <v>7.5</v>
+      </c>
+      <c r="N136">
+        <v>1.3</v>
+      </c>
+      <c r="O136">
+        <v>5.25</v>
+      </c>
+      <c r="P136">
+        <v>8.5</v>
+      </c>
+      <c r="Q136">
+        <v>-1.5</v>
+      </c>
+      <c r="R136">
+        <v>1.99</v>
+      </c>
+      <c r="S136">
+        <v>1.91</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>2.025</v>
+      </c>
+      <c r="V136">
+        <v>1.825</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>6779698</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>41</v>
+      </c>
+      <c r="G137" t="s">
+        <v>38</v>
+      </c>
+      <c r="K137">
+        <v>1.615</v>
+      </c>
+      <c r="L137">
+        <v>3.8</v>
+      </c>
+      <c r="M137">
+        <v>5.25</v>
+      </c>
+      <c r="N137">
+        <v>1.533</v>
+      </c>
+      <c r="O137">
+        <v>4.2</v>
+      </c>
+      <c r="P137">
+        <v>6</v>
+      </c>
+      <c r="Q137">
+        <v>-1</v>
+      </c>
+      <c r="R137">
         <v>1.95</v>
       </c>
-      <c r="Q134">
-        <v>0.5</v>
-      </c>
-      <c r="R134">
-        <v>1.92</v>
-      </c>
-      <c r="S134">
-        <v>1.98</v>
-      </c>
-      <c r="T134">
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
         <v>2.75</v>
       </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <v>0</v>
-      </c>
-      <c r="Y134">
-        <v>0</v>
-      </c>
-      <c r="Z134">
-        <v>0</v>
-      </c>
-      <c r="AA134">
+      <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.875</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>6779699</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
+        <v>39</v>
+      </c>
+      <c r="K138">
+        <v>1.363</v>
+      </c>
+      <c r="L138">
+        <v>4.75</v>
+      </c>
+      <c r="M138">
+        <v>7.5</v>
+      </c>
+      <c r="N138">
+        <v>1.45</v>
+      </c>
+      <c r="O138">
+        <v>4.5</v>
+      </c>
+      <c r="P138">
+        <v>6.5</v>
+      </c>
+      <c r="Q138">
+        <v>-1.25</v>
+      </c>
+      <c r="R138">
+        <v>2.07</v>
+      </c>
+      <c r="S138">
+        <v>1.83</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>2.025</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>6779700</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
+        <v>40</v>
+      </c>
+      <c r="K139">
+        <v>1.5</v>
+      </c>
+      <c r="L139">
+        <v>4.2</v>
+      </c>
+      <c r="M139">
+        <v>6</v>
+      </c>
+      <c r="N139">
+        <v>1.5</v>
+      </c>
+      <c r="O139">
+        <v>4.2</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>1.84</v>
+      </c>
+      <c r="S139">
+        <v>2.06</v>
+      </c>
+      <c r="T139">
+        <v>2.75</v>
+      </c>
+      <c r="U139">
+        <v>1.8</v>
+      </c>
+      <c r="V139">
+        <v>2.05</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>6779701</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s">
+        <v>33</v>
+      </c>
+      <c r="K140">
+        <v>5.75</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>1.571</v>
+      </c>
+      <c r="N140">
+        <v>5.75</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>1.571</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <v>1.91</v>
+      </c>
+      <c r="S140">
+        <v>1.99</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>1.925</v>
+      </c>
+      <c r="V140">
+        <v>1.925</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -103,22 +103,22 @@
     <t>Denmark Superligaen</t>
   </si>
   <si>
+    <t>AaB</t>
+  </si>
+  <si>
     <t>AC Horsens</t>
   </si>
   <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>AaB</t>
+    <t>AGF Aarhus</t>
   </si>
   <si>
     <t>FC Nordsjaelland</t>
   </si>
   <si>
     <t>FC Copenhagen</t>
-  </si>
-  <si>
-    <t>AGF Aarhus</t>
   </si>
   <si>
     <t>Viborg</t>
@@ -145,13 +145,13 @@
     <t>Hvidovre IF</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6478390</v>
+        <v>6445256</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="L2">
+        <v>3.7</v>
+      </c>
+      <c r="M2">
         <v>3.5</v>
       </c>
-      <c r="M2">
-        <v>2.4</v>
-      </c>
       <c r="N2">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6471209</v>
+        <v>6478390</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6445256</v>
+        <v>6471209</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L4">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S4">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA4">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,52 +892,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -949,16 +949,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,73 +981,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6438715</v>
+        <v>6439098</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,58 +1070,58 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N7">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R7">
+        <v>2.025</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1130,13 +1130,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.222</v>
@@ -1337,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>4.75</v>
@@ -1423,7 +1423,7 @@
         <v>45130.375</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>1.7</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1871,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>5.5</v>
@@ -1957,7 +1957,7 @@
         <v>45137.375</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2224,10 +2224,10 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2402,7 +2402,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>1.333</v>
@@ -2494,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2583,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2669,7 +2669,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.95</v>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2847,7 +2847,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.45</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,19 +2936,19 @@
         <v>45151.375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -2960,31 +2960,31 @@
         <v>1.909</v>
       </c>
       <c r="N28">
+        <v>3.8</v>
+      </c>
+      <c r="O28">
+        <v>3.75</v>
+      </c>
+      <c r="P28">
+        <v>1.95</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>2.375</v>
-      </c>
-      <c r="Q28">
-        <v>0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.88</v>
-      </c>
-      <c r="S28">
-        <v>2.02</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,19 +3025,19 @@
         <v>45151.375</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>3.6</v>
@@ -3049,31 +3049,31 @@
         <v>1.909</v>
       </c>
       <c r="N29">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3203,7 +3203,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3215,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>1.909</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>1.65</v>
@@ -3384,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3473,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>2.9</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.714</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>2.55</v>
@@ -4004,7 +4004,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4016,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4093,7 +4093,7 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>2.9</v>
@@ -4271,10 +4271,10 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>3.3</v>
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>1.75</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>1.533</v>
@@ -4630,7 +4630,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>4.5</v>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4805,7 +4805,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4894,10 +4894,10 @@
         <v>45172.625</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>2.9</v>
@@ -5072,10 +5072,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5084,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>2.7</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>2.4</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>3.1</v>
@@ -5339,7 +5339,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>2.4</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>1.85</v>
@@ -5609,7 +5609,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.75</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>2.15</v>
@@ -5787,7 +5787,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>3.4</v>
@@ -5873,7 +5873,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>1.65</v>
@@ -5962,7 +5962,7 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>1.285</v>
@@ -6051,10 +6051,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6143,7 +6143,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>4.333</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6330,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6410,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.625</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.7</v>
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6779645</v>
+        <v>6779644</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,49 +6674,49 @@
         <v>45207.375</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N70">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
         <v>2.025</v>
@@ -6725,25 +6725,25 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.825</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>1.025</v>
-      </c>
-      <c r="AC70">
-        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6779644</v>
+        <v>6779645</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,13 +6763,13 @@
         <v>45207.375</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6778,34 +6778,34 @@
         <v>45</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
         <v>4.2</v>
       </c>
-      <c r="M71">
-        <v>6</v>
-      </c>
       <c r="N71">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
         <v>2.025</v>
@@ -6814,25 +6814,25 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6941,7 +6941,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -6953,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>1.6</v>
@@ -7030,10 +7030,10 @@
         <v>45207.625</v>
       </c>
       <c r="F74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
         <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>3.2</v>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>4.5</v>
@@ -7208,7 +7208,7 @@
         <v>45220.5</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.3</v>
@@ -7300,7 +7300,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7389,7 +7389,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>3.4</v>
@@ -7487,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>3.6</v>
@@ -7567,7 +7567,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7653,7 +7653,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.615</v>
@@ -7742,7 +7742,7 @@
         <v>45227.5</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>42</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>1.222</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>3.1</v>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.75</v>
@@ -8012,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2.3</v>
@@ -8098,7 +8098,7 @@
         <v>45229.625</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>40</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8276,7 +8276,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.35</v>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>3</v>
@@ -8457,7 +8457,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8466,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>4.2</v>
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>5.5</v>
@@ -8635,7 +8635,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>2.05</v>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93">
         <v>1.7</v>
@@ -8810,7 +8810,7 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>1.85</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8988,10 +8988,10 @@
         <v>45242.5</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>1.55</v>
@@ -9166,7 +9166,7 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>3.1</v>
@@ -9347,7 +9347,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9433,11 +9433,11 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F101" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s">
         <v>32</v>
       </c>
-      <c r="G101" t="s">
-        <v>34</v>
-      </c>
       <c r="H101">
         <v>0</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>1.769</v>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9623,7 +9623,7 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>3.75</v>
@@ -9703,7 +9703,7 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9881,7 +9881,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K106">
         <v>4.333</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>2.9</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.25</v>
@@ -10145,10 +10145,10 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>1.65</v>
@@ -10234,7 +10234,7 @@
         <v>45264.625</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>1.666</v>
@@ -10335,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>2.05</v>
@@ -10412,7 +10412,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>36</v>
@@ -10424,7 +10424,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>1.533</v>
@@ -10513,7 +10513,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>3.3</v>
@@ -10593,7 +10593,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10682,7 +10682,7 @@
         <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>2.25</v>
@@ -10771,7 +10771,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>3.8</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6780974</v>
+        <v>6779686</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N118">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X118">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6779686</v>
+        <v>6780974</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>44</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>2.025</v>
-      </c>
       <c r="W119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>3.6</v>
@@ -11213,10 +11213,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>2.8</v>
@@ -11302,11 +11302,11 @@
         <v>45348.625</v>
       </c>
       <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
         <v>33</v>
       </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
       <c r="H122">
         <v>2</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.85</v>
@@ -11391,10 +11391,10 @@
         <v>45352.625</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>2.6</v>
@@ -11492,7 +11492,7 @@
         <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>1.6</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>2.4</v>
@@ -11670,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>1.533</v>
@@ -11747,7 +11747,7 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>1.8</v>
@@ -11836,7 +11836,7 @@
         <v>45355.625</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11848,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>1.55</v>
@@ -11928,7 +11928,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11937,7 +11937,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>8</v>
@@ -12017,7 +12017,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K130">
         <v>2.4</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>2.5</v>
@@ -12192,7 +12192,7 @@
         <v>45361.5</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>1.25</v>
@@ -12293,7 +12293,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>3.8</v>
@@ -12373,7 +12373,7 @@
         <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>4</v>
@@ -12480,25 +12480,25 @@
         <v>3.5</v>
       </c>
       <c r="P135">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q135">
         <v>0</v>
       </c>
       <c r="R135">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S135">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.875</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12548,31 +12548,31 @@
         <v>7.5</v>
       </c>
       <c r="N136">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O136">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12622,10 +12622,10 @@
         <v>5.25</v>
       </c>
       <c r="N137">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P137">
         <v>6</v>
@@ -12634,19 +12634,19 @@
         <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12681,7 +12681,7 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12696,7 +12696,7 @@
         <v>7.5</v>
       </c>
       <c r="N138">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O138">
         <v>4.5</v>
@@ -12705,22 +12705,22 @@
         <v>6.5</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S138">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12743,7 +12743,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6779700</v>
+        <v>6779701</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12755,46 +12755,46 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K139">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R139">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="S139">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6779701</v>
+        <v>6779700</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12829,37 +12829,37 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K140">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="N140">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="O140">
         <v>4</v>
       </c>
       <c r="P140">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="S140">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="T140">
         <v>2.75</v>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>AGF Aarhus</t>
+    <t>FC Nordsjaelland</t>
   </si>
   <si>
-    <t>FC Nordsjaelland</t>
+    <t>AGF Aarhus</t>
   </si>
   <si>
     <t>FC Copenhagen</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6438715</v>
+        <v>6437830</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,52 +892,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -949,16 +949,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6437830</v>
+        <v>6438715</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,52 +981,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>45130.375</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
@@ -1690,7 +1690,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -2224,10 +2224,10 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2939,7 +2939,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3473,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4271,7 +4271,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -4630,7 +4630,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5339,7 +5339,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5787,7 +5787,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -6143,7 +6143,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>45207.375</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -7030,7 +7030,7 @@
         <v>45207.625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7300,7 +7300,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8098,7 +8098,7 @@
         <v>45229.625</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>40</v>
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6779657</v>
+        <v>6779313</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,58 +8276,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
       </c>
       <c r="K88">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O88">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="Q88">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8336,16 +8336,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6779313</v>
+        <v>6779657</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,58 +8365,58 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>45</v>
       </c>
       <c r="K89">
+        <v>1.35</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>8</v>
+      </c>
+      <c r="N89">
+        <v>1.3</v>
+      </c>
+      <c r="O89">
+        <v>5.25</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-1.5</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
         <v>3</v>
       </c>
-      <c r="L89">
-        <v>3.5</v>
-      </c>
-      <c r="M89">
-        <v>2.25</v>
-      </c>
-      <c r="N89">
-        <v>2.55</v>
-      </c>
-      <c r="O89">
-        <v>3.5</v>
-      </c>
-      <c r="P89">
-        <v>2.7</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.82</v>
-      </c>
-      <c r="S89">
-        <v>2.08</v>
-      </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8425,16 +8425,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8991,7 +8991,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9166,7 +9166,7 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9433,10 +9433,10 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
         <v>33</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6779681</v>
+        <v>6779678</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,40 +10412,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>3</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N112">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O112">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
         <v>1.85</v>
@@ -10454,31 +10454,31 @@
         <v>2</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
+        <v>1.9</v>
+      </c>
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="V112">
-        <v>1.9</v>
-      </c>
       <c r="W112">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6779678</v>
+        <v>6779681</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,40 +10501,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P113">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
         <v>1.85</v>
@@ -10543,31 +10543,31 @@
         <v>2</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10771,7 +10771,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6779686</v>
+        <v>6780974</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2.05</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.85</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>2.025</v>
-      </c>
       <c r="W118">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6780974</v>
+        <v>6779686</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>45</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
+        <v>2.3</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119">
+        <v>3.4</v>
+      </c>
+      <c r="P119">
+        <v>2.3</v>
+      </c>
+      <c r="Q119">
+        <v>0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
         <v>2</v>
       </c>
-      <c r="J119" t="s">
-        <v>44</v>
-      </c>
-      <c r="K119">
-        <v>4</v>
-      </c>
-      <c r="L119">
-        <v>3.7</v>
-      </c>
-      <c r="M119">
-        <v>1.833</v>
-      </c>
-      <c r="N119">
-        <v>5.25</v>
-      </c>
-      <c r="O119">
-        <v>4.2</v>
-      </c>
-      <c r="P119">
-        <v>1.615</v>
-      </c>
-      <c r="Q119">
-        <v>1</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
+        <v>1.825</v>
+      </c>
+      <c r="V119">
+        <v>2.025</v>
+      </c>
+      <c r="W119">
         <v>2</v>
       </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
       <c r="X119">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
         <v>31</v>
@@ -11305,7 +11305,7 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -11836,7 +11836,7 @@
         <v>45355.625</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11928,7 +11928,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12017,7 +12017,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6779320</v>
+        <v>6779698</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,61 +12459,76 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB135">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC135">
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12521,7 +12536,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6779697</v>
+        <v>6779320</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12533,37 +12548,46 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L136">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N136">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T136">
         <v>2.5</v>
@@ -12575,19 +12599,25 @@
         <v>1.875</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
+        <v>0.875</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12595,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6779698</v>
+        <v>6779697</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12607,25 +12637,34 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L137">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M137">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="N137">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
         <v>6</v>
@@ -12634,34 +12673,40 @@
         <v>-1</v>
       </c>
       <c r="R137">
-        <v>2.01</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>1.89</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>0</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12686,6 +12731,15 @@
       <c r="G138" t="s">
         <v>39</v>
       </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>45</v>
+      </c>
       <c r="K138">
         <v>1.363</v>
       </c>
@@ -12696,46 +12750,52 @@
         <v>7.5</v>
       </c>
       <c r="N138">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O138">
         <v>4.5</v>
       </c>
       <c r="P138">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12743,7 +12803,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6779701</v>
+        <v>6779700</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12755,61 +12815,76 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>44</v>
       </c>
       <c r="K139">
+        <v>1.5</v>
+      </c>
+      <c r="L139">
+        <v>4.2</v>
+      </c>
+      <c r="M139">
+        <v>6</v>
+      </c>
+      <c r="N139">
+        <v>1.571</v>
+      </c>
+      <c r="O139">
+        <v>4.2</v>
+      </c>
+      <c r="P139">
         <v>5.75</v>
       </c>
-      <c r="L139">
-        <v>4</v>
-      </c>
-      <c r="M139">
-        <v>1.571</v>
-      </c>
-      <c r="N139">
-        <v>5.5</v>
-      </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
-      <c r="P139">
-        <v>1.615</v>
-      </c>
       <c r="Q139">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>0.925</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12817,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6779700</v>
+        <v>6779701</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12829,60 +12904,519 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="N140">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R140">
-        <v>2.03</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.87</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.825</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7983991</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45382.375</v>
+      </c>
+      <c r="F141" t="s">
+        <v>40</v>
+      </c>
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+      <c r="K141">
+        <v>2.05</v>
+      </c>
+      <c r="L141">
+        <v>3.5</v>
+      </c>
+      <c r="M141">
+        <v>3.5</v>
+      </c>
+      <c r="N141">
+        <v>1.909</v>
+      </c>
+      <c r="O141">
+        <v>3.6</v>
+      </c>
+      <c r="P141">
+        <v>3.8</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>2.025</v>
+      </c>
+      <c r="V141">
+        <v>1.825</v>
+      </c>
+      <c r="W141">
         <v>0</v>
       </c>
-      <c r="X140">
+      <c r="X141">
         <v>0</v>
       </c>
-      <c r="Y140">
+      <c r="Y141">
         <v>0</v>
       </c>
-      <c r="Z140">
+      <c r="Z141">
         <v>0</v>
       </c>
-      <c r="AA140">
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7983992</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45382.45833333334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>35</v>
+      </c>
+      <c r="G142" t="s">
+        <v>42</v>
+      </c>
+      <c r="K142">
+        <v>1.714</v>
+      </c>
+      <c r="L142">
+        <v>3.8</v>
+      </c>
+      <c r="M142">
+        <v>4.5</v>
+      </c>
+      <c r="N142">
+        <v>1.6</v>
+      </c>
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142">
+        <v>5.5</v>
+      </c>
+      <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
+        <v>2.025</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7983993</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45383.375</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" t="s">
+        <v>41</v>
+      </c>
+      <c r="K143">
+        <v>1.833</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>4.2</v>
+      </c>
+      <c r="N143">
+        <v>1.85</v>
+      </c>
+      <c r="O143">
+        <v>3.6</v>
+      </c>
+      <c r="P143">
+        <v>4</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.91</v>
+      </c>
+      <c r="S143">
+        <v>1.99</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
+        <v>1.975</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7983994</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45383.45833333334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144">
+        <v>2.05</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>3.4</v>
+      </c>
+      <c r="N144">
+        <v>1.909</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>3.5</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.91</v>
+      </c>
+      <c r="S144">
+        <v>1.99</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7983995</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45383.54166666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>38</v>
+      </c>
+      <c r="G145" t="s">
+        <v>33</v>
+      </c>
+      <c r="K145">
+        <v>2.8</v>
+      </c>
+      <c r="L145">
+        <v>3.3</v>
+      </c>
+      <c r="M145">
+        <v>2.45</v>
+      </c>
+      <c r="N145">
+        <v>3.1</v>
+      </c>
+      <c r="O145">
+        <v>3.3</v>
+      </c>
+      <c r="P145">
+        <v>2.3</v>
+      </c>
+      <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.85</v>
+      </c>
+      <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>1.975</v>
+      </c>
+      <c r="V145">
+        <v>1.875</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7983996</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45384.58333333334</v>
+      </c>
+      <c r="F146" t="s">
+        <v>37</v>
+      </c>
+      <c r="G146" t="s">
+        <v>39</v>
+      </c>
+      <c r="K146">
+        <v>1.869</v>
+      </c>
+      <c r="L146">
+        <v>3.4</v>
+      </c>
+      <c r="M146">
+        <v>4.333</v>
+      </c>
+      <c r="N146">
+        <v>1.95</v>
+      </c>
+      <c r="O146">
+        <v>3.4</v>
+      </c>
+      <c r="P146">
+        <v>4</v>
+      </c>
+      <c r="Q146">
+        <v>-0.5</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.9</v>
+      </c>
+      <c r="T146">
+        <v>2.25</v>
+      </c>
+      <c r="U146">
+        <v>1.875</v>
+      </c>
+      <c r="V146">
+        <v>1.975</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Superligaen/Denmark Superligaen.xlsx
+++ b/Denmark Superligaen/Denmark Superligaen.xlsx
@@ -103,22 +103,22 @@
     <t>Denmark Superligaen</t>
   </si>
   <si>
-    <t>AaB</t>
-  </si>
-  <si>
     <t>AC Horsens</t>
   </si>
   <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>FC Nordsjaelland</t>
+    <t>AaB</t>
+  </si>
+  <si>
+    <t>FC Copenhagen</t>
   </si>
   <si>
     <t>AGF Aarhus</t>
   </si>
   <si>
-    <t>FC Copenhagen</t>
+    <t>FC Nordsjaelland</t>
   </si>
   <si>
     <t>Viborg</t>
@@ -145,13 +145,13 @@
     <t>Hvidovre IF</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6445256</v>
+        <v>6478390</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="L2">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P2">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y2">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.9299999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6478390</v>
+        <v>6471209</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
+        <v>2.02</v>
+      </c>
+      <c r="S3">
+        <v>1.88</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
         <v>1.825</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>2.025</v>
       </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6471209</v>
+        <v>6445256</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S4">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z4">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6437830</v>
+        <v>6439098</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>7.5</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>6.5</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>-2</v>
+      </c>
+      <c r="R5">
+        <v>2.025</v>
+      </c>
+      <c r="S5">
+        <v>1.825</v>
+      </c>
+      <c r="T5">
         <v>3.75</v>
       </c>
-      <c r="M5">
-        <v>2.75</v>
-      </c>
-      <c r="N5">
-        <v>2.05</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6439098</v>
+        <v>6437830</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,73 +1070,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1245,7 +1245,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.222</v>
@@ -1337,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>4.75</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>1.7</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.727</v>
@@ -1871,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>5.5</v>
@@ -1957,7 +1957,7 @@
         <v>45137.375</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.833</v>
@@ -2227,7 +2227,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2402,7 +2402,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>1.333</v>
@@ -2503,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2583,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2669,7 +2669,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.95</v>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2847,7 +2847,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.45</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6779609</v>
+        <v>6779608</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,19 +2936,19 @@
         <v>45151.375</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -2960,31 +2960,31 @@
         <v>1.909</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2993,16 +2993,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6779608</v>
+        <v>6779609</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,19 +3025,19 @@
         <v>45151.375</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>3.6</v>
@@ -3049,31 +3049,31 @@
         <v>1.909</v>
       </c>
       <c r="N29">
+        <v>3.8</v>
+      </c>
+      <c r="O29">
+        <v>3.75</v>
+      </c>
+      <c r="P29">
+        <v>1.95</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>2.375</v>
-      </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.88</v>
-      </c>
-      <c r="S29">
-        <v>2.02</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3215,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.909</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>1.65</v>
@@ -3384,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3473,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
 